--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書(I／Fファイル)_N21AA002／期間内プロジェクト一覧.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書(I／Fファイル)_N21AA002／期間内プロジェクト一覧.xlsx
@@ -595,7 +595,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="163">
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
   </si>
@@ -1537,10 +1537,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>ID_FK</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>顧客ID</t>
   </si>
   <si>
@@ -1568,7 +1564,16 @@
     <t>バージョン番号</t>
   </si>
   <si>
-    <t>VERSION</t>
+    <t>ID</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>プロジェクト名</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>VERSION_NO</t>
+    <phoneticPr fontId="17"/>
   </si>
 </sst>
 </file>
@@ -1579,7 +1584,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -3404,6 +3409,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3412,18 +3429,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6235,12 +6240,12 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="S1" s="74"/>
@@ -6252,29 +6257,29 @@
       <c r="Y1" s="74"/>
       <c r="Z1" s="74"/>
     </row>
-    <row r="2" spans="1:26" ht="19.5" customHeight="1">
+    <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:26" ht="13.5" customHeight="1"/>
-    <row r="17" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="18" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="19" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="20" spans="2:19" ht="13.5" customHeight="1"/>
-    <row r="21" spans="2:19" ht="9" customHeight="1"/>
-    <row r="22" spans="2:19" ht="17.25" customHeight="1">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
@@ -6292,7 +6297,7 @@
       <c r="R22" s="54"/>
       <c r="S22" s="54"/>
     </row>
-    <row r="23" spans="2:19" ht="15.95" customHeight="1">
+    <row r="23" spans="2:19" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
@@ -6303,7 +6308,7 @@
       <c r="K23" s="77"/>
       <c r="L23" s="77"/>
     </row>
-    <row r="24" spans="2:19" ht="18" customHeight="1">
+    <row r="24" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -6323,7 +6328,7 @@
       <c r="R24" s="55"/>
       <c r="S24" s="55"/>
     </row>
-    <row r="25" spans="2:19" ht="13.5" customHeight="1">
+    <row r="25" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -6335,7 +6340,7 @@
       <c r="K25" s="205"/>
       <c r="L25" s="77"/>
     </row>
-    <row r="26" spans="2:19" ht="13.5" customHeight="1">
+    <row r="26" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -6344,7 +6349,7 @@
       <c r="K26" s="77"/>
       <c r="L26" s="77"/>
     </row>
-    <row r="27" spans="2:19" ht="13.5" customHeight="1">
+    <row r="27" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
@@ -6353,7 +6358,7 @@
       <c r="K27" s="77"/>
       <c r="L27" s="77"/>
     </row>
-    <row r="28" spans="2:19" ht="15" customHeight="1">
+    <row r="28" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="77"/>
@@ -6361,7 +6366,7 @@
       <c r="K28" s="77"/>
       <c r="L28" s="77"/>
     </row>
-    <row r="29" spans="2:19" ht="13.5" customHeight="1">
+    <row r="29" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="6"/>
       <c r="G29" s="8"/>
       <c r="H29" s="6"/>
@@ -6370,7 +6375,7 @@
       <c r="K29" s="77"/>
       <c r="L29" s="77"/>
     </row>
-    <row r="30" spans="2:19" ht="18.75" customHeight="1">
+    <row r="30" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="6"/>
       <c r="G30" s="8"/>
       <c r="H30" s="6"/>
@@ -6379,7 +6384,7 @@
       <c r="K30" s="77"/>
       <c r="L30" s="77"/>
     </row>
-    <row r="31" spans="2:19" ht="13.5" customHeight="1">
+    <row r="31" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="6"/>
       <c r="G31" s="8"/>
       <c r="H31" s="6"/>
@@ -6388,7 +6393,7 @@
       <c r="K31" s="77"/>
       <c r="L31" s="77"/>
     </row>
-    <row r="32" spans="2:19" ht="18.75" customHeight="1">
+    <row r="32" spans="2:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="77"/>
@@ -6403,7 +6408,7 @@
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" customHeight="1">
+    <row r="33" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="77"/>
@@ -6417,7 +6422,7 @@
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" customHeight="1">
+    <row r="34" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I34" s="77"/>
       <c r="J34" s="79"/>
       <c r="K34" s="77"/>
@@ -6427,509 +6432,509 @@
       <c r="R34" s="147"/>
       <c r="S34" s="147"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P35" s="11"/>
       <c r="Q35" s="147"/>
       <c r="R35" s="147"/>
       <c r="S35" s="147"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P36" s="11"/>
       <c r="Q36" s="147"/>
       <c r="R36" s="147"/>
       <c r="S36" s="145"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P37" s="11"/>
       <c r="Q37" s="144"/>
       <c r="R37" s="144"/>
       <c r="S37" s="144"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P38" s="11"/>
       <c r="Q38" s="144"/>
       <c r="R38" s="144"/>
       <c r="S38" s="144"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P39" s="11"/>
       <c r="Q39" s="144"/>
       <c r="R39" s="144"/>
       <c r="S39" s="144"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -6954,7 +6959,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="64" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="73" customWidth="1"/>
@@ -6963,7 +6968,7 @@
     <col min="36" max="16384" width="4.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="66" customFormat="1" ht="11.25">
+    <row r="1" spans="1:40" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A1" s="238" t="s">
         <v>67</v>
       </c>
@@ -7019,7 +7024,7 @@
       <c r="AM1" s="67"/>
       <c r="AN1" s="68"/>
     </row>
-    <row r="2" spans="1:40" s="66" customFormat="1" ht="11.25">
+    <row r="2" spans="1:40" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A2" s="238" t="s">
         <v>68</v>
       </c>
@@ -7072,7 +7077,7 @@
       <c r="AM2" s="67"/>
       <c r="AN2" s="67"/>
     </row>
-    <row r="3" spans="1:40" s="66" customFormat="1" ht="11.25">
+    <row r="3" spans="1:40" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="238" t="s">
         <v>69</v>
       </c>
@@ -7117,7 +7122,7 @@
       <c r="AM3" s="67"/>
       <c r="AN3" s="67"/>
     </row>
-    <row r="4" spans="1:40" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:40" s="69" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AB4" s="70"/>
       <c r="AC4" s="70"/>
       <c r="AD4" s="71"/>
@@ -7128,7 +7133,7 @@
       <c r="AI4" s="70"/>
       <c r="AJ4" s="70"/>
     </row>
-    <row r="5" spans="1:40" s="69" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="69" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="2" t="s">
         <v>0</v>
       </c>
@@ -7142,7 +7147,7 @@
       <c r="AI5" s="70"/>
       <c r="AJ5" s="70"/>
     </row>
-    <row r="6" spans="1:40" s="69" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="2"/>
       <c r="AB6" s="70"/>
       <c r="AC6" s="70"/>
@@ -7154,7 +7159,7 @@
       <c r="AI6" s="70"/>
       <c r="AJ6" s="70"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
         <v>72</v>
       </c>
@@ -7206,7 +7211,7 @@
       <c r="AI7" s="235"/>
       <c r="AJ7" s="63"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="148">
         <v>1</v>
       </c>
@@ -7258,7 +7263,7 @@
       <c r="AI8" s="211"/>
       <c r="AJ8" s="63"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1">
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="149"/>
       <c r="B9" s="215"/>
       <c r="C9" s="217"/>
@@ -7296,7 +7301,7 @@
       <c r="AI9" s="208"/>
       <c r="AJ9" s="12"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1">
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="149"/>
       <c r="B10" s="215"/>
       <c r="C10" s="217"/>
@@ -7333,7 +7338,7 @@
       <c r="AH10" s="207"/>
       <c r="AI10" s="208"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1">
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="149"/>
       <c r="B11" s="215"/>
       <c r="C11" s="217"/>
@@ -7370,7 +7375,7 @@
       <c r="AH11" s="207"/>
       <c r="AI11" s="208"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1">
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="149"/>
       <c r="B12" s="215"/>
       <c r="C12" s="217"/>
@@ -7407,7 +7412,7 @@
       <c r="AH12" s="207"/>
       <c r="AI12" s="208"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1">
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="149"/>
       <c r="B13" s="215"/>
       <c r="C13" s="217"/>
@@ -7444,7 +7449,7 @@
       <c r="AH13" s="207"/>
       <c r="AI13" s="208"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1">
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="149"/>
       <c r="B14" s="215"/>
       <c r="C14" s="217"/>
@@ -7481,7 +7486,7 @@
       <c r="AH14" s="207"/>
       <c r="AI14" s="208"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1">
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="149"/>
       <c r="B15" s="215"/>
       <c r="C15" s="217"/>
@@ -7518,7 +7523,7 @@
       <c r="AH15" s="207"/>
       <c r="AI15" s="208"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1">
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="149"/>
       <c r="B16" s="215"/>
       <c r="C16" s="217"/>
@@ -7555,7 +7560,7 @@
       <c r="AH16" s="207"/>
       <c r="AI16" s="208"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="149"/>
       <c r="B17" s="215"/>
       <c r="C17" s="217"/>
@@ -7592,7 +7597,7 @@
       <c r="AH17" s="207"/>
       <c r="AI17" s="208"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="149"/>
       <c r="B18" s="215"/>
       <c r="C18" s="217"/>
@@ -7629,7 +7634,7 @@
       <c r="AH18" s="207"/>
       <c r="AI18" s="208"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="149"/>
       <c r="B19" s="215"/>
       <c r="C19" s="217"/>
@@ -7666,7 +7671,7 @@
       <c r="AH19" s="207"/>
       <c r="AI19" s="208"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="149"/>
       <c r="B20" s="215"/>
       <c r="C20" s="217"/>
@@ -7703,7 +7708,7 @@
       <c r="AH20" s="207"/>
       <c r="AI20" s="208"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="149"/>
       <c r="B21" s="215"/>
       <c r="C21" s="217"/>
@@ -7740,7 +7745,7 @@
       <c r="AH21" s="207"/>
       <c r="AI21" s="208"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="149"/>
       <c r="B22" s="215"/>
       <c r="C22" s="217"/>
@@ -7777,7 +7782,7 @@
       <c r="AH22" s="207"/>
       <c r="AI22" s="208"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="149"/>
       <c r="B23" s="215"/>
       <c r="C23" s="217"/>
@@ -7814,7 +7819,7 @@
       <c r="AH23" s="207"/>
       <c r="AI23" s="208"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="149"/>
       <c r="B24" s="215"/>
       <c r="C24" s="217"/>
@@ -7851,7 +7856,7 @@
       <c r="AH24" s="207"/>
       <c r="AI24" s="208"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="149"/>
       <c r="B25" s="215"/>
       <c r="C25" s="217"/>
@@ -7888,7 +7893,7 @@
       <c r="AH25" s="207"/>
       <c r="AI25" s="208"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="149"/>
       <c r="B26" s="215"/>
       <c r="C26" s="217"/>
@@ -7925,7 +7930,7 @@
       <c r="AH26" s="207"/>
       <c r="AI26" s="208"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="149"/>
       <c r="B27" s="215"/>
       <c r="C27" s="217"/>
@@ -7962,7 +7967,7 @@
       <c r="AH27" s="207"/>
       <c r="AI27" s="208"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="149"/>
       <c r="B28" s="215"/>
       <c r="C28" s="217"/>
@@ -7999,7 +8004,7 @@
       <c r="AH28" s="207"/>
       <c r="AI28" s="208"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="149"/>
       <c r="B29" s="215"/>
       <c r="C29" s="217"/>
@@ -8036,7 +8041,7 @@
       <c r="AH29" s="207"/>
       <c r="AI29" s="208"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="149"/>
       <c r="B30" s="215"/>
       <c r="C30" s="217"/>
@@ -8073,7 +8078,7 @@
       <c r="AH30" s="207"/>
       <c r="AI30" s="208"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="149"/>
       <c r="B31" s="215"/>
       <c r="C31" s="217"/>
@@ -8110,7 +8115,7 @@
       <c r="AH31" s="207"/>
       <c r="AI31" s="208"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="149"/>
       <c r="B32" s="215"/>
       <c r="C32" s="217"/>
@@ -8147,7 +8152,7 @@
       <c r="AH32" s="207"/>
       <c r="AI32" s="208"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="149"/>
       <c r="B33" s="215"/>
       <c r="C33" s="217"/>
@@ -8385,7 +8390,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="64" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="95" customWidth="1"/>
@@ -8520,7 +8525,7 @@
     <col min="16163" max="16384" width="4.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="89" customFormat="1" ht="11.25">
+    <row r="1" spans="1:35" s="89" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A1" s="268" t="s">
         <v>67</v>
       </c>
@@ -8576,7 +8581,7 @@
       <c r="AH1" s="283"/>
       <c r="AI1" s="284"/>
     </row>
-    <row r="2" spans="1:35" s="89" customFormat="1" ht="11.25">
+    <row r="2" spans="1:35" s="89" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A2" s="268" t="s">
         <v>68</v>
       </c>
@@ -8626,7 +8631,7 @@
       <c r="AH2" s="283"/>
       <c r="AI2" s="284"/>
     </row>
-    <row r="3" spans="1:35" s="89" customFormat="1" ht="11.25">
+    <row r="3" spans="1:35" s="89" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="268" t="s">
         <v>69</v>
       </c>
@@ -8674,20 +8679,20 @@
       <c r="AH3" s="283"/>
       <c r="AI3" s="284"/>
     </row>
-    <row r="4" spans="1:35" s="69" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:35" s="69" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="150"/>
     </row>
-    <row r="5" spans="1:35" s="69" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q5" s="151" t="s">
         <v>87</v>
       </c>
       <c r="AC5" s="150"/>
     </row>
-    <row r="6" spans="1:35" s="69" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N6" s="151"/>
       <c r="AC6" s="150"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="152"/>
       <c r="B7" s="153" t="s">
         <v>105</v>
@@ -8726,7 +8731,7 @@
       <c r="AH7" s="156"/>
       <c r="AI7" s="157"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="152"/>
       <c r="B8" s="153"/>
       <c r="C8" s="153"/>
@@ -8763,7 +8768,7 @@
       <c r="AH8" s="159"/>
       <c r="AI8" s="157"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="152"/>
       <c r="B9" s="153" t="s">
         <v>88</v>
@@ -8802,7 +8807,7 @@
       <c r="AH9" s="160"/>
       <c r="AI9" s="152"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="152"/>
       <c r="B10" s="142"/>
       <c r="C10" s="142"/>
@@ -8839,7 +8844,7 @@
       <c r="AH10" s="156"/>
       <c r="AI10" s="157"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="152"/>
       <c r="B11" s="161" t="s">
         <v>103</v>
@@ -8878,7 +8883,7 @@
       <c r="AH11" s="156"/>
       <c r="AI11" s="157"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="152"/>
       <c r="B12" s="162"/>
       <c r="C12" s="163" t="s">
@@ -8917,7 +8922,7 @@
       <c r="AH12" s="156"/>
       <c r="AI12" s="157"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="152"/>
       <c r="B13" s="153"/>
       <c r="C13" s="153"/>
@@ -8954,7 +8959,7 @@
       <c r="AH13" s="156"/>
       <c r="AI13" s="157"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="152"/>
       <c r="B14" s="69"/>
       <c r="C14" s="153"/>
@@ -8991,7 +8996,7 @@
       <c r="AH14" s="156"/>
       <c r="AI14" s="157"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="152"/>
       <c r="B15" s="69"/>
       <c r="C15" s="152"/>
@@ -9028,7 +9033,7 @@
       <c r="AH15" s="156"/>
       <c r="AI15" s="157"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="152"/>
       <c r="B16" s="69"/>
       <c r="C16" s="152"/>
@@ -9065,7 +9070,7 @@
       <c r="AH16" s="156"/>
       <c r="AI16" s="157"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="152"/>
       <c r="B17" s="69"/>
       <c r="C17" s="152"/>
@@ -9102,7 +9107,7 @@
       <c r="AH17" s="156"/>
       <c r="AI17" s="157"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="152"/>
       <c r="B18" s="69"/>
       <c r="C18" s="152"/>
@@ -9139,7 +9144,7 @@
       <c r="AH18" s="156"/>
       <c r="AI18" s="157"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="152"/>
       <c r="B19" s="69"/>
       <c r="C19" s="152"/>
@@ -9176,7 +9181,7 @@
       <c r="AH19" s="156"/>
       <c r="AI19" s="157"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="152"/>
       <c r="B20" s="165"/>
       <c r="C20" s="142"/>
@@ -9213,7 +9218,7 @@
       <c r="AH20" s="156"/>
       <c r="AI20" s="157"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="152"/>
       <c r="B21" s="69"/>
       <c r="C21" s="152"/>
@@ -9250,7 +9255,7 @@
       <c r="AH21" s="156"/>
       <c r="AI21" s="157"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="152"/>
       <c r="B22" s="69"/>
       <c r="C22" s="152"/>
@@ -9287,7 +9292,7 @@
       <c r="AH22" s="156"/>
       <c r="AI22" s="157"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="152"/>
       <c r="B23" s="69"/>
       <c r="C23" s="152"/>
@@ -9324,7 +9329,7 @@
       <c r="AH23" s="156"/>
       <c r="AI23" s="157"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="152"/>
       <c r="B24" s="69"/>
       <c r="C24" s="152"/>
@@ -9361,7 +9366,7 @@
       <c r="AH24" s="156"/>
       <c r="AI24" s="157"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="152"/>
       <c r="B25" s="69"/>
       <c r="C25" s="152"/>
@@ -9398,7 +9403,7 @@
       <c r="AH25" s="156"/>
       <c r="AI25" s="157"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="152"/>
       <c r="B26" s="69"/>
       <c r="C26" s="152"/>
@@ -9435,7 +9440,7 @@
       <c r="AH26" s="156"/>
       <c r="AI26" s="157"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="164"/>
       <c r="B27" s="69"/>
       <c r="C27" s="69"/>
@@ -9472,7 +9477,7 @@
       <c r="AH27" s="168"/>
       <c r="AI27" s="169"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="164"/>
       <c r="B28" s="69"/>
       <c r="C28" s="150"/>
@@ -9509,7 +9514,7 @@
       <c r="AH28" s="168"/>
       <c r="AI28" s="169"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="164"/>
       <c r="B29" s="172"/>
       <c r="C29" s="152"/>
@@ -9546,7 +9551,7 @@
       <c r="AH29" s="168"/>
       <c r="AI29" s="169"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="164"/>
       <c r="B30" s="172"/>
       <c r="C30" s="152"/>
@@ -9583,7 +9588,7 @@
       <c r="AH30" s="168"/>
       <c r="AI30" s="169"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="164"/>
       <c r="B31" s="172"/>
       <c r="C31" s="152"/>
@@ -9620,7 +9625,7 @@
       <c r="AH31" s="168"/>
       <c r="AI31" s="169"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="164"/>
       <c r="B32" s="172"/>
       <c r="C32" s="152"/>
@@ -9657,7 +9662,7 @@
       <c r="AH32" s="168"/>
       <c r="AI32" s="169"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="164"/>
       <c r="B33" s="164"/>
       <c r="C33" s="164"/>
@@ -9694,7 +9699,7 @@
       <c r="AH33" s="177"/>
       <c r="AI33" s="164"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="93"/>
       <c r="E34" s="93"/>
       <c r="F34" s="93"/>
@@ -9726,7 +9731,7 @@
       <c r="AH34" s="100"/>
       <c r="AI34" s="96"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S35" s="96"/>
       <c r="T35" s="96"/>
       <c r="U35" s="97"/>
@@ -9745,7 +9750,7 @@
       <c r="AH35" s="103"/>
       <c r="AI35" s="96"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q36" s="104"/>
       <c r="S36" s="96"/>
       <c r="T36" s="97"/>
@@ -9765,7 +9770,7 @@
       <c r="AH36" s="103"/>
       <c r="AI36" s="96"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S37" s="96"/>
       <c r="T37" s="96"/>
       <c r="U37" s="96"/>
@@ -9784,7 +9789,7 @@
       <c r="AH37" s="103"/>
       <c r="AI37" s="96"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J38" s="93"/>
       <c r="K38" s="93"/>
       <c r="L38" s="93"/>
@@ -9798,37 +9803,37 @@
       <c r="AH38" s="103"/>
       <c r="AI38" s="96"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE39" s="96"/>
       <c r="AF39" s="101"/>
       <c r="AG39" s="102"/>
       <c r="AH39" s="103"/>
       <c r="AI39" s="96"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE40" s="96"/>
       <c r="AF40" s="101"/>
       <c r="AG40" s="101"/>
       <c r="AH40" s="103"/>
       <c r="AI40" s="96"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="93"/>
       <c r="AF41" s="105"/>
       <c r="AG41" s="105"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="93"/>
       <c r="AG42" s="105"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF43" s="105"/>
       <c r="AG43" s="105"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG44" s="105"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S45" s="93"/>
       <c r="T45" s="93"/>
       <c r="V45" s="93"/>
@@ -9841,7 +9846,7 @@
       <c r="AC45" s="93"/>
       <c r="AD45" s="93"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R46" s="93"/>
       <c r="S46" s="93"/>
       <c r="T46" s="93"/>
@@ -9856,10 +9861,10 @@
       <c r="AD46" s="93"/>
       <c r="AG46" s="105"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R47" s="93"/>
     </row>
-    <row r="48" spans="1:35" s="93" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:35" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="64"/>
       <c r="B48" s="64"/>
       <c r="C48" s="64"/>
@@ -9892,7 +9897,7 @@
       <c r="AD48" s="64"/>
       <c r="AH48" s="104"/>
     </row>
-    <row r="49" spans="1:34" s="93" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:34" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="64"/>
       <c r="B49" s="64"/>
       <c r="C49" s="64"/>
@@ -9964,12 +9969,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="109"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="131" customFormat="1">
+    <row r="1" spans="1:35" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="268" t="s">
         <v>67</v>
       </c>
@@ -10025,7 +10030,7 @@
       <c r="AH1" s="283"/>
       <c r="AI1" s="284"/>
     </row>
-    <row r="2" spans="1:35" s="131" customFormat="1">
+    <row r="2" spans="1:35" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="268" t="s">
         <v>68</v>
       </c>
@@ -10075,7 +10080,7 @@
       <c r="AH2" s="283"/>
       <c r="AI2" s="284"/>
     </row>
-    <row r="3" spans="1:35" s="131" customFormat="1">
+    <row r="3" spans="1:35" s="131" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="268" t="s">
         <v>69</v>
       </c>
@@ -10123,7 +10128,7 @@
       <c r="AH3" s="283"/>
       <c r="AI3" s="284"/>
     </row>
-    <row r="4" spans="1:35" s="131" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:35" s="131" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="136"/>
       <c r="AD4" s="143"/>
       <c r="AE4" s="143"/>
@@ -10132,17 +10137,17 @@
       <c r="AH4" s="51"/>
       <c r="AI4" s="51"/>
     </row>
-    <row r="5" spans="1:35" s="141" customFormat="1" ht="17.25" customHeight="1">
+    <row r="5" spans="1:35" s="141" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="64" t="s">
         <v>104</v>
       </c>
       <c r="C5" s="82"/>
     </row>
-    <row r="6" spans="1:35" s="141" customFormat="1" ht="6" customHeight="1">
+    <row r="6" spans="1:35" s="141" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="64"/>
       <c r="C6" s="82"/>
     </row>
-    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="285" t="s">
         <v>39</v>
       </c>
@@ -10185,7 +10190,7 @@
       <c r="AH7" s="296"/>
       <c r="AI7" s="297"/>
     </row>
-    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="285" t="s">
         <v>20</v>
       </c>
@@ -10230,7 +10235,7 @@
       <c r="AH8" s="294"/>
       <c r="AI8" s="298"/>
     </row>
-    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="285" t="s">
         <v>40</v>
       </c>
@@ -10269,7 +10274,7 @@
       <c r="AH9" s="185"/>
       <c r="AI9" s="26"/>
     </row>
-    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="106" t="s">
         <v>139</v>
@@ -10308,7 +10313,7 @@
       <c r="AH10" s="184"/>
       <c r="AI10" s="122"/>
     </row>
-    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="184"/>
       <c r="C11" s="106"/>
@@ -10345,7 +10350,7 @@
       <c r="AH11" s="184"/>
       <c r="AI11" s="122"/>
     </row>
-    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29"/>
       <c r="B12" s="184"/>
       <c r="C12" s="106"/>
@@ -10382,7 +10387,7 @@
       <c r="AH12" s="184"/>
       <c r="AI12" s="122"/>
     </row>
-    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="52"/>
       <c r="B13" s="183"/>
       <c r="C13" s="17" t="s">
@@ -10421,7 +10426,7 @@
       <c r="AH13" s="183"/>
       <c r="AI13" s="36"/>
     </row>
-    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="285" t="s">
         <v>23</v>
       </c>
@@ -10460,7 +10465,7 @@
       <c r="AH14" s="185"/>
       <c r="AI14" s="26"/>
     </row>
-    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
       <c r="B15" s="184" t="s">
         <v>107</v>
@@ -10499,7 +10504,7 @@
       <c r="AH15" s="184"/>
       <c r="AI15" s="122"/>
     </row>
-    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28"/>
       <c r="B16" s="184" t="s">
         <v>141</v>
@@ -10538,7 +10543,7 @@
       <c r="AH16" s="184"/>
       <c r="AI16" s="122"/>
     </row>
-    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="108"/>
       <c r="B17" s="183"/>
       <c r="C17" s="183"/>
@@ -10575,7 +10580,7 @@
       <c r="AH17" s="183"/>
       <c r="AI17" s="36"/>
     </row>
-    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="299" t="s">
         <v>19</v>
       </c>
@@ -10616,7 +10621,7 @@
       <c r="AH18" s="106"/>
       <c r="AI18" s="53"/>
     </row>
-    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="186"/>
       <c r="B19" s="187"/>
       <c r="C19" s="187"/>
@@ -10663,7 +10668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="189"/>
       <c r="B20" s="190"/>
       <c r="C20" s="190"/>
@@ -10700,7 +10705,7 @@
       <c r="AH20" s="106"/>
       <c r="AI20" s="122"/>
     </row>
-    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="285" t="s">
         <v>12</v>
       </c>
@@ -10745,7 +10750,7 @@
       <c r="AH21" s="294"/>
       <c r="AI21" s="298"/>
     </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="290" t="s">
         <v>18</v>
       </c>
@@ -10786,7 +10791,7 @@
       <c r="AH22" s="18"/>
       <c r="AI22" s="26"/>
     </row>
-    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="189"/>
       <c r="B23" s="190"/>
       <c r="C23" s="190"/>
@@ -10831,7 +10836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="315" t="s">
         <v>11</v>
       </c>
@@ -10878,7 +10883,7 @@
       <c r="AH24" s="21"/>
       <c r="AI24" s="22"/>
     </row>
-    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="311" t="s">
         <v>16</v>
       </c>
@@ -10925,7 +10930,7 @@
       <c r="AH25" s="185"/>
       <c r="AI25" s="26"/>
     </row>
-    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="46"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -10970,7 +10975,7 @@
       <c r="AH26" s="184"/>
       <c r="AI26" s="122"/>
     </row>
-    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="47"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48"/>
@@ -11015,7 +11020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="285" t="s">
         <v>22</v>
       </c>
@@ -11054,7 +11059,7 @@
       <c r="AH28" s="185"/>
       <c r="AI28" s="26"/>
     </row>
-    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="107"/>
       <c r="B29" s="184"/>
       <c r="C29" s="184"/>
@@ -11091,7 +11096,7 @@
       <c r="AH29" s="184"/>
       <c r="AI29" s="122"/>
     </row>
-    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="107"/>
       <c r="B30" s="184"/>
       <c r="C30" s="184"/>
@@ -11128,7 +11133,7 @@
       <c r="AH30" s="184"/>
       <c r="AI30" s="122"/>
     </row>
-    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="107"/>
       <c r="B31" s="184"/>
       <c r="C31" s="106"/>
@@ -11165,7 +11170,7 @@
       <c r="AH31" s="184"/>
       <c r="AI31" s="122"/>
     </row>
-    <row r="32" spans="1:35" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="108"/>
       <c r="B32" s="183"/>
       <c r="C32" s="183"/>
@@ -11917,7 +11922,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="4.83203125" style="15"/>
     <col min="5" max="5" width="7.5" style="15" customWidth="1"/>
@@ -11926,7 +11931,7 @@
     <col min="32" max="16384" width="4.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="14" customFormat="1">
+    <row r="1" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="268" t="s">
         <v>67</v>
       </c>
@@ -11982,7 +11987,7 @@
       <c r="AH1" s="283"/>
       <c r="AI1" s="284"/>
     </row>
-    <row r="2" spans="1:47" s="14" customFormat="1">
+    <row r="2" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="268" t="s">
         <v>68</v>
       </c>
@@ -12032,7 +12037,7 @@
       <c r="AH2" s="283"/>
       <c r="AI2" s="284"/>
     </row>
-    <row r="3" spans="1:47" s="14" customFormat="1">
+    <row r="3" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="268" t="s">
         <v>69</v>
       </c>
@@ -12080,7 +12085,7 @@
       <c r="AH3" s="283"/>
       <c r="AI3" s="284"/>
     </row>
-    <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -12100,7 +12105,7 @@
       <c r="AI4" s="41"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" spans="1:47" s="59" customFormat="1">
+    <row r="5" spans="1:47" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="164" t="s">
         <v>78</v>
       </c>
@@ -12151,7 +12156,7 @@
       <c r="AT5" s="75"/>
       <c r="AU5" s="75"/>
     </row>
-    <row r="6" spans="1:47" s="59" customFormat="1">
+    <row r="6" spans="1:47" s="59" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="64"/>
       <c r="B6" s="75"/>
       <c r="C6" s="12"/>
@@ -12200,7 +12205,7 @@
       <c r="AT6" s="75"/>
       <c r="AU6" s="75"/>
     </row>
-    <row r="7" spans="1:47">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A7" s="318" t="s">
         <v>109</v>
       </c>
@@ -12241,7 +12246,7 @@
       <c r="AH7" s="319"/>
       <c r="AI7" s="332"/>
     </row>
-    <row r="8" spans="1:47" s="193" customFormat="1" ht="22.5" customHeight="1">
+    <row r="8" spans="1:47" s="193" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="192" t="s">
         <v>79</v>
       </c>
@@ -12296,7 +12301,7 @@
       </c>
       <c r="AI8" s="330"/>
     </row>
-    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="178">
         <v>1</v>
       </c>
@@ -12349,7 +12354,7 @@
       <c r="AH9" s="383"/>
       <c r="AI9" s="384"/>
     </row>
-    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="178">
         <v>2</v>
       </c>
@@ -12393,7 +12398,7 @@
       <c r="AP10" s="111"/>
       <c r="AQ10" s="111"/>
     </row>
-    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="178">
         <v>3</v>
       </c>
@@ -12437,7 +12442,7 @@
       <c r="AP11" s="110"/>
       <c r="AQ11" s="111"/>
     </row>
-    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="178">
         <v>4</v>
       </c>
@@ -12481,7 +12486,7 @@
       <c r="AP12" s="110"/>
       <c r="AQ12" s="111"/>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A13" s="178">
         <v>5</v>
       </c>
@@ -12525,7 +12530,7 @@
       <c r="AP13" s="112"/>
       <c r="AQ13" s="111"/>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A14" s="178">
         <v>6</v>
       </c>
@@ -12564,7 +12569,7 @@
       <c r="AH14" s="333"/>
       <c r="AI14" s="334"/>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A15" s="179">
         <v>7</v>
       </c>
@@ -12603,7 +12608,7 @@
       <c r="AH15" s="333"/>
       <c r="AI15" s="334"/>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A16" s="179">
         <v>8</v>
       </c>
@@ -12642,7 +12647,7 @@
       <c r="AH16" s="333"/>
       <c r="AI16" s="334"/>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A17" s="180">
         <v>9</v>
       </c>
@@ -12681,7 +12686,7 @@
       <c r="AH17" s="379"/>
       <c r="AI17" s="380"/>
     </row>
-    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="367"/>
       <c r="B18" s="368"/>
       <c r="C18" s="368"/>
@@ -12719,7 +12724,7 @@
       <c r="AI18" s="76"/>
       <c r="AJ18" s="33"/>
     </row>
-    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="361" t="s">
         <v>51</v>
       </c>
@@ -12766,7 +12771,7 @@
       <c r="AT19" s="75"/>
       <c r="AU19" s="75"/>
     </row>
-    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="116"/>
       <c r="C20" s="203" t="s">
@@ -12814,7 +12819,7 @@
       <c r="AT20" s="75"/>
       <c r="AU20" s="75"/>
     </row>
-    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="116"/>
       <c r="C21" s="132"/>
@@ -12851,7 +12856,7 @@
       <c r="AT21" s="75"/>
       <c r="AU21" s="75"/>
     </row>
-    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="38"/>
       <c r="B22" s="116"/>
       <c r="C22" s="138"/>
@@ -12888,7 +12893,7 @@
       <c r="AT22" s="75"/>
       <c r="AU22" s="75"/>
     </row>
-    <row r="23" spans="1:47" s="121" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:47" s="121" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="126"/>
       <c r="B23" s="125"/>
       <c r="C23" s="138"/>
@@ -12925,7 +12930,7 @@
       <c r="AT23" s="124"/>
       <c r="AU23" s="124"/>
     </row>
-    <row r="24" spans="1:47" s="121" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:47" s="121" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="126"/>
       <c r="B24" s="125"/>
       <c r="C24" s="132"/>
@@ -12962,7 +12967,7 @@
       <c r="AT24" s="124"/>
       <c r="AU24" s="124"/>
     </row>
-    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="38"/>
       <c r="B25" s="118"/>
       <c r="C25" s="131"/>
@@ -12997,7 +13002,7 @@
       <c r="AT25" s="75"/>
       <c r="AU25" s="75"/>
     </row>
-    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="38"/>
       <c r="B26" s="118"/>
       <c r="C26" s="116"/>
@@ -13043,7 +13048,7 @@
       <c r="AT26" s="75"/>
       <c r="AU26" s="75"/>
     </row>
-    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="40"/>
       <c r="B27" s="119"/>
       <c r="C27" s="117"/>
@@ -13089,7 +13094,7 @@
       <c r="AT27" s="75"/>
       <c r="AU27" s="75"/>
     </row>
-    <row r="28" spans="1:47" ht="22.5" customHeight="1">
+    <row r="28" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="113"/>
       <c r="C28" s="113"/>
       <c r="D28" s="113"/>
@@ -13130,7 +13135,7 @@
       <c r="AT28" s="75"/>
       <c r="AU28" s="75"/>
     </row>
-    <row r="29" spans="1:47" ht="12">
+    <row r="29" spans="1:47" ht="12" x14ac:dyDescent="0.15">
       <c r="AN29" s="84"/>
       <c r="AO29" s="75"/>
       <c r="AP29" s="75"/>
@@ -13140,7 +13145,7 @@
       <c r="AT29" s="75"/>
       <c r="AU29" s="75"/>
     </row>
-    <row r="30" spans="1:47" ht="12">
+    <row r="30" spans="1:47" ht="12" x14ac:dyDescent="0.15">
       <c r="AN30" s="84"/>
       <c r="AO30" s="75"/>
       <c r="AP30" s="75"/>
@@ -13150,7 +13155,7 @@
       <c r="AT30" s="75"/>
       <c r="AU30" s="75"/>
     </row>
-    <row r="31" spans="1:47" ht="12">
+    <row r="31" spans="1:47" ht="12" x14ac:dyDescent="0.15">
       <c r="AN31" s="84"/>
       <c r="AO31" s="75"/>
       <c r="AP31" s="75"/>
@@ -13160,7 +13165,7 @@
       <c r="AT31" s="75"/>
       <c r="AU31" s="75"/>
     </row>
-    <row r="32" spans="1:47" ht="12">
+    <row r="32" spans="1:47" ht="12" x14ac:dyDescent="0.15">
       <c r="AN32" s="84"/>
       <c r="AO32" s="75"/>
       <c r="AP32" s="75"/>
@@ -13170,7 +13175,7 @@
       <c r="AT32" s="75"/>
       <c r="AU32" s="75"/>
     </row>
-    <row r="33" spans="40:47" ht="12">
+    <row r="33" spans="40:47" ht="12" x14ac:dyDescent="0.15">
       <c r="AN33" s="84"/>
       <c r="AO33" s="75"/>
       <c r="AP33" s="75"/>
@@ -13180,7 +13185,7 @@
       <c r="AT33" s="75"/>
       <c r="AU33" s="75"/>
     </row>
-    <row r="34" spans="40:47" ht="12">
+    <row r="34" spans="40:47" ht="12" x14ac:dyDescent="0.15">
       <c r="AN34" s="84"/>
       <c r="AO34" s="75"/>
       <c r="AP34" s="75"/>
@@ -13190,7 +13195,7 @@
       <c r="AT34" s="75"/>
       <c r="AU34" s="75"/>
     </row>
-    <row r="35" spans="40:47" ht="12">
+    <row r="35" spans="40:47" ht="12" x14ac:dyDescent="0.15">
       <c r="AN35" s="84"/>
       <c r="AO35" s="75"/>
       <c r="AP35" s="75"/>
@@ -13200,7 +13205,7 @@
       <c r="AT35" s="75"/>
       <c r="AU35" s="75"/>
     </row>
-    <row r="36" spans="40:47" ht="12">
+    <row r="36" spans="40:47" ht="12" x14ac:dyDescent="0.15">
       <c r="AN36" s="84"/>
       <c r="AO36" s="75"/>
       <c r="AP36" s="75"/>
@@ -13210,7 +13215,7 @@
       <c r="AT36" s="75"/>
       <c r="AU36" s="75"/>
     </row>
-    <row r="37" spans="40:47">
+    <row r="37" spans="40:47" x14ac:dyDescent="0.15">
       <c r="AN37" s="75"/>
       <c r="AO37" s="75"/>
       <c r="AP37" s="75"/>
@@ -13220,7 +13225,7 @@
       <c r="AT37" s="75"/>
       <c r="AU37" s="75"/>
     </row>
-    <row r="38" spans="40:47">
+    <row r="38" spans="40:47" x14ac:dyDescent="0.15">
       <c r="AN38" s="75"/>
       <c r="AO38" s="75"/>
       <c r="AP38" s="75"/>
@@ -13230,7 +13235,7 @@
       <c r="AT38" s="75"/>
       <c r="AU38" s="75"/>
     </row>
-    <row r="39" spans="40:47">
+    <row r="39" spans="40:47" x14ac:dyDescent="0.15">
       <c r="AN39" s="75"/>
       <c r="AO39" s="75"/>
       <c r="AP39" s="75"/>
@@ -13377,7 +13382,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="4.83203125" style="75"/>
     <col min="3" max="3" width="8.6640625" style="75" customWidth="1"/>
@@ -13386,7 +13391,7 @@
     <col min="32" max="16384" width="4.83203125" style="75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="66" customFormat="1" ht="11.25">
+    <row r="1" spans="1:121" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A1" s="268" t="s">
         <v>67</v>
       </c>
@@ -13442,7 +13447,7 @@
       <c r="AH1" s="410"/>
       <c r="AI1" s="411"/>
     </row>
-    <row r="2" spans="1:121" s="66" customFormat="1" ht="11.25">
+    <row r="2" spans="1:121" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A2" s="268" t="s">
         <v>68</v>
       </c>
@@ -13492,7 +13497,7 @@
       <c r="AH2" s="410"/>
       <c r="AI2" s="411"/>
     </row>
-    <row r="3" spans="1:121" s="66" customFormat="1" ht="11.25">
+    <row r="3" spans="1:121" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A3" s="268" t="s">
         <v>69</v>
       </c>
@@ -13540,8 +13545,8 @@
       <c r="AH3" s="410"/>
       <c r="AI3" s="411"/>
     </row>
-    <row r="4" spans="1:121" ht="11.25"/>
-    <row r="5" spans="1:121" ht="11.25">
+    <row r="4" spans="1:121" ht="11.25" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="92" t="s">
         <v>122</v>
       </c>
@@ -13549,13 +13554,13 @@
       <c r="C5" s="90"/>
       <c r="D5" s="90"/>
     </row>
-    <row r="6" spans="1:121" ht="11.25">
+    <row r="6" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A6" s="88"/>
       <c r="B6" s="88"/>
       <c r="C6" s="88"/>
       <c r="D6" s="88"/>
     </row>
-    <row r="7" spans="1:121" s="196" customFormat="1" ht="22.5" customHeight="1">
+    <row r="7" spans="1:121" s="196" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="194" t="s">
         <v>102</v>
       </c>
@@ -13679,7 +13684,7 @@
       <c r="DP7" s="198"/>
       <c r="DQ7" s="198"/>
     </row>
-    <row r="8" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="8" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="149">
         <v>1</v>
       </c>
@@ -13698,7 +13703,7 @@
       <c r="J8" s="213"/>
       <c r="K8" s="214"/>
       <c r="L8" s="388" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="M8" s="213"/>
       <c r="N8" s="213"/>
@@ -13713,14 +13718,14 @@
       <c r="S8" s="389"/>
       <c r="T8" s="389"/>
       <c r="U8" s="390"/>
-      <c r="V8" s="397">
+      <c r="V8" s="394">
         <v>10</v>
       </c>
-      <c r="W8" s="398"/>
-      <c r="X8" s="399" t="s">
+      <c r="W8" s="395"/>
+      <c r="X8" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y8" s="400"/>
+      <c r="Y8" s="397"/>
       <c r="Z8" s="388" t="s">
         <v>110</v>
       </c>
@@ -13729,10 +13734,10 @@
         <v>110</v>
       </c>
       <c r="AC8" s="390"/>
-      <c r="AD8" s="399" t="s">
+      <c r="AD8" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE8" s="400"/>
+      <c r="AE8" s="397"/>
       <c r="AF8" s="388" t="s">
         <v>110</v>
       </c>
@@ -13807,7 +13812,7 @@
       <c r="DP8" s="202"/>
       <c r="DQ8" s="202"/>
     </row>
-    <row r="9" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="149">
         <v>2</v>
       </c>
@@ -13825,8 +13830,8 @@
       <c r="I9" s="213"/>
       <c r="J9" s="213"/>
       <c r="K9" s="214"/>
-      <c r="L9" s="212" t="s">
-        <v>144</v>
+      <c r="L9" s="388" t="s">
+        <v>161</v>
       </c>
       <c r="M9" s="213"/>
       <c r="N9" s="213"/>
@@ -13841,15 +13846,15 @@
       <c r="S9" s="389"/>
       <c r="T9" s="389"/>
       <c r="U9" s="390"/>
-      <c r="V9" s="397">
+      <c r="V9" s="394">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W9" s="398"/>
-      <c r="X9" s="399" t="s">
+      <c r="W9" s="395"/>
+      <c r="X9" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y9" s="400"/>
+      <c r="Y9" s="397"/>
       <c r="Z9" s="388" t="s">
         <v>110</v>
       </c>
@@ -13858,10 +13863,10 @@
         <v>110</v>
       </c>
       <c r="AC9" s="390"/>
-      <c r="AD9" s="399" t="s">
+      <c r="AD9" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE9" s="400"/>
+      <c r="AE9" s="397"/>
       <c r="AF9" s="388" t="s">
         <v>110</v>
       </c>
@@ -13936,7 +13941,7 @@
       <c r="DP9" s="202"/>
       <c r="DQ9" s="202"/>
     </row>
-    <row r="10" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="149">
         <v>3</v>
       </c>
@@ -13970,15 +13975,15 @@
       <c r="S10" s="389"/>
       <c r="T10" s="389"/>
       <c r="U10" s="390"/>
-      <c r="V10" s="397">
+      <c r="V10" s="394">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W10" s="398"/>
-      <c r="X10" s="399" t="s">
+      <c r="W10" s="395"/>
+      <c r="X10" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y10" s="400"/>
+      <c r="Y10" s="397"/>
       <c r="Z10" s="388" t="s">
         <v>110</v>
       </c>
@@ -13987,10 +13992,10 @@
         <v>110</v>
       </c>
       <c r="AC10" s="390"/>
-      <c r="AD10" s="399" t="s">
+      <c r="AD10" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE10" s="400"/>
+      <c r="AE10" s="397"/>
       <c r="AF10" s="388" t="s">
         <v>110</v>
       </c>
@@ -14065,7 +14070,7 @@
       <c r="DP10" s="202"/>
       <c r="DQ10" s="202"/>
     </row>
-    <row r="11" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="149">
         <v>4</v>
       </c>
@@ -14099,15 +14104,15 @@
       <c r="S11" s="389"/>
       <c r="T11" s="389"/>
       <c r="U11" s="390"/>
-      <c r="V11" s="397">
+      <c r="V11" s="394">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W11" s="398"/>
-      <c r="X11" s="399" t="s">
+      <c r="W11" s="395"/>
+      <c r="X11" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y11" s="400"/>
+      <c r="Y11" s="397"/>
       <c r="Z11" s="388" t="s">
         <v>110</v>
       </c>
@@ -14116,10 +14121,10 @@
         <v>110</v>
       </c>
       <c r="AC11" s="390"/>
-      <c r="AD11" s="399" t="s">
+      <c r="AD11" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE11" s="400"/>
+      <c r="AE11" s="397"/>
       <c r="AF11" s="388" t="s">
         <v>110</v>
       </c>
@@ -14194,7 +14199,7 @@
       <c r="DP11" s="202"/>
       <c r="DQ11" s="202"/>
     </row>
-    <row r="12" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="149">
         <v>5</v>
       </c>
@@ -14228,14 +14233,14 @@
       <c r="S12" s="389"/>
       <c r="T12" s="389"/>
       <c r="U12" s="390"/>
-      <c r="V12" s="397">
+      <c r="V12" s="394">
         <v>10</v>
       </c>
-      <c r="W12" s="398"/>
-      <c r="X12" s="399" t="s">
+      <c r="W12" s="395"/>
+      <c r="X12" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y12" s="400"/>
+      <c r="Y12" s="397"/>
       <c r="Z12" s="388" t="s">
         <v>110</v>
       </c>
@@ -14244,10 +14249,10 @@
         <v>110</v>
       </c>
       <c r="AC12" s="390"/>
-      <c r="AD12" s="399" t="s">
+      <c r="AD12" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE12" s="400"/>
+      <c r="AE12" s="397"/>
       <c r="AF12" s="388" t="s">
         <v>134</v>
       </c>
@@ -14322,7 +14327,7 @@
       <c r="DP12" s="202"/>
       <c r="DQ12" s="202"/>
     </row>
-    <row r="13" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="149">
         <v>6</v>
       </c>
@@ -14356,14 +14361,14 @@
       <c r="S13" s="389"/>
       <c r="T13" s="389"/>
       <c r="U13" s="390"/>
-      <c r="V13" s="397">
+      <c r="V13" s="394">
         <v>10</v>
       </c>
-      <c r="W13" s="398"/>
-      <c r="X13" s="399" t="s">
+      <c r="W13" s="395"/>
+      <c r="X13" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y13" s="400"/>
+      <c r="Y13" s="397"/>
       <c r="Z13" s="388" t="s">
         <v>110</v>
       </c>
@@ -14372,10 +14377,10 @@
         <v>110</v>
       </c>
       <c r="AC13" s="390"/>
-      <c r="AD13" s="399" t="s">
+      <c r="AD13" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE13" s="400"/>
+      <c r="AE13" s="397"/>
       <c r="AF13" s="388" t="s">
         <v>134</v>
       </c>
@@ -14450,7 +14455,7 @@
       <c r="DP13" s="202"/>
       <c r="DQ13" s="202"/>
     </row>
-    <row r="14" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="149">
         <v>7</v>
       </c>
@@ -14469,7 +14474,7 @@
       <c r="J14" s="213"/>
       <c r="K14" s="214"/>
       <c r="L14" s="388" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="M14" s="213"/>
       <c r="N14" s="213"/>
@@ -14484,14 +14489,14 @@
       <c r="S14" s="389"/>
       <c r="T14" s="389"/>
       <c r="U14" s="390"/>
-      <c r="V14" s="397">
+      <c r="V14" s="394">
         <v>11</v>
       </c>
-      <c r="W14" s="398"/>
-      <c r="X14" s="399" t="s">
+      <c r="W14" s="395"/>
+      <c r="X14" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y14" s="400"/>
+      <c r="Y14" s="397"/>
       <c r="Z14" s="388" t="s">
         <v>110</v>
       </c>
@@ -14500,10 +14505,10 @@
         <v>110</v>
       </c>
       <c r="AC14" s="390"/>
-      <c r="AD14" s="399" t="s">
+      <c r="AD14" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE14" s="400"/>
+      <c r="AE14" s="397"/>
       <c r="AF14" s="388" t="s">
         <v>110</v>
       </c>
@@ -14578,12 +14583,12 @@
       <c r="DP14" s="202"/>
       <c r="DQ14" s="202"/>
     </row>
-    <row r="15" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="149">
         <v>8</v>
       </c>
       <c r="B15" s="206" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C15" s="207"/>
       <c r="D15" s="207"/>
@@ -14596,7 +14601,9 @@
       <c r="I15" s="213"/>
       <c r="J15" s="213"/>
       <c r="K15" s="214"/>
-      <c r="L15" s="212"/>
+      <c r="L15" s="388" t="s">
+        <v>160</v>
+      </c>
       <c r="M15" s="213"/>
       <c r="N15" s="213"/>
       <c r="O15" s="213"/>
@@ -14610,14 +14617,14 @@
       <c r="S15" s="389"/>
       <c r="T15" s="389"/>
       <c r="U15" s="390"/>
-      <c r="V15" s="397">
+      <c r="V15" s="394">
         <v>11</v>
       </c>
-      <c r="W15" s="398"/>
-      <c r="X15" s="399" t="s">
+      <c r="W15" s="395"/>
+      <c r="X15" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y15" s="400"/>
+      <c r="Y15" s="397"/>
       <c r="Z15" s="388" t="s">
         <v>110</v>
       </c>
@@ -14626,10 +14633,10 @@
         <v>110</v>
       </c>
       <c r="AC15" s="390"/>
-      <c r="AD15" s="399" t="s">
+      <c r="AD15" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE15" s="400"/>
+      <c r="AE15" s="397"/>
       <c r="AF15" s="388" t="s">
         <v>110</v>
       </c>
@@ -14704,7 +14711,7 @@
       <c r="DP15" s="202"/>
       <c r="DQ15" s="202"/>
     </row>
-    <row r="16" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="149">
         <v>9</v>
       </c>
@@ -14723,7 +14730,7 @@
       <c r="J16" s="213"/>
       <c r="K16" s="214"/>
       <c r="L16" s="212" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M16" s="213"/>
       <c r="N16" s="213"/>
@@ -14738,15 +14745,15 @@
       <c r="S16" s="389"/>
       <c r="T16" s="389"/>
       <c r="U16" s="390"/>
-      <c r="V16" s="397">
-        <f t="shared" ref="V15:V17" si="0">128*3</f>
+      <c r="V16" s="394">
+        <f t="shared" ref="V16:V17" si="0">128*3</f>
         <v>384</v>
       </c>
-      <c r="W16" s="398"/>
-      <c r="X16" s="399" t="s">
+      <c r="W16" s="395"/>
+      <c r="X16" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y16" s="400"/>
+      <c r="Y16" s="397"/>
       <c r="Z16" s="388" t="s">
         <v>110</v>
       </c>
@@ -14755,10 +14762,10 @@
         <v>110</v>
       </c>
       <c r="AC16" s="390"/>
-      <c r="AD16" s="399" t="s">
+      <c r="AD16" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE16" s="400"/>
+      <c r="AE16" s="397"/>
       <c r="AF16" s="388" t="s">
         <v>110</v>
       </c>
@@ -14833,7 +14840,7 @@
       <c r="DP16" s="202"/>
       <c r="DQ16" s="202"/>
     </row>
-    <row r="17" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="149">
         <v>10</v>
       </c>
@@ -14852,7 +14859,7 @@
       <c r="J17" s="213"/>
       <c r="K17" s="214"/>
       <c r="L17" s="212" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M17" s="213"/>
       <c r="N17" s="213"/>
@@ -14867,15 +14874,15 @@
       <c r="S17" s="389"/>
       <c r="T17" s="389"/>
       <c r="U17" s="390"/>
-      <c r="V17" s="397">
+      <c r="V17" s="394">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="W17" s="398"/>
-      <c r="X17" s="399" t="s">
+      <c r="W17" s="395"/>
+      <c r="X17" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y17" s="400"/>
+      <c r="Y17" s="397"/>
       <c r="Z17" s="388" t="s">
         <v>110</v>
       </c>
@@ -14884,10 +14891,10 @@
         <v>110</v>
       </c>
       <c r="AC17" s="390"/>
-      <c r="AD17" s="399" t="s">
+      <c r="AD17" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE17" s="400"/>
+      <c r="AE17" s="397"/>
       <c r="AF17" s="388" t="s">
         <v>110</v>
       </c>
@@ -14962,12 +14969,12 @@
       <c r="DP17" s="202"/>
       <c r="DQ17" s="202"/>
     </row>
-    <row r="18" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="149">
         <v>11</v>
       </c>
       <c r="B18" s="206" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C18" s="207"/>
       <c r="D18" s="207"/>
@@ -14981,7 +14988,7 @@
       <c r="J18" s="213"/>
       <c r="K18" s="214"/>
       <c r="L18" s="212" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M18" s="213"/>
       <c r="N18" s="213"/>
@@ -14996,15 +15003,15 @@
       <c r="S18" s="389"/>
       <c r="T18" s="389"/>
       <c r="U18" s="390"/>
-      <c r="V18" s="397">
+      <c r="V18" s="394">
         <f>512*3</f>
         <v>1536</v>
       </c>
-      <c r="W18" s="398"/>
-      <c r="X18" s="399" t="s">
+      <c r="W18" s="395"/>
+      <c r="X18" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y18" s="400"/>
+      <c r="Y18" s="397"/>
       <c r="Z18" s="388" t="s">
         <v>110</v>
       </c>
@@ -15013,10 +15020,10 @@
         <v>110</v>
       </c>
       <c r="AC18" s="390"/>
-      <c r="AD18" s="399" t="s">
+      <c r="AD18" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE18" s="400"/>
+      <c r="AE18" s="397"/>
       <c r="AF18" s="388" t="s">
         <v>110</v>
       </c>
@@ -15091,26 +15098,26 @@
       <c r="DP18" s="202"/>
       <c r="DQ18" s="202"/>
     </row>
-    <row r="19" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="149">
         <v>12</v>
       </c>
       <c r="B19" s="391" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="207"/>
       <c r="D19" s="207"/>
       <c r="E19" s="207"/>
       <c r="F19" s="208"/>
       <c r="G19" s="388" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H19" s="213"/>
       <c r="I19" s="213"/>
       <c r="J19" s="213"/>
       <c r="K19" s="214"/>
       <c r="L19" s="388" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M19" s="213"/>
       <c r="N19" s="213"/>
@@ -15125,14 +15132,14 @@
       <c r="S19" s="389"/>
       <c r="T19" s="389"/>
       <c r="U19" s="390"/>
-      <c r="V19" s="397">
+      <c r="V19" s="394">
         <v>11</v>
       </c>
-      <c r="W19" s="398"/>
-      <c r="X19" s="399" t="s">
+      <c r="W19" s="395"/>
+      <c r="X19" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y19" s="400"/>
+      <c r="Y19" s="397"/>
       <c r="Z19" s="388" t="s">
         <v>110</v>
       </c>
@@ -15141,10 +15148,10 @@
         <v>110</v>
       </c>
       <c r="AC19" s="390"/>
-      <c r="AD19" s="399" t="s">
+      <c r="AD19" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE19" s="400"/>
+      <c r="AE19" s="397"/>
       <c r="AF19" s="388" t="s">
         <v>110</v>
       </c>
@@ -15219,26 +15226,26 @@
       <c r="DP19" s="202"/>
       <c r="DQ19" s="202"/>
     </row>
-    <row r="20" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="149">
         <v>13</v>
       </c>
       <c r="B20" s="206" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" s="207"/>
       <c r="D20" s="207"/>
       <c r="E20" s="207"/>
       <c r="F20" s="208"/>
-      <c r="G20" s="212" t="s">
-        <v>161</v>
+      <c r="G20" s="388" t="s">
+        <v>162</v>
       </c>
       <c r="H20" s="213"/>
       <c r="I20" s="213"/>
       <c r="J20" s="213"/>
       <c r="K20" s="214"/>
       <c r="L20" s="212" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M20" s="213"/>
       <c r="N20" s="213"/>
@@ -15253,14 +15260,14 @@
       <c r="S20" s="389"/>
       <c r="T20" s="389"/>
       <c r="U20" s="390"/>
-      <c r="V20" s="397">
+      <c r="V20" s="394">
         <v>11</v>
       </c>
-      <c r="W20" s="398"/>
-      <c r="X20" s="399" t="s">
+      <c r="W20" s="395"/>
+      <c r="X20" s="396" t="s">
         <v>135</v>
       </c>
-      <c r="Y20" s="400"/>
+      <c r="Y20" s="397"/>
       <c r="Z20" s="388" t="s">
         <v>110</v>
       </c>
@@ -15269,10 +15276,10 @@
         <v>110</v>
       </c>
       <c r="AC20" s="390"/>
-      <c r="AD20" s="399" t="s">
+      <c r="AD20" s="396" t="s">
         <v>110</v>
       </c>
-      <c r="AE20" s="400"/>
+      <c r="AE20" s="397"/>
       <c r="AF20" s="388" t="s">
         <v>110</v>
       </c>
@@ -15347,18 +15354,18 @@
       <c r="DP20" s="202"/>
       <c r="DQ20" s="202"/>
     </row>
-    <row r="21" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="181"/>
       <c r="B21" s="391"/>
       <c r="C21" s="392"/>
       <c r="D21" s="392"/>
       <c r="E21" s="392"/>
       <c r="F21" s="393"/>
-      <c r="G21" s="394"/>
-      <c r="H21" s="395"/>
-      <c r="I21" s="395"/>
-      <c r="J21" s="395"/>
-      <c r="K21" s="396"/>
+      <c r="G21" s="398"/>
+      <c r="H21" s="399"/>
+      <c r="I21" s="399"/>
+      <c r="J21" s="399"/>
+      <c r="K21" s="400"/>
       <c r="L21" s="391"/>
       <c r="M21" s="392"/>
       <c r="N21" s="392"/>
@@ -15369,16 +15376,16 @@
       <c r="S21" s="389"/>
       <c r="T21" s="389"/>
       <c r="U21" s="390"/>
-      <c r="V21" s="397"/>
-      <c r="W21" s="398"/>
-      <c r="X21" s="399"/>
-      <c r="Y21" s="400"/>
+      <c r="V21" s="394"/>
+      <c r="W21" s="395"/>
+      <c r="X21" s="396"/>
+      <c r="Y21" s="397"/>
       <c r="Z21" s="388"/>
       <c r="AA21" s="390"/>
       <c r="AB21" s="388"/>
       <c r="AC21" s="390"/>
-      <c r="AD21" s="399"/>
-      <c r="AE21" s="400"/>
+      <c r="AD21" s="396"/>
+      <c r="AE21" s="397"/>
       <c r="AF21" s="388"/>
       <c r="AG21" s="389"/>
       <c r="AH21" s="390"/>
@@ -15449,18 +15456,18 @@
       <c r="DP21" s="202"/>
       <c r="DQ21" s="202"/>
     </row>
-    <row r="22" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="181"/>
       <c r="B22" s="391"/>
       <c r="C22" s="392"/>
       <c r="D22" s="392"/>
       <c r="E22" s="392"/>
       <c r="F22" s="393"/>
-      <c r="G22" s="394"/>
-      <c r="H22" s="395"/>
-      <c r="I22" s="395"/>
-      <c r="J22" s="395"/>
-      <c r="K22" s="396"/>
+      <c r="G22" s="398"/>
+      <c r="H22" s="399"/>
+      <c r="I22" s="399"/>
+      <c r="J22" s="399"/>
+      <c r="K22" s="400"/>
       <c r="L22" s="391"/>
       <c r="M22" s="392"/>
       <c r="N22" s="392"/>
@@ -15471,16 +15478,16 @@
       <c r="S22" s="389"/>
       <c r="T22" s="389"/>
       <c r="U22" s="390"/>
-      <c r="V22" s="397"/>
-      <c r="W22" s="398"/>
-      <c r="X22" s="399"/>
-      <c r="Y22" s="400"/>
+      <c r="V22" s="394"/>
+      <c r="W22" s="395"/>
+      <c r="X22" s="396"/>
+      <c r="Y22" s="397"/>
       <c r="Z22" s="388"/>
       <c r="AA22" s="390"/>
       <c r="AB22" s="388"/>
       <c r="AC22" s="390"/>
-      <c r="AD22" s="399"/>
-      <c r="AE22" s="400"/>
+      <c r="AD22" s="396"/>
+      <c r="AE22" s="397"/>
       <c r="AF22" s="388"/>
       <c r="AG22" s="389"/>
       <c r="AH22" s="390"/>
@@ -15551,7 +15558,7 @@
       <c r="DP22" s="202"/>
       <c r="DQ22" s="202"/>
     </row>
-    <row r="23" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="181"/>
       <c r="B23" s="391"/>
       <c r="C23" s="392"/>
@@ -15577,12 +15584,12 @@
       <c r="W23" s="406"/>
       <c r="X23" s="407"/>
       <c r="Y23" s="408"/>
-      <c r="Z23" s="399"/>
-      <c r="AA23" s="400"/>
+      <c r="Z23" s="396"/>
+      <c r="AA23" s="397"/>
       <c r="AB23" s="388"/>
       <c r="AC23" s="390"/>
-      <c r="AD23" s="399"/>
-      <c r="AE23" s="400"/>
+      <c r="AD23" s="396"/>
+      <c r="AE23" s="397"/>
       <c r="AF23" s="388"/>
       <c r="AG23" s="389"/>
       <c r="AH23" s="390"/>
@@ -15886,120 +15893,120 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="12" customWidth="1"/>
     <col min="3" max="16384" width="9.33203125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="56" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="56" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="56" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="56" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="60"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="57" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="57" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="57" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="57" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="58" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" s="61" t="s">
         <v>60</v>
       </c>

--- a/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書(I／Fファイル)_N21AA002／期間内プロジェクト一覧.xlsx
+++ b/サンプルアプリケーション/設計書/A1_プロジェクト管理システム/030_アプリ設計/030_インタフェース設計/外部インタフェース設計書(I／Fファイル)_N21AA002／期間内プロジェクト一覧.xlsx
@@ -595,7 +595,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="164">
   <si>
     <t>変更履歴（ 1　/ 1 ）</t>
   </si>
@@ -1298,25 +1298,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>処理サイクルに従って作成されるファイルを読み込む。</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シタガ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>長さ(Byte)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1334,14 +1315,6 @@
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>営業システム</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>SCP</t>
-    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>UTF8</t>
@@ -1463,10 +1436,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>N21AA002</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>当システムに登録されている、プロジェクト期間内のプロジェクトを一覧としてCSV出力するためのインタフェースファイル。</t>
     <rPh sb="0" eb="1">
       <t>トウ</t>
@@ -1481,7 +1450,103 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>対象プロジェクト情報が0件の場合は、ファイルは作成しない。</t>
+    <t>データを固定の場所に出力する</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>プロジェクトID</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>プロジェクト名</t>
+  </si>
+  <si>
+    <t>プロジェクト種別</t>
+  </si>
+  <si>
+    <t>プロジェクト分類</t>
+  </si>
+  <si>
+    <t>プロジェクト開始日付</t>
+  </si>
+  <si>
+    <t>PROJECT_START_DATE</t>
+  </si>
+  <si>
+    <t>日付</t>
+  </si>
+  <si>
+    <t>プロジェクト終了日付</t>
+  </si>
+  <si>
+    <t>組織ID</t>
+    <rPh sb="0" eb="2">
+      <t>ソシキ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>ORGANIZATION_ID</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>顧客ID</t>
+  </si>
+  <si>
+    <t>ユーザ氏名（漢字）</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>売上高</t>
+    <rPh sb="0" eb="3">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>SALES</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>売上高</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>バージョン番号</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>プロジェクト名</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>VERSION_NO</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>N21AA002</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>処理サイクルに従ってファイルを作成する。</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>対象プロジェクト情報が0件の場合、空のファイルを作成する。</t>
     <rPh sb="0" eb="2">
       <t>タイショウ</t>
     </rPh>
@@ -1494,86 +1559,28 @@
     <rPh sb="14" eb="16">
       <t>バアイ</t>
     </rPh>
+    <rPh sb="17" eb="18">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>データを固定の場所に出力する</t>
+    <t>起動時間：4:00</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>プロジェクトID</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>プロジェクト名</t>
-  </si>
-  <si>
-    <t>プロジェクト種別</t>
-  </si>
-  <si>
-    <t>プロジェクト分類</t>
-  </si>
-  <si>
-    <t>プロジェクト開始日付</t>
-  </si>
-  <si>
-    <t>PROJECT_START_DATE</t>
-  </si>
-  <si>
-    <t>日付</t>
-  </si>
-  <si>
-    <t>プロジェクト終了日付</t>
-  </si>
-  <si>
-    <t>組織ID</t>
-    <rPh sb="0" eb="2">
-      <t>ソシキ</t>
+    <t>当システム</t>
+    <rPh sb="0" eb="1">
+      <t>トウ</t>
     </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>ORGANIZATION_ID</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>顧客ID</t>
-  </si>
-  <si>
-    <t>ユーザ氏名（漢字）</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>売上高</t>
-    <rPh sb="0" eb="3">
-      <t>ウリアゲダカ</t>
-    </rPh>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>SALES</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>売上高</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>バージョン番号</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>プロジェクト名</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>VERSION_NO</t>
-    <phoneticPr fontId="17"/>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>ファイルサーバ</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -2846,6 +2853,174 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2863,186 +3038,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3073,15 +3089,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3091,12 +3098,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3106,11 +3170,14 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3121,65 +3188,170 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="12" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3226,180 +3398,48 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3409,68 +3449,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3537,7 +3544,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3553,7 +3560,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6969,154 +6976,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="241" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="227" t="s">
+      <c r="B1" s="242"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="230" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="241" t="s">
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="242"/>
-      <c r="Q1" s="242"/>
-      <c r="R1" s="243"/>
-      <c r="S1" s="250" t="s">
-        <v>136</v>
-      </c>
-      <c r="T1" s="251"/>
-      <c r="U1" s="251"/>
-      <c r="V1" s="251"/>
-      <c r="W1" s="251"/>
-      <c r="X1" s="251"/>
-      <c r="Y1" s="251"/>
-      <c r="Z1" s="252"/>
-      <c r="AA1" s="238" t="s">
+      <c r="P1" s="245"/>
+      <c r="Q1" s="245"/>
+      <c r="R1" s="246"/>
+      <c r="S1" s="253" t="s">
+        <v>133</v>
+      </c>
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="255"/>
+      <c r="AA1" s="241" t="s">
         <v>74</v>
       </c>
-      <c r="AB1" s="240"/>
-      <c r="AC1" s="221" t="s">
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="224" t="s">
         <v>94</v>
       </c>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="223"/>
-      <c r="AG1" s="224">
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="227">
         <f>IF(D8="","",D8)</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="225"/>
-      <c r="AI1" s="226"/>
+      <c r="AH1" s="228"/>
+      <c r="AI1" s="229"/>
       <c r="AK1" s="67"/>
       <c r="AL1" s="67"/>
       <c r="AM1" s="67"/>
       <c r="AN1" s="68"/>
     </row>
     <row r="2" spans="1:40" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="241" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="227" t="s">
+      <c r="B2" s="242"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="230" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="244"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="253"/>
-      <c r="T2" s="254"/>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="254"/>
-      <c r="Z2" s="255"/>
-      <c r="AA2" s="238" t="s">
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="231"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="248"/>
+      <c r="Q2" s="248"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
+      <c r="Y2" s="257"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="241" t="s">
         <v>75</v>
       </c>
-      <c r="AB2" s="240"/>
-      <c r="AC2" s="230" t="str">
+      <c r="AB2" s="243"/>
+      <c r="AC2" s="233" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="231"/>
-      <c r="AE2" s="231"/>
-      <c r="AF2" s="232"/>
-      <c r="AG2" s="224" t="str">
+      <c r="AD2" s="234"/>
+      <c r="AE2" s="234"/>
+      <c r="AF2" s="235"/>
+      <c r="AG2" s="227" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="225"/>
-      <c r="AI2" s="226"/>
+      <c r="AH2" s="228"/>
+      <c r="AI2" s="229"/>
       <c r="AK2" s="67"/>
       <c r="AL2" s="67"/>
       <c r="AM2" s="67"/>
       <c r="AN2" s="67"/>
     </row>
     <row r="3" spans="1:40" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="240"/>
-      <c r="E3" s="227" t="s">
-        <v>111</v>
-      </c>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="247"/>
-      <c r="P3" s="248"/>
-      <c r="Q3" s="248"/>
-      <c r="R3" s="249"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="257"/>
-      <c r="U3" s="257"/>
-      <c r="V3" s="257"/>
-      <c r="W3" s="257"/>
-      <c r="X3" s="257"/>
-      <c r="Y3" s="257"/>
-      <c r="Z3" s="258"/>
-      <c r="AA3" s="238"/>
-      <c r="AB3" s="240"/>
-      <c r="AC3" s="233"/>
-      <c r="AD3" s="222"/>
-      <c r="AE3" s="222"/>
-      <c r="AF3" s="223"/>
-      <c r="AG3" s="224"/>
-      <c r="AH3" s="225"/>
-      <c r="AI3" s="226"/>
+      <c r="B3" s="242"/>
+      <c r="C3" s="242"/>
+      <c r="D3" s="243"/>
+      <c r="E3" s="230" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="251"/>
+      <c r="R3" s="252"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="241"/>
+      <c r="AB3" s="243"/>
+      <c r="AC3" s="236"/>
+      <c r="AD3" s="225"/>
+      <c r="AE3" s="225"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="227"/>
+      <c r="AH3" s="228"/>
+      <c r="AI3" s="229"/>
       <c r="AK3" s="67"/>
       <c r="AL3" s="67"/>
       <c r="AM3" s="67"/>
@@ -7163,116 +7170,116 @@
       <c r="A7" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="234" t="s">
+      <c r="B7" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="235"/>
-      <c r="D7" s="234" t="s">
+      <c r="C7" s="238"/>
+      <c r="D7" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="236"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="234" t="s">
+      <c r="E7" s="239"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="236"/>
-      <c r="I7" s="235"/>
-      <c r="J7" s="237" t="s">
+      <c r="H7" s="239"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="240" t="s">
         <v>100</v>
       </c>
-      <c r="K7" s="236"/>
-      <c r="L7" s="236"/>
-      <c r="M7" s="236"/>
-      <c r="N7" s="236"/>
-      <c r="O7" s="236"/>
-      <c r="P7" s="235"/>
-      <c r="Q7" s="234" t="s">
+      <c r="K7" s="239"/>
+      <c r="L7" s="239"/>
+      <c r="M7" s="239"/>
+      <c r="N7" s="239"/>
+      <c r="O7" s="239"/>
+      <c r="P7" s="238"/>
+      <c r="Q7" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="R7" s="236"/>
-      <c r="S7" s="236"/>
-      <c r="T7" s="236"/>
-      <c r="U7" s="236"/>
-      <c r="V7" s="236"/>
-      <c r="W7" s="236"/>
-      <c r="X7" s="236"/>
-      <c r="Y7" s="236"/>
-      <c r="Z7" s="236"/>
-      <c r="AA7" s="236"/>
-      <c r="AB7" s="236"/>
-      <c r="AC7" s="236"/>
-      <c r="AD7" s="236"/>
-      <c r="AE7" s="235"/>
-      <c r="AF7" s="234" t="s">
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="239"/>
+      <c r="U7" s="239"/>
+      <c r="V7" s="239"/>
+      <c r="W7" s="239"/>
+      <c r="X7" s="239"/>
+      <c r="Y7" s="239"/>
+      <c r="Z7" s="239"/>
+      <c r="AA7" s="239"/>
+      <c r="AB7" s="239"/>
+      <c r="AC7" s="239"/>
+      <c r="AD7" s="239"/>
+      <c r="AE7" s="238"/>
+      <c r="AF7" s="237" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="236"/>
-      <c r="AH7" s="236"/>
-      <c r="AI7" s="235"/>
+      <c r="AG7" s="239"/>
+      <c r="AH7" s="239"/>
+      <c r="AI7" s="238"/>
       <c r="AJ7" s="63"/>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="148">
         <v>1</v>
       </c>
-      <c r="B8" s="259" t="s">
+      <c r="B8" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="260"/>
-      <c r="D8" s="261">
+      <c r="C8" s="216"/>
+      <c r="D8" s="217">
         <v>43580</v>
       </c>
-      <c r="E8" s="262"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="259" t="s">
+      <c r="E8" s="218"/>
+      <c r="F8" s="219"/>
+      <c r="G8" s="215" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="264"/>
-      <c r="I8" s="260"/>
-      <c r="J8" s="265" t="s">
+      <c r="H8" s="220"/>
+      <c r="I8" s="216"/>
+      <c r="J8" s="221" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="266"/>
-      <c r="L8" s="266"/>
-      <c r="M8" s="266"/>
-      <c r="N8" s="266"/>
-      <c r="O8" s="266"/>
-      <c r="P8" s="267"/>
-      <c r="Q8" s="265" t="s">
+      <c r="K8" s="222"/>
+      <c r="L8" s="222"/>
+      <c r="M8" s="222"/>
+      <c r="N8" s="222"/>
+      <c r="O8" s="222"/>
+      <c r="P8" s="223"/>
+      <c r="Q8" s="221" t="s">
         <v>98</v>
       </c>
-      <c r="R8" s="266"/>
-      <c r="S8" s="266"/>
-      <c r="T8" s="266"/>
-      <c r="U8" s="266"/>
-      <c r="V8" s="266"/>
-      <c r="W8" s="266"/>
-      <c r="X8" s="266"/>
-      <c r="Y8" s="266"/>
-      <c r="Z8" s="266"/>
-      <c r="AA8" s="266"/>
-      <c r="AB8" s="266"/>
-      <c r="AC8" s="266"/>
-      <c r="AD8" s="266"/>
-      <c r="AE8" s="267"/>
-      <c r="AF8" s="209" t="s">
+      <c r="R8" s="222"/>
+      <c r="S8" s="222"/>
+      <c r="T8" s="222"/>
+      <c r="U8" s="222"/>
+      <c r="V8" s="222"/>
+      <c r="W8" s="222"/>
+      <c r="X8" s="222"/>
+      <c r="Y8" s="222"/>
+      <c r="Z8" s="222"/>
+      <c r="AA8" s="222"/>
+      <c r="AB8" s="222"/>
+      <c r="AC8" s="222"/>
+      <c r="AD8" s="222"/>
+      <c r="AE8" s="223"/>
+      <c r="AF8" s="265" t="s">
         <v>99</v>
       </c>
-      <c r="AG8" s="210"/>
-      <c r="AH8" s="210"/>
-      <c r="AI8" s="211"/>
+      <c r="AG8" s="266"/>
+      <c r="AH8" s="266"/>
+      <c r="AI8" s="267"/>
       <c r="AJ8" s="63"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="149"/>
-      <c r="B9" s="215"/>
-      <c r="C9" s="217"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="215"/>
-      <c r="H9" s="216"/>
-      <c r="I9" s="217"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="206"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="207"/>
       <c r="J9" s="212"/>
       <c r="K9" s="213"/>
       <c r="L9" s="213"/>
@@ -7295,22 +7302,22 @@
       <c r="AC9" s="213"/>
       <c r="AD9" s="213"/>
       <c r="AE9" s="214"/>
-      <c r="AF9" s="206"/>
-      <c r="AG9" s="207"/>
-      <c r="AH9" s="207"/>
-      <c r="AI9" s="208"/>
+      <c r="AF9" s="262"/>
+      <c r="AG9" s="263"/>
+      <c r="AH9" s="263"/>
+      <c r="AI9" s="264"/>
       <c r="AJ9" s="12"/>
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="149"/>
-      <c r="B10" s="215"/>
-      <c r="C10" s="217"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="216"/>
-      <c r="I10" s="217"/>
+      <c r="B10" s="206"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="209"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="207"/>
       <c r="J10" s="212"/>
       <c r="K10" s="213"/>
       <c r="L10" s="213"/>
@@ -7333,21 +7340,21 @@
       <c r="AC10" s="213"/>
       <c r="AD10" s="213"/>
       <c r="AE10" s="214"/>
-      <c r="AF10" s="206"/>
-      <c r="AG10" s="207"/>
-      <c r="AH10" s="207"/>
-      <c r="AI10" s="208"/>
+      <c r="AF10" s="262"/>
+      <c r="AG10" s="263"/>
+      <c r="AH10" s="263"/>
+      <c r="AI10" s="264"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="149"/>
-      <c r="B11" s="215"/>
-      <c r="C11" s="217"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="220"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="217"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="207"/>
       <c r="J11" s="212"/>
       <c r="K11" s="213"/>
       <c r="L11" s="213"/>
@@ -7370,21 +7377,21 @@
       <c r="AC11" s="213"/>
       <c r="AD11" s="213"/>
       <c r="AE11" s="214"/>
-      <c r="AF11" s="206"/>
-      <c r="AG11" s="207"/>
-      <c r="AH11" s="207"/>
-      <c r="AI11" s="208"/>
+      <c r="AF11" s="262"/>
+      <c r="AG11" s="263"/>
+      <c r="AH11" s="263"/>
+      <c r="AI11" s="264"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="149"/>
-      <c r="B12" s="215"/>
-      <c r="C12" s="217"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="215"/>
-      <c r="H12" s="216"/>
-      <c r="I12" s="217"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="207"/>
       <c r="J12" s="212"/>
       <c r="K12" s="213"/>
       <c r="L12" s="213"/>
@@ -7407,21 +7414,21 @@
       <c r="AC12" s="213"/>
       <c r="AD12" s="213"/>
       <c r="AE12" s="214"/>
-      <c r="AF12" s="206"/>
-      <c r="AG12" s="207"/>
-      <c r="AH12" s="207"/>
-      <c r="AI12" s="208"/>
+      <c r="AF12" s="262"/>
+      <c r="AG12" s="263"/>
+      <c r="AH12" s="263"/>
+      <c r="AI12" s="264"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="149"/>
-      <c r="B13" s="215"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="218"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="215"/>
-      <c r="H13" s="216"/>
-      <c r="I13" s="217"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="207"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="209"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="207"/>
       <c r="J13" s="212"/>
       <c r="K13" s="213"/>
       <c r="L13" s="213"/>
@@ -7444,28 +7451,28 @@
       <c r="AC13" s="213"/>
       <c r="AD13" s="213"/>
       <c r="AE13" s="214"/>
-      <c r="AF13" s="206"/>
-      <c r="AG13" s="207"/>
-      <c r="AH13" s="207"/>
-      <c r="AI13" s="208"/>
+      <c r="AF13" s="262"/>
+      <c r="AG13" s="263"/>
+      <c r="AH13" s="263"/>
+      <c r="AI13" s="264"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="149"/>
-      <c r="B14" s="215"/>
-      <c r="C14" s="217"/>
-      <c r="D14" s="218"/>
-      <c r="E14" s="219"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="215"/>
-      <c r="H14" s="216"/>
-      <c r="I14" s="217"/>
-      <c r="J14" s="206"/>
-      <c r="K14" s="207"/>
-      <c r="L14" s="207"/>
-      <c r="M14" s="207"/>
-      <c r="N14" s="207"/>
-      <c r="O14" s="207"/>
-      <c r="P14" s="208"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="207"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="262"/>
+      <c r="K14" s="263"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="263"/>
+      <c r="N14" s="263"/>
+      <c r="O14" s="263"/>
+      <c r="P14" s="264"/>
       <c r="Q14" s="212"/>
       <c r="R14" s="213"/>
       <c r="S14" s="213"/>
@@ -7481,28 +7488,28 @@
       <c r="AC14" s="213"/>
       <c r="AD14" s="213"/>
       <c r="AE14" s="214"/>
-      <c r="AF14" s="206"/>
-      <c r="AG14" s="207"/>
-      <c r="AH14" s="207"/>
-      <c r="AI14" s="208"/>
+      <c r="AF14" s="262"/>
+      <c r="AG14" s="263"/>
+      <c r="AH14" s="263"/>
+      <c r="AI14" s="264"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="149"/>
-      <c r="B15" s="215"/>
-      <c r="C15" s="217"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="216"/>
-      <c r="I15" s="217"/>
-      <c r="J15" s="206"/>
-      <c r="K15" s="207"/>
-      <c r="L15" s="207"/>
-      <c r="M15" s="207"/>
-      <c r="N15" s="207"/>
-      <c r="O15" s="207"/>
-      <c r="P15" s="208"/>
+      <c r="B15" s="206"/>
+      <c r="C15" s="207"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="207"/>
+      <c r="J15" s="262"/>
+      <c r="K15" s="263"/>
+      <c r="L15" s="263"/>
+      <c r="M15" s="263"/>
+      <c r="N15" s="263"/>
+      <c r="O15" s="263"/>
+      <c r="P15" s="264"/>
       <c r="Q15" s="212"/>
       <c r="R15" s="213"/>
       <c r="S15" s="213"/>
@@ -7518,28 +7525,28 @@
       <c r="AC15" s="213"/>
       <c r="AD15" s="213"/>
       <c r="AE15" s="214"/>
-      <c r="AF15" s="206"/>
-      <c r="AG15" s="207"/>
-      <c r="AH15" s="207"/>
-      <c r="AI15" s="208"/>
+      <c r="AF15" s="262"/>
+      <c r="AG15" s="263"/>
+      <c r="AH15" s="263"/>
+      <c r="AI15" s="264"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="149"/>
-      <c r="B16" s="215"/>
-      <c r="C16" s="217"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="219"/>
-      <c r="F16" s="220"/>
-      <c r="G16" s="215"/>
-      <c r="H16" s="216"/>
-      <c r="I16" s="217"/>
-      <c r="J16" s="206"/>
-      <c r="K16" s="207"/>
-      <c r="L16" s="207"/>
-      <c r="M16" s="207"/>
-      <c r="N16" s="207"/>
-      <c r="O16" s="207"/>
-      <c r="P16" s="208"/>
+      <c r="B16" s="206"/>
+      <c r="C16" s="207"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="211"/>
+      <c r="I16" s="207"/>
+      <c r="J16" s="262"/>
+      <c r="K16" s="263"/>
+      <c r="L16" s="263"/>
+      <c r="M16" s="263"/>
+      <c r="N16" s="263"/>
+      <c r="O16" s="263"/>
+      <c r="P16" s="264"/>
       <c r="Q16" s="212"/>
       <c r="R16" s="213"/>
       <c r="S16" s="213"/>
@@ -7555,28 +7562,28 @@
       <c r="AC16" s="213"/>
       <c r="AD16" s="213"/>
       <c r="AE16" s="214"/>
-      <c r="AF16" s="206"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="207"/>
-      <c r="AI16" s="208"/>
+      <c r="AF16" s="262"/>
+      <c r="AG16" s="263"/>
+      <c r="AH16" s="263"/>
+      <c r="AI16" s="264"/>
     </row>
     <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="149"/>
-      <c r="B17" s="215"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="220"/>
-      <c r="G17" s="215"/>
-      <c r="H17" s="216"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="207"/>
-      <c r="L17" s="207"/>
-      <c r="M17" s="207"/>
-      <c r="N17" s="207"/>
-      <c r="O17" s="207"/>
-      <c r="P17" s="208"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="207"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="207"/>
+      <c r="J17" s="262"/>
+      <c r="K17" s="263"/>
+      <c r="L17" s="263"/>
+      <c r="M17" s="263"/>
+      <c r="N17" s="263"/>
+      <c r="O17" s="263"/>
+      <c r="P17" s="264"/>
       <c r="Q17" s="212"/>
       <c r="R17" s="213"/>
       <c r="S17" s="213"/>
@@ -7592,28 +7599,28 @@
       <c r="AC17" s="213"/>
       <c r="AD17" s="213"/>
       <c r="AE17" s="214"/>
-      <c r="AF17" s="206"/>
-      <c r="AG17" s="207"/>
-      <c r="AH17" s="207"/>
-      <c r="AI17" s="208"/>
+      <c r="AF17" s="262"/>
+      <c r="AG17" s="263"/>
+      <c r="AH17" s="263"/>
+      <c r="AI17" s="264"/>
     </row>
     <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="149"/>
-      <c r="B18" s="215"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="215"/>
-      <c r="H18" s="216"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="206"/>
-      <c r="K18" s="207"/>
-      <c r="L18" s="207"/>
-      <c r="M18" s="207"/>
-      <c r="N18" s="207"/>
-      <c r="O18" s="207"/>
-      <c r="P18" s="208"/>
+      <c r="B18" s="206"/>
+      <c r="C18" s="207"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="207"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="263"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="263"/>
+      <c r="N18" s="263"/>
+      <c r="O18" s="263"/>
+      <c r="P18" s="264"/>
       <c r="Q18" s="212"/>
       <c r="R18" s="213"/>
       <c r="S18" s="213"/>
@@ -7629,28 +7636,28 @@
       <c r="AC18" s="213"/>
       <c r="AD18" s="213"/>
       <c r="AE18" s="214"/>
-      <c r="AF18" s="206"/>
-      <c r="AG18" s="207"/>
-      <c r="AH18" s="207"/>
-      <c r="AI18" s="208"/>
+      <c r="AF18" s="262"/>
+      <c r="AG18" s="263"/>
+      <c r="AH18" s="263"/>
+      <c r="AI18" s="264"/>
     </row>
     <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="149"/>
-      <c r="B19" s="215"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="219"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="215"/>
-      <c r="H19" s="216"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="206"/>
-      <c r="K19" s="207"/>
-      <c r="L19" s="207"/>
-      <c r="M19" s="207"/>
-      <c r="N19" s="207"/>
-      <c r="O19" s="207"/>
-      <c r="P19" s="208"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="211"/>
+      <c r="I19" s="207"/>
+      <c r="J19" s="262"/>
+      <c r="K19" s="263"/>
+      <c r="L19" s="263"/>
+      <c r="M19" s="263"/>
+      <c r="N19" s="263"/>
+      <c r="O19" s="263"/>
+      <c r="P19" s="264"/>
       <c r="Q19" s="212"/>
       <c r="R19" s="213"/>
       <c r="S19" s="213"/>
@@ -7666,28 +7673,28 @@
       <c r="AC19" s="213"/>
       <c r="AD19" s="213"/>
       <c r="AE19" s="214"/>
-      <c r="AF19" s="206"/>
-      <c r="AG19" s="207"/>
-      <c r="AH19" s="207"/>
-      <c r="AI19" s="208"/>
+      <c r="AF19" s="262"/>
+      <c r="AG19" s="263"/>
+      <c r="AH19" s="263"/>
+      <c r="AI19" s="264"/>
     </row>
     <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="149"/>
-      <c r="B20" s="215"/>
-      <c r="C20" s="217"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="219"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="215"/>
-      <c r="H20" s="216"/>
-      <c r="I20" s="217"/>
-      <c r="J20" s="206"/>
-      <c r="K20" s="207"/>
-      <c r="L20" s="207"/>
-      <c r="M20" s="207"/>
-      <c r="N20" s="207"/>
-      <c r="O20" s="207"/>
-      <c r="P20" s="208"/>
+      <c r="B20" s="206"/>
+      <c r="C20" s="207"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="207"/>
+      <c r="J20" s="262"/>
+      <c r="K20" s="263"/>
+      <c r="L20" s="263"/>
+      <c r="M20" s="263"/>
+      <c r="N20" s="263"/>
+      <c r="O20" s="263"/>
+      <c r="P20" s="264"/>
       <c r="Q20" s="212"/>
       <c r="R20" s="213"/>
       <c r="S20" s="213"/>
@@ -7703,28 +7710,28 @@
       <c r="AC20" s="213"/>
       <c r="AD20" s="213"/>
       <c r="AE20" s="214"/>
-      <c r="AF20" s="206"/>
-      <c r="AG20" s="207"/>
-      <c r="AH20" s="207"/>
-      <c r="AI20" s="208"/>
+      <c r="AF20" s="262"/>
+      <c r="AG20" s="263"/>
+      <c r="AH20" s="263"/>
+      <c r="AI20" s="264"/>
     </row>
     <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="149"/>
-      <c r="B21" s="215"/>
-      <c r="C21" s="217"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="219"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="215"/>
-      <c r="H21" s="216"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="206"/>
-      <c r="K21" s="207"/>
-      <c r="L21" s="207"/>
-      <c r="M21" s="207"/>
-      <c r="N21" s="207"/>
-      <c r="O21" s="207"/>
-      <c r="P21" s="208"/>
+      <c r="B21" s="206"/>
+      <c r="C21" s="207"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="207"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="263"/>
+      <c r="L21" s="263"/>
+      <c r="M21" s="263"/>
+      <c r="N21" s="263"/>
+      <c r="O21" s="263"/>
+      <c r="P21" s="264"/>
       <c r="Q21" s="212"/>
       <c r="R21" s="213"/>
       <c r="S21" s="213"/>
@@ -7740,28 +7747,28 @@
       <c r="AC21" s="213"/>
       <c r="AD21" s="213"/>
       <c r="AE21" s="214"/>
-      <c r="AF21" s="206"/>
-      <c r="AG21" s="207"/>
-      <c r="AH21" s="207"/>
-      <c r="AI21" s="208"/>
+      <c r="AF21" s="262"/>
+      <c r="AG21" s="263"/>
+      <c r="AH21" s="263"/>
+      <c r="AI21" s="264"/>
     </row>
     <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="149"/>
-      <c r="B22" s="215"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="219"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="215"/>
-      <c r="H22" s="216"/>
-      <c r="I22" s="217"/>
-      <c r="J22" s="206"/>
-      <c r="K22" s="207"/>
-      <c r="L22" s="207"/>
-      <c r="M22" s="207"/>
-      <c r="N22" s="207"/>
-      <c r="O22" s="207"/>
-      <c r="P22" s="208"/>
+      <c r="B22" s="206"/>
+      <c r="C22" s="207"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="207"/>
+      <c r="J22" s="262"/>
+      <c r="K22" s="263"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="263"/>
+      <c r="N22" s="263"/>
+      <c r="O22" s="263"/>
+      <c r="P22" s="264"/>
       <c r="Q22" s="212"/>
       <c r="R22" s="213"/>
       <c r="S22" s="213"/>
@@ -7777,28 +7784,28 @@
       <c r="AC22" s="213"/>
       <c r="AD22" s="213"/>
       <c r="AE22" s="214"/>
-      <c r="AF22" s="206"/>
-      <c r="AG22" s="207"/>
-      <c r="AH22" s="207"/>
-      <c r="AI22" s="208"/>
+      <c r="AF22" s="262"/>
+      <c r="AG22" s="263"/>
+      <c r="AH22" s="263"/>
+      <c r="AI22" s="264"/>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="149"/>
-      <c r="B23" s="215"/>
-      <c r="C23" s="217"/>
-      <c r="D23" s="218"/>
-      <c r="E23" s="219"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="217"/>
-      <c r="J23" s="206"/>
-      <c r="K23" s="207"/>
-      <c r="L23" s="207"/>
-      <c r="M23" s="207"/>
-      <c r="N23" s="207"/>
-      <c r="O23" s="207"/>
-      <c r="P23" s="208"/>
+      <c r="B23" s="206"/>
+      <c r="C23" s="207"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="207"/>
+      <c r="J23" s="262"/>
+      <c r="K23" s="263"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="263"/>
+      <c r="N23" s="263"/>
+      <c r="O23" s="263"/>
+      <c r="P23" s="264"/>
       <c r="Q23" s="212"/>
       <c r="R23" s="213"/>
       <c r="S23" s="213"/>
@@ -7814,28 +7821,28 @@
       <c r="AC23" s="213"/>
       <c r="AD23" s="213"/>
       <c r="AE23" s="214"/>
-      <c r="AF23" s="206"/>
-      <c r="AG23" s="207"/>
-      <c r="AH23" s="207"/>
-      <c r="AI23" s="208"/>
+      <c r="AF23" s="262"/>
+      <c r="AG23" s="263"/>
+      <c r="AH23" s="263"/>
+      <c r="AI23" s="264"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="149"/>
-      <c r="B24" s="215"/>
-      <c r="C24" s="217"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="215"/>
-      <c r="H24" s="216"/>
-      <c r="I24" s="217"/>
-      <c r="J24" s="206"/>
-      <c r="K24" s="207"/>
-      <c r="L24" s="207"/>
-      <c r="M24" s="207"/>
-      <c r="N24" s="207"/>
-      <c r="O24" s="207"/>
-      <c r="P24" s="208"/>
+      <c r="B24" s="206"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="209"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="262"/>
+      <c r="K24" s="263"/>
+      <c r="L24" s="263"/>
+      <c r="M24" s="263"/>
+      <c r="N24" s="263"/>
+      <c r="O24" s="263"/>
+      <c r="P24" s="264"/>
       <c r="Q24" s="212"/>
       <c r="R24" s="213"/>
       <c r="S24" s="213"/>
@@ -7851,28 +7858,28 @@
       <c r="AC24" s="213"/>
       <c r="AD24" s="213"/>
       <c r="AE24" s="214"/>
-      <c r="AF24" s="206"/>
-      <c r="AG24" s="207"/>
-      <c r="AH24" s="207"/>
-      <c r="AI24" s="208"/>
+      <c r="AF24" s="262"/>
+      <c r="AG24" s="263"/>
+      <c r="AH24" s="263"/>
+      <c r="AI24" s="264"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="149"/>
-      <c r="B25" s="215"/>
-      <c r="C25" s="217"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="219"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="215"/>
-      <c r="H25" s="216"/>
-      <c r="I25" s="217"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="207"/>
-      <c r="L25" s="207"/>
-      <c r="M25" s="207"/>
-      <c r="N25" s="207"/>
-      <c r="O25" s="207"/>
-      <c r="P25" s="208"/>
+      <c r="B25" s="206"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="208"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="207"/>
+      <c r="J25" s="262"/>
+      <c r="K25" s="263"/>
+      <c r="L25" s="263"/>
+      <c r="M25" s="263"/>
+      <c r="N25" s="263"/>
+      <c r="O25" s="263"/>
+      <c r="P25" s="264"/>
       <c r="Q25" s="212"/>
       <c r="R25" s="213"/>
       <c r="S25" s="213"/>
@@ -7888,28 +7895,28 @@
       <c r="AC25" s="213"/>
       <c r="AD25" s="213"/>
       <c r="AE25" s="214"/>
-      <c r="AF25" s="206"/>
-      <c r="AG25" s="207"/>
-      <c r="AH25" s="207"/>
-      <c r="AI25" s="208"/>
+      <c r="AF25" s="262"/>
+      <c r="AG25" s="263"/>
+      <c r="AH25" s="263"/>
+      <c r="AI25" s="264"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="149"/>
-      <c r="B26" s="215"/>
-      <c r="C26" s="217"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="215"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="217"/>
-      <c r="J26" s="206"/>
-      <c r="K26" s="207"/>
-      <c r="L26" s="207"/>
-      <c r="M26" s="207"/>
-      <c r="N26" s="207"/>
-      <c r="O26" s="207"/>
-      <c r="P26" s="208"/>
+      <c r="B26" s="206"/>
+      <c r="C26" s="207"/>
+      <c r="D26" s="208"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="262"/>
+      <c r="K26" s="263"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="263"/>
+      <c r="N26" s="263"/>
+      <c r="O26" s="263"/>
+      <c r="P26" s="264"/>
       <c r="Q26" s="212"/>
       <c r="R26" s="213"/>
       <c r="S26" s="213"/>
@@ -7925,28 +7932,28 @@
       <c r="AC26" s="213"/>
       <c r="AD26" s="213"/>
       <c r="AE26" s="214"/>
-      <c r="AF26" s="206"/>
-      <c r="AG26" s="207"/>
-      <c r="AH26" s="207"/>
-      <c r="AI26" s="208"/>
+      <c r="AF26" s="262"/>
+      <c r="AG26" s="263"/>
+      <c r="AH26" s="263"/>
+      <c r="AI26" s="264"/>
     </row>
     <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="149"/>
-      <c r="B27" s="215"/>
-      <c r="C27" s="217"/>
-      <c r="D27" s="218"/>
-      <c r="E27" s="219"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="215"/>
-      <c r="H27" s="216"/>
-      <c r="I27" s="217"/>
-      <c r="J27" s="206"/>
-      <c r="K27" s="207"/>
-      <c r="L27" s="207"/>
-      <c r="M27" s="207"/>
-      <c r="N27" s="207"/>
-      <c r="O27" s="207"/>
-      <c r="P27" s="208"/>
+      <c r="B27" s="206"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="208"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="206"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="207"/>
+      <c r="J27" s="262"/>
+      <c r="K27" s="263"/>
+      <c r="L27" s="263"/>
+      <c r="M27" s="263"/>
+      <c r="N27" s="263"/>
+      <c r="O27" s="263"/>
+      <c r="P27" s="264"/>
       <c r="Q27" s="212"/>
       <c r="R27" s="213"/>
       <c r="S27" s="213"/>
@@ -7962,28 +7969,28 @@
       <c r="AC27" s="213"/>
       <c r="AD27" s="213"/>
       <c r="AE27" s="214"/>
-      <c r="AF27" s="206"/>
-      <c r="AG27" s="207"/>
-      <c r="AH27" s="207"/>
-      <c r="AI27" s="208"/>
+      <c r="AF27" s="262"/>
+      <c r="AG27" s="263"/>
+      <c r="AH27" s="263"/>
+      <c r="AI27" s="264"/>
     </row>
     <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="149"/>
-      <c r="B28" s="215"/>
-      <c r="C28" s="217"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="219"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="215"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="217"/>
-      <c r="J28" s="206"/>
-      <c r="K28" s="207"/>
-      <c r="L28" s="207"/>
-      <c r="M28" s="207"/>
-      <c r="N28" s="207"/>
-      <c r="O28" s="207"/>
-      <c r="P28" s="208"/>
+      <c r="B28" s="206"/>
+      <c r="C28" s="207"/>
+      <c r="D28" s="208"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="206"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="207"/>
+      <c r="J28" s="262"/>
+      <c r="K28" s="263"/>
+      <c r="L28" s="263"/>
+      <c r="M28" s="263"/>
+      <c r="N28" s="263"/>
+      <c r="O28" s="263"/>
+      <c r="P28" s="264"/>
       <c r="Q28" s="212"/>
       <c r="R28" s="213"/>
       <c r="S28" s="213"/>
@@ -7999,28 +8006,28 @@
       <c r="AC28" s="213"/>
       <c r="AD28" s="213"/>
       <c r="AE28" s="214"/>
-      <c r="AF28" s="206"/>
-      <c r="AG28" s="207"/>
-      <c r="AH28" s="207"/>
-      <c r="AI28" s="208"/>
+      <c r="AF28" s="262"/>
+      <c r="AG28" s="263"/>
+      <c r="AH28" s="263"/>
+      <c r="AI28" s="264"/>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="149"/>
-      <c r="B29" s="215"/>
-      <c r="C29" s="217"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="219"/>
-      <c r="F29" s="220"/>
-      <c r="G29" s="215"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="206"/>
-      <c r="K29" s="207"/>
-      <c r="L29" s="207"/>
-      <c r="M29" s="207"/>
-      <c r="N29" s="207"/>
-      <c r="O29" s="207"/>
-      <c r="P29" s="208"/>
+      <c r="B29" s="206"/>
+      <c r="C29" s="207"/>
+      <c r="D29" s="208"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="206"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="262"/>
+      <c r="K29" s="263"/>
+      <c r="L29" s="263"/>
+      <c r="M29" s="263"/>
+      <c r="N29" s="263"/>
+      <c r="O29" s="263"/>
+      <c r="P29" s="264"/>
       <c r="Q29" s="212"/>
       <c r="R29" s="213"/>
       <c r="S29" s="213"/>
@@ -8036,28 +8043,28 @@
       <c r="AC29" s="213"/>
       <c r="AD29" s="213"/>
       <c r="AE29" s="214"/>
-      <c r="AF29" s="206"/>
-      <c r="AG29" s="207"/>
-      <c r="AH29" s="207"/>
-      <c r="AI29" s="208"/>
+      <c r="AF29" s="262"/>
+      <c r="AG29" s="263"/>
+      <c r="AH29" s="263"/>
+      <c r="AI29" s="264"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="149"/>
-      <c r="B30" s="215"/>
-      <c r="C30" s="217"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="219"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="215"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="217"/>
-      <c r="J30" s="206"/>
-      <c r="K30" s="207"/>
-      <c r="L30" s="207"/>
-      <c r="M30" s="207"/>
-      <c r="N30" s="207"/>
-      <c r="O30" s="207"/>
-      <c r="P30" s="208"/>
+      <c r="B30" s="206"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="208"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="262"/>
+      <c r="K30" s="263"/>
+      <c r="L30" s="263"/>
+      <c r="M30" s="263"/>
+      <c r="N30" s="263"/>
+      <c r="O30" s="263"/>
+      <c r="P30" s="264"/>
       <c r="Q30" s="212"/>
       <c r="R30" s="213"/>
       <c r="S30" s="213"/>
@@ -8073,28 +8080,28 @@
       <c r="AC30" s="213"/>
       <c r="AD30" s="213"/>
       <c r="AE30" s="214"/>
-      <c r="AF30" s="206"/>
-      <c r="AG30" s="207"/>
-      <c r="AH30" s="207"/>
-      <c r="AI30" s="208"/>
+      <c r="AF30" s="262"/>
+      <c r="AG30" s="263"/>
+      <c r="AH30" s="263"/>
+      <c r="AI30" s="264"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="149"/>
-      <c r="B31" s="215"/>
-      <c r="C31" s="217"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="219"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="215"/>
-      <c r="H31" s="216"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="206"/>
-      <c r="K31" s="207"/>
-      <c r="L31" s="207"/>
-      <c r="M31" s="207"/>
-      <c r="N31" s="207"/>
-      <c r="O31" s="207"/>
-      <c r="P31" s="208"/>
+      <c r="B31" s="206"/>
+      <c r="C31" s="207"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="262"/>
+      <c r="K31" s="263"/>
+      <c r="L31" s="263"/>
+      <c r="M31" s="263"/>
+      <c r="N31" s="263"/>
+      <c r="O31" s="263"/>
+      <c r="P31" s="264"/>
       <c r="Q31" s="212"/>
       <c r="R31" s="213"/>
       <c r="S31" s="213"/>
@@ -8110,28 +8117,28 @@
       <c r="AC31" s="213"/>
       <c r="AD31" s="213"/>
       <c r="AE31" s="214"/>
-      <c r="AF31" s="206"/>
-      <c r="AG31" s="207"/>
-      <c r="AH31" s="207"/>
-      <c r="AI31" s="208"/>
+      <c r="AF31" s="262"/>
+      <c r="AG31" s="263"/>
+      <c r="AH31" s="263"/>
+      <c r="AI31" s="264"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="149"/>
-      <c r="B32" s="215"/>
-      <c r="C32" s="217"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="219"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="215"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="217"/>
-      <c r="J32" s="206"/>
-      <c r="K32" s="207"/>
-      <c r="L32" s="207"/>
-      <c r="M32" s="207"/>
-      <c r="N32" s="207"/>
-      <c r="O32" s="207"/>
-      <c r="P32" s="208"/>
+      <c r="B32" s="206"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="208"/>
+      <c r="E32" s="209"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="262"/>
+      <c r="K32" s="263"/>
+      <c r="L32" s="263"/>
+      <c r="M32" s="263"/>
+      <c r="N32" s="263"/>
+      <c r="O32" s="263"/>
+      <c r="P32" s="264"/>
       <c r="Q32" s="212"/>
       <c r="R32" s="213"/>
       <c r="S32" s="213"/>
@@ -8147,28 +8154,28 @@
       <c r="AC32" s="213"/>
       <c r="AD32" s="213"/>
       <c r="AE32" s="214"/>
-      <c r="AF32" s="206"/>
-      <c r="AG32" s="207"/>
-      <c r="AH32" s="207"/>
-      <c r="AI32" s="208"/>
+      <c r="AF32" s="262"/>
+      <c r="AG32" s="263"/>
+      <c r="AH32" s="263"/>
+      <c r="AI32" s="264"/>
     </row>
     <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="149"/>
-      <c r="B33" s="215"/>
-      <c r="C33" s="217"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="206"/>
-      <c r="K33" s="207"/>
-      <c r="L33" s="207"/>
-      <c r="M33" s="207"/>
-      <c r="N33" s="207"/>
-      <c r="O33" s="207"/>
-      <c r="P33" s="208"/>
+      <c r="B33" s="206"/>
+      <c r="C33" s="207"/>
+      <c r="D33" s="208"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="210"/>
+      <c r="G33" s="206"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="262"/>
+      <c r="K33" s="263"/>
+      <c r="L33" s="263"/>
+      <c r="M33" s="263"/>
+      <c r="N33" s="263"/>
+      <c r="O33" s="263"/>
+      <c r="P33" s="264"/>
       <c r="Q33" s="212"/>
       <c r="R33" s="213"/>
       <c r="S33" s="213"/>
@@ -8184,157 +8191,24 @@
       <c r="AC33" s="213"/>
       <c r="AD33" s="213"/>
       <c r="AE33" s="214"/>
-      <c r="AF33" s="206"/>
-      <c r="AG33" s="207"/>
-      <c r="AH33" s="207"/>
-      <c r="AI33" s="208"/>
+      <c r="AF33" s="262"/>
+      <c r="AG33" s="263"/>
+      <c r="AH33" s="263"/>
+      <c r="AI33" s="264"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF27:AI27"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AF9:AI9"/>
     <mergeCell ref="AF10:AI10"/>
@@ -8359,17 +8233,150 @@
     <mergeCell ref="AF15:AI15"/>
     <mergeCell ref="AF16:AI16"/>
     <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -8526,158 +8533,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="89" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="272" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="270"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="273"/>
       <c r="E1" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="272" t="s">
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="275" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="274"/>
-      <c r="S1" s="281" t="str">
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="277"/>
+      <c r="S1" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="251"/>
-      <c r="U1" s="251"/>
-      <c r="V1" s="251"/>
-      <c r="W1" s="251"/>
-      <c r="X1" s="251"/>
-      <c r="Y1" s="251"/>
-      <c r="Z1" s="252"/>
-      <c r="AA1" s="268" t="s">
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="255"/>
+      <c r="AA1" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="233" t="str">
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="223"/>
-      <c r="AG1" s="282">
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="283"/>
-      <c r="AI1" s="284"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
     </row>
     <row r="2" spans="1:35" s="89" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="272" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="270"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="273"/>
       <c r="E2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
-      <c r="R2" s="277"/>
-      <c r="S2" s="253"/>
-      <c r="T2" s="254"/>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="254"/>
-      <c r="Z2" s="255"/>
-      <c r="AA2" s="268" t="s">
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="231"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="279"/>
+      <c r="Q2" s="279"/>
+      <c r="R2" s="280"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
+      <c r="Y2" s="257"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="272" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="233" t="str">
+      <c r="AB2" s="273"/>
+      <c r="AC2" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
-      <c r="AF2" s="223"/>
-      <c r="AG2" s="282" t="str">
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="283"/>
-      <c r="AI2" s="284"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
     </row>
     <row r="3" spans="1:35" s="89" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="268" t="s">
+      <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="273"/>
       <c r="E3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="279"/>
-      <c r="R3" s="280"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="257"/>
-      <c r="U3" s="257"/>
-      <c r="V3" s="257"/>
-      <c r="W3" s="257"/>
-      <c r="X3" s="257"/>
-      <c r="Y3" s="257"/>
-      <c r="Z3" s="258"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="233" t="str">
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="282"/>
+      <c r="Q3" s="282"/>
+      <c r="R3" s="283"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="272"/>
+      <c r="AB3" s="273"/>
+      <c r="AC3" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="222"/>
-      <c r="AE3" s="222"/>
-      <c r="AF3" s="223"/>
-      <c r="AG3" s="282" t="str">
+      <c r="AD3" s="225"/>
+      <c r="AE3" s="225"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="283"/>
-      <c r="AI3" s="284"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
     </row>
     <row r="4" spans="1:35" s="69" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="150"/>
@@ -8887,7 +8894,7 @@
       <c r="A12" s="152"/>
       <c r="B12" s="162"/>
       <c r="C12" s="163" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D12" s="164"/>
       <c r="E12" s="164"/>
@@ -9932,12 +9939,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -9949,6 +9950,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <printOptions horizontalCentered="1"/>
@@ -9975,158 +9982,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="272" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="270"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="273"/>
       <c r="E1" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="272" t="s">
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="275" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="274"/>
-      <c r="S1" s="281" t="str">
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="277"/>
+      <c r="S1" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="251"/>
-      <c r="U1" s="251"/>
-      <c r="V1" s="251"/>
-      <c r="W1" s="251"/>
-      <c r="X1" s="251"/>
-      <c r="Y1" s="251"/>
-      <c r="Z1" s="252"/>
-      <c r="AA1" s="268" t="s">
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="255"/>
+      <c r="AA1" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="233" t="str">
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="223"/>
-      <c r="AG1" s="282">
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="283"/>
-      <c r="AI1" s="284"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
     </row>
     <row r="2" spans="1:35" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="272" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="270"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="273"/>
       <c r="E2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
-      <c r="R2" s="277"/>
-      <c r="S2" s="253"/>
-      <c r="T2" s="254"/>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="254"/>
-      <c r="Z2" s="255"/>
-      <c r="AA2" s="268" t="s">
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="231"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="279"/>
+      <c r="Q2" s="279"/>
+      <c r="R2" s="280"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
+      <c r="Y2" s="257"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="272" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="233" t="str">
+      <c r="AB2" s="273"/>
+      <c r="AC2" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
-      <c r="AF2" s="223"/>
-      <c r="AG2" s="282" t="str">
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="283"/>
-      <c r="AI2" s="284"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
     </row>
     <row r="3" spans="1:35" s="131" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="268" t="s">
+      <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="273"/>
       <c r="E3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="279"/>
-      <c r="R3" s="280"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="257"/>
-      <c r="U3" s="257"/>
-      <c r="V3" s="257"/>
-      <c r="W3" s="257"/>
-      <c r="X3" s="257"/>
-      <c r="Y3" s="257"/>
-      <c r="Z3" s="258"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="233" t="str">
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="282"/>
+      <c r="Q3" s="282"/>
+      <c r="R3" s="283"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="272"/>
+      <c r="AB3" s="273"/>
+      <c r="AC3" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="222"/>
-      <c r="AE3" s="222"/>
-      <c r="AF3" s="223"/>
-      <c r="AG3" s="282" t="str">
+      <c r="AD3" s="225"/>
+      <c r="AE3" s="225"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="283"/>
-      <c r="AI3" s="284"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
     </row>
     <row r="4" spans="1:35" s="131" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AC4" s="136"/>
@@ -10151,9 +10158,9 @@
       <c r="A7" s="285" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="288"/>
-      <c r="C7" s="288"/>
-      <c r="D7" s="289"/>
+      <c r="B7" s="292"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="293"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -10166,82 +10173,82 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="Q7" s="290" t="s">
+      <c r="Q7" s="309" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="291"/>
-      <c r="S7" s="291"/>
-      <c r="T7" s="292"/>
-      <c r="U7" s="295" t="s">
-        <v>112</v>
-      </c>
-      <c r="V7" s="296"/>
-      <c r="W7" s="296"/>
-      <c r="X7" s="296"/>
-      <c r="Y7" s="296"/>
-      <c r="Z7" s="296"/>
-      <c r="AA7" s="296"/>
-      <c r="AB7" s="296"/>
-      <c r="AC7" s="296"/>
-      <c r="AD7" s="296"/>
-      <c r="AE7" s="296"/>
-      <c r="AF7" s="296"/>
-      <c r="AG7" s="296"/>
-      <c r="AH7" s="296"/>
-      <c r="AI7" s="297"/>
+      <c r="R7" s="310"/>
+      <c r="S7" s="310"/>
+      <c r="T7" s="311"/>
+      <c r="U7" s="315" t="s">
+        <v>162</v>
+      </c>
+      <c r="V7" s="316"/>
+      <c r="W7" s="316"/>
+      <c r="X7" s="316"/>
+      <c r="Y7" s="316"/>
+      <c r="Z7" s="316"/>
+      <c r="AA7" s="316"/>
+      <c r="AB7" s="316"/>
+      <c r="AC7" s="316"/>
+      <c r="AD7" s="316"/>
+      <c r="AE7" s="316"/>
+      <c r="AF7" s="316"/>
+      <c r="AG7" s="316"/>
+      <c r="AH7" s="316"/>
+      <c r="AI7" s="317"/>
     </row>
     <row r="8" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="285" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="288"/>
-      <c r="C8" s="288"/>
-      <c r="D8" s="289"/>
-      <c r="E8" s="293" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="294"/>
-      <c r="G8" s="294"/>
-      <c r="H8" s="294"/>
-      <c r="I8" s="294"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
-      <c r="M8" s="294"/>
-      <c r="N8" s="294"/>
-      <c r="O8" s="294"/>
-      <c r="P8" s="294"/>
+      <c r="B8" s="292"/>
+      <c r="C8" s="292"/>
+      <c r="D8" s="293"/>
+      <c r="E8" s="306" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="307"/>
+      <c r="G8" s="307"/>
+      <c r="H8" s="307"/>
+      <c r="I8" s="307"/>
+      <c r="J8" s="307"/>
+      <c r="K8" s="307"/>
+      <c r="L8" s="307"/>
+      <c r="M8" s="307"/>
+      <c r="N8" s="307"/>
+      <c r="O8" s="307"/>
+      <c r="P8" s="307"/>
       <c r="Q8" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="288"/>
-      <c r="S8" s="288"/>
-      <c r="T8" s="289"/>
-      <c r="U8" s="293" t="s">
-        <v>138</v>
-      </c>
-      <c r="V8" s="294"/>
-      <c r="W8" s="294"/>
-      <c r="X8" s="294"/>
-      <c r="Y8" s="294"/>
-      <c r="Z8" s="294"/>
-      <c r="AA8" s="294"/>
-      <c r="AB8" s="294"/>
-      <c r="AC8" s="294"/>
-      <c r="AD8" s="294"/>
-      <c r="AE8" s="294"/>
-      <c r="AF8" s="294"/>
-      <c r="AG8" s="294"/>
-      <c r="AH8" s="294"/>
-      <c r="AI8" s="298"/>
+      <c r="R8" s="292"/>
+      <c r="S8" s="292"/>
+      <c r="T8" s="293"/>
+      <c r="U8" s="306" t="s">
+        <v>158</v>
+      </c>
+      <c r="V8" s="307"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="307"/>
+      <c r="AB8" s="307"/>
+      <c r="AC8" s="307"/>
+      <c r="AD8" s="307"/>
+      <c r="AE8" s="307"/>
+      <c r="AF8" s="307"/>
+      <c r="AG8" s="307"/>
+      <c r="AH8" s="307"/>
+      <c r="AI8" s="308"/>
     </row>
     <row r="9" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="285" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="288"/>
-      <c r="C9" s="288"/>
-      <c r="D9" s="289"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="292"/>
+      <c r="D9" s="293"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -10277,7 +10284,7 @@
     <row r="10" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="106" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C10" s="106"/>
       <c r="D10" s="106"/>
@@ -10468,7 +10475,7 @@
     <row r="15" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
       <c r="B15" s="184" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C15" s="184"/>
       <c r="D15" s="184"/>
@@ -10507,7 +10514,7 @@
     <row r="16" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28"/>
       <c r="B16" s="184" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="C16" s="184"/>
       <c r="D16" s="184"/>
@@ -10581,12 +10588,12 @@
       <c r="AI17" s="36"/>
     </row>
     <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="299" t="s">
+      <c r="A18" s="303" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="300"/>
-      <c r="C18" s="300"/>
-      <c r="D18" s="301"/>
+      <c r="B18" s="304"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="305"/>
       <c r="E18" s="19"/>
       <c r="F18" s="23"/>
       <c r="G18" s="184"/>
@@ -10599,12 +10606,12 @@
       <c r="N18" s="184"/>
       <c r="O18" s="106"/>
       <c r="P18" s="184"/>
-      <c r="Q18" s="299" t="s">
+      <c r="Q18" s="303" t="s">
         <v>42</v>
       </c>
-      <c r="R18" s="300"/>
-      <c r="S18" s="300"/>
-      <c r="T18" s="301"/>
+      <c r="R18" s="304"/>
+      <c r="S18" s="304"/>
+      <c r="T18" s="305"/>
       <c r="U18" s="106"/>
       <c r="V18" s="106"/>
       <c r="W18" s="106"/>
@@ -10632,7 +10639,7 @@
         <v>43</v>
       </c>
       <c r="H19" s="184" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I19" s="184"/>
       <c r="J19" s="106"/>
@@ -10709,11 +10716,11 @@
       <c r="A21" s="285" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="288"/>
-      <c r="C21" s="288"/>
-      <c r="D21" s="289"/>
+      <c r="B21" s="292"/>
+      <c r="C21" s="292"/>
+      <c r="D21" s="293"/>
       <c r="E21" s="45" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -10729,34 +10736,34 @@
       <c r="Q21" s="285" t="s">
         <v>45</v>
       </c>
-      <c r="R21" s="288"/>
-      <c r="S21" s="288"/>
-      <c r="T21" s="289"/>
-      <c r="U21" s="293" t="s">
+      <c r="R21" s="292"/>
+      <c r="S21" s="292"/>
+      <c r="T21" s="293"/>
+      <c r="U21" s="306" t="s">
         <v>101</v>
       </c>
-      <c r="V21" s="294"/>
-      <c r="W21" s="294"/>
-      <c r="X21" s="294"/>
-      <c r="Y21" s="294"/>
-      <c r="Z21" s="294"/>
-      <c r="AA21" s="294"/>
-      <c r="AB21" s="294"/>
-      <c r="AC21" s="294"/>
-      <c r="AD21" s="294"/>
-      <c r="AE21" s="294"/>
-      <c r="AF21" s="294"/>
-      <c r="AG21" s="294"/>
-      <c r="AH21" s="294"/>
-      <c r="AI21" s="298"/>
+      <c r="V21" s="307"/>
+      <c r="W21" s="307"/>
+      <c r="X21" s="307"/>
+      <c r="Y21" s="307"/>
+      <c r="Z21" s="307"/>
+      <c r="AA21" s="307"/>
+      <c r="AB21" s="307"/>
+      <c r="AC21" s="307"/>
+      <c r="AD21" s="307"/>
+      <c r="AE21" s="307"/>
+      <c r="AF21" s="307"/>
+      <c r="AG21" s="307"/>
+      <c r="AH21" s="307"/>
+      <c r="AI21" s="308"/>
     </row>
     <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="290" t="s">
+      <c r="A22" s="309" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="291"/>
-      <c r="C22" s="291"/>
-      <c r="D22" s="292"/>
+      <c r="B22" s="310"/>
+      <c r="C22" s="310"/>
+      <c r="D22" s="311"/>
       <c r="E22" s="24"/>
       <c r="F22" s="25"/>
       <c r="G22" s="185"/>
@@ -10769,12 +10776,12 @@
       <c r="N22" s="185"/>
       <c r="O22" s="18"/>
       <c r="P22" s="185"/>
-      <c r="Q22" s="290" t="s">
+      <c r="Q22" s="309" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="291"/>
-      <c r="S22" s="291"/>
-      <c r="T22" s="292"/>
+      <c r="R22" s="310"/>
+      <c r="S22" s="310"/>
+      <c r="T22" s="311"/>
       <c r="U22" s="50"/>
       <c r="V22" s="185"/>
       <c r="W22" s="18"/>
@@ -10837,38 +10844,38 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="315" t="s">
+      <c r="A24" s="300" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="316"/>
-      <c r="C24" s="316"/>
-      <c r="D24" s="317"/>
-      <c r="E24" s="293" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="294"/>
-      <c r="G24" s="294"/>
-      <c r="H24" s="294"/>
-      <c r="I24" s="294"/>
-      <c r="J24" s="294"/>
-      <c r="K24" s="294"/>
-      <c r="L24" s="294"/>
-      <c r="M24" s="294"/>
-      <c r="N24" s="294"/>
-      <c r="O24" s="294"/>
-      <c r="P24" s="298"/>
-      <c r="Q24" s="302" t="s">
+      <c r="B24" s="301"/>
+      <c r="C24" s="301"/>
+      <c r="D24" s="302"/>
+      <c r="E24" s="306" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="307"/>
+      <c r="G24" s="307"/>
+      <c r="H24" s="307"/>
+      <c r="I24" s="307"/>
+      <c r="J24" s="307"/>
+      <c r="K24" s="307"/>
+      <c r="L24" s="307"/>
+      <c r="M24" s="307"/>
+      <c r="N24" s="307"/>
+      <c r="O24" s="307"/>
+      <c r="P24" s="308"/>
+      <c r="Q24" s="312" t="s">
         <v>48</v>
       </c>
-      <c r="R24" s="303"/>
-      <c r="S24" s="303"/>
-      <c r="T24" s="304"/>
-      <c r="U24" s="307">
+      <c r="R24" s="313"/>
+      <c r="S24" s="313"/>
+      <c r="T24" s="314"/>
+      <c r="U24" s="290">
         <v>3588</v>
       </c>
-      <c r="V24" s="308"/>
-      <c r="W24" s="308"/>
-      <c r="X24" s="308"/>
+      <c r="V24" s="291"/>
+      <c r="W24" s="291"/>
+      <c r="X24" s="291"/>
       <c r="Y24" s="21" t="s">
         <v>49</v>
       </c>
@@ -10884,26 +10891,28 @@
       <c r="AI24" s="22"/>
     </row>
     <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="311" t="s">
+      <c r="A25" s="296" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="312"/>
-      <c r="C25" s="312"/>
-      <c r="D25" s="313"/>
+      <c r="B25" s="297"/>
+      <c r="C25" s="297"/>
+      <c r="D25" s="298"/>
       <c r="E25" s="24"/>
       <c r="F25" s="35"/>
       <c r="G25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="305"/>
-      <c r="I25" s="306"/>
-      <c r="J25" s="306"/>
-      <c r="K25" s="306"/>
-      <c r="L25" s="306"/>
-      <c r="M25" s="306"/>
-      <c r="N25" s="306"/>
-      <c r="O25" s="306"/>
-      <c r="P25" s="306"/>
+      <c r="H25" s="288" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="289"/>
+      <c r="J25" s="289"/>
+      <c r="K25" s="289"/>
+      <c r="L25" s="289"/>
+      <c r="M25" s="289"/>
+      <c r="N25" s="289"/>
+      <c r="O25" s="289"/>
+      <c r="P25" s="289"/>
       <c r="Q25" s="185" t="s">
         <v>7</v>
       </c>
@@ -10912,15 +10921,15 @@
       <c r="T25" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="314"/>
-      <c r="V25" s="314"/>
-      <c r="W25" s="314"/>
-      <c r="X25" s="314"/>
-      <c r="Y25" s="314"/>
-      <c r="Z25" s="314"/>
-      <c r="AA25" s="314"/>
-      <c r="AB25" s="314"/>
-      <c r="AC25" s="314"/>
+      <c r="U25" s="299"/>
+      <c r="V25" s="299"/>
+      <c r="W25" s="299"/>
+      <c r="X25" s="299"/>
+      <c r="Y25" s="299"/>
+      <c r="Z25" s="299"/>
+      <c r="AA25" s="299"/>
+      <c r="AB25" s="299"/>
+      <c r="AC25" s="299"/>
       <c r="AD25" s="185" t="s">
         <v>7</v>
       </c>
@@ -10940,15 +10949,15 @@
       <c r="G26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="310"/>
-      <c r="I26" s="310"/>
-      <c r="J26" s="310"/>
-      <c r="K26" s="310"/>
-      <c r="L26" s="310"/>
-      <c r="M26" s="310"/>
-      <c r="N26" s="310"/>
-      <c r="O26" s="310"/>
-      <c r="P26" s="310"/>
+      <c r="H26" s="295"/>
+      <c r="I26" s="295"/>
+      <c r="J26" s="295"/>
+      <c r="K26" s="295"/>
+      <c r="L26" s="295"/>
+      <c r="M26" s="295"/>
+      <c r="N26" s="295"/>
+      <c r="O26" s="295"/>
+      <c r="P26" s="295"/>
       <c r="Q26" s="184" t="s">
         <v>7</v>
       </c>
@@ -10957,15 +10966,15 @@
       <c r="T26" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="310"/>
-      <c r="V26" s="310"/>
-      <c r="W26" s="310"/>
-      <c r="X26" s="310"/>
-      <c r="Y26" s="310"/>
-      <c r="Z26" s="310"/>
-      <c r="AA26" s="310"/>
-      <c r="AB26" s="310"/>
-      <c r="AC26" s="310"/>
+      <c r="U26" s="295"/>
+      <c r="V26" s="295"/>
+      <c r="W26" s="295"/>
+      <c r="X26" s="295"/>
+      <c r="Y26" s="295"/>
+      <c r="Z26" s="295"/>
+      <c r="AA26" s="295"/>
+      <c r="AB26" s="295"/>
+      <c r="AC26" s="295"/>
       <c r="AD26" s="184" t="s">
         <v>7</v>
       </c>
@@ -10985,15 +10994,15 @@
       <c r="G27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="309"/>
-      <c r="I27" s="309"/>
-      <c r="J27" s="309"/>
-      <c r="K27" s="309"/>
-      <c r="L27" s="309"/>
-      <c r="M27" s="309"/>
-      <c r="N27" s="309"/>
-      <c r="O27" s="309"/>
-      <c r="P27" s="309"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="294"/>
+      <c r="J27" s="294"/>
+      <c r="K27" s="294"/>
+      <c r="L27" s="294"/>
+      <c r="M27" s="294"/>
+      <c r="N27" s="294"/>
+      <c r="O27" s="294"/>
+      <c r="P27" s="294"/>
       <c r="Q27" s="183" t="s">
         <v>7</v>
       </c>
@@ -11002,20 +11011,20 @@
       <c r="T27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="309"/>
-      <c r="V27" s="309"/>
-      <c r="W27" s="309"/>
-      <c r="X27" s="309"/>
-      <c r="Y27" s="309"/>
-      <c r="Z27" s="309"/>
-      <c r="AA27" s="309"/>
-      <c r="AB27" s="309"/>
-      <c r="AC27" s="309"/>
-      <c r="AD27" s="309"/>
-      <c r="AE27" s="309"/>
-      <c r="AF27" s="309"/>
-      <c r="AG27" s="309"/>
-      <c r="AH27" s="309"/>
+      <c r="U27" s="294"/>
+      <c r="V27" s="294"/>
+      <c r="W27" s="294"/>
+      <c r="X27" s="294"/>
+      <c r="Y27" s="294"/>
+      <c r="Z27" s="294"/>
+      <c r="AA27" s="294"/>
+      <c r="AB27" s="294"/>
+      <c r="AC27" s="294"/>
+      <c r="AD27" s="294"/>
+      <c r="AE27" s="294"/>
+      <c r="AF27" s="294"/>
+      <c r="AG27" s="294"/>
+      <c r="AH27" s="294"/>
       <c r="AI27" s="36" t="s">
         <v>7</v>
       </c>
@@ -11209,14 +11218,31 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="Q8:T8"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="U7:AI7"/>
+    <mergeCell ref="U8:AI8"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="U21:AI21"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="E24:P24"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="H25:P25"/>
     <mergeCell ref="U24:X24"/>
@@ -11229,31 +11255,14 @@
     <mergeCell ref="H26:P26"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="U21:AI21"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="E24:P24"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="U7:AI7"/>
-    <mergeCell ref="U8:AI8"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -11932,158 +11941,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="272" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="270"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="273"/>
       <c r="E1" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="272" t="s">
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="275" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="274"/>
-      <c r="S1" s="281" t="str">
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="277"/>
+      <c r="S1" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="251"/>
-      <c r="U1" s="251"/>
-      <c r="V1" s="251"/>
-      <c r="W1" s="251"/>
-      <c r="X1" s="251"/>
-      <c r="Y1" s="251"/>
-      <c r="Z1" s="252"/>
-      <c r="AA1" s="268" t="s">
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="255"/>
+      <c r="AA1" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="233" t="str">
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="223"/>
-      <c r="AG1" s="282">
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="283"/>
-      <c r="AI1" s="284"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
     </row>
     <row r="2" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="272" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="270"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="273"/>
       <c r="E2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
-      <c r="R2" s="277"/>
-      <c r="S2" s="253"/>
-      <c r="T2" s="254"/>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="254"/>
-      <c r="Z2" s="255"/>
-      <c r="AA2" s="268" t="s">
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="231"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="279"/>
+      <c r="Q2" s="279"/>
+      <c r="R2" s="280"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
+      <c r="Y2" s="257"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="272" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="233" t="str">
+      <c r="AB2" s="273"/>
+      <c r="AC2" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
-      <c r="AF2" s="223"/>
-      <c r="AG2" s="282" t="str">
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="283"/>
-      <c r="AI2" s="284"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
     </row>
     <row r="3" spans="1:47" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="268" t="s">
+      <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="273"/>
       <c r="E3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="279"/>
-      <c r="R3" s="280"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="257"/>
-      <c r="U3" s="257"/>
-      <c r="V3" s="257"/>
-      <c r="W3" s="257"/>
-      <c r="X3" s="257"/>
-      <c r="Y3" s="257"/>
-      <c r="Z3" s="258"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="233" t="str">
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="282"/>
+      <c r="Q3" s="282"/>
+      <c r="R3" s="283"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="272"/>
+      <c r="AB3" s="273"/>
+      <c r="AC3" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="222"/>
-      <c r="AE3" s="222"/>
-      <c r="AF3" s="223"/>
-      <c r="AG3" s="282" t="str">
+      <c r="AD3" s="225"/>
+      <c r="AE3" s="225"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="283"/>
-      <c r="AI3" s="284"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
     </row>
     <row r="4" spans="1:47" s="14" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42"/>
@@ -12206,192 +12215,192 @@
       <c r="AU6" s="75"/>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.15">
-      <c r="A7" s="318" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="319"/>
-      <c r="C7" s="319"/>
-      <c r="D7" s="319"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="319"/>
-      <c r="J7" s="319"/>
-      <c r="K7" s="319"/>
-      <c r="L7" s="319"/>
-      <c r="M7" s="319"/>
-      <c r="N7" s="319"/>
-      <c r="O7" s="319"/>
-      <c r="P7" s="319"/>
-      <c r="Q7" s="319"/>
-      <c r="R7" s="319"/>
-      <c r="S7" s="319"/>
-      <c r="T7" s="319"/>
-      <c r="U7" s="319"/>
-      <c r="V7" s="319"/>
-      <c r="W7" s="319"/>
-      <c r="X7" s="319"/>
-      <c r="Y7" s="319"/>
-      <c r="Z7" s="319"/>
-      <c r="AA7" s="319"/>
-      <c r="AB7" s="320"/>
-      <c r="AC7" s="331" t="s">
+      <c r="A7" s="373" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="374"/>
+      <c r="C7" s="374"/>
+      <c r="D7" s="374"/>
+      <c r="E7" s="374"/>
+      <c r="F7" s="374"/>
+      <c r="G7" s="374"/>
+      <c r="H7" s="374"/>
+      <c r="I7" s="374"/>
+      <c r="J7" s="374"/>
+      <c r="K7" s="374"/>
+      <c r="L7" s="374"/>
+      <c r="M7" s="374"/>
+      <c r="N7" s="374"/>
+      <c r="O7" s="374"/>
+      <c r="P7" s="374"/>
+      <c r="Q7" s="374"/>
+      <c r="R7" s="374"/>
+      <c r="S7" s="374"/>
+      <c r="T7" s="374"/>
+      <c r="U7" s="374"/>
+      <c r="V7" s="374"/>
+      <c r="W7" s="374"/>
+      <c r="X7" s="374"/>
+      <c r="Y7" s="374"/>
+      <c r="Z7" s="374"/>
+      <c r="AA7" s="374"/>
+      <c r="AB7" s="375"/>
+      <c r="AC7" s="386" t="s">
         <v>50</v>
       </c>
-      <c r="AD7" s="319"/>
-      <c r="AE7" s="319"/>
-      <c r="AF7" s="319"/>
-      <c r="AG7" s="319"/>
-      <c r="AH7" s="319"/>
-      <c r="AI7" s="332"/>
+      <c r="AD7" s="374"/>
+      <c r="AE7" s="374"/>
+      <c r="AF7" s="374"/>
+      <c r="AG7" s="374"/>
+      <c r="AH7" s="374"/>
+      <c r="AI7" s="387"/>
     </row>
     <row r="8" spans="1:47" s="193" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="192" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="321" t="s">
+      <c r="B8" s="376" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="213"/>
       <c r="D8" s="213"/>
       <c r="E8" s="213"/>
       <c r="F8" s="214"/>
-      <c r="G8" s="321" t="s">
+      <c r="G8" s="376" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="322"/>
-      <c r="I8" s="324"/>
-      <c r="J8" s="321" t="s">
+      <c r="H8" s="377"/>
+      <c r="I8" s="379"/>
+      <c r="J8" s="376" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="322"/>
-      <c r="L8" s="322"/>
-      <c r="M8" s="322"/>
-      <c r="N8" s="322"/>
-      <c r="O8" s="322"/>
-      <c r="P8" s="324"/>
-      <c r="Q8" s="325" t="s">
+      <c r="K8" s="377"/>
+      <c r="L8" s="377"/>
+      <c r="M8" s="377"/>
+      <c r="N8" s="377"/>
+      <c r="O8" s="377"/>
+      <c r="P8" s="379"/>
+      <c r="Q8" s="380" t="s">
         <v>106</v>
       </c>
-      <c r="R8" s="327"/>
-      <c r="S8" s="325" t="s">
+      <c r="R8" s="382"/>
+      <c r="S8" s="380" t="s">
         <v>80</v>
       </c>
-      <c r="T8" s="326"/>
-      <c r="U8" s="327"/>
-      <c r="V8" s="321" t="s">
+      <c r="T8" s="381"/>
+      <c r="U8" s="382"/>
+      <c r="V8" s="376" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="322"/>
-      <c r="X8" s="322"/>
-      <c r="Y8" s="322"/>
-      <c r="Z8" s="322"/>
-      <c r="AA8" s="322"/>
-      <c r="AB8" s="323"/>
-      <c r="AC8" s="328" t="s">
+      <c r="W8" s="377"/>
+      <c r="X8" s="377"/>
+      <c r="Y8" s="377"/>
+      <c r="Z8" s="377"/>
+      <c r="AA8" s="377"/>
+      <c r="AB8" s="378"/>
+      <c r="AC8" s="383" t="s">
         <v>13</v>
       </c>
-      <c r="AD8" s="329"/>
-      <c r="AE8" s="329"/>
-      <c r="AF8" s="329"/>
-      <c r="AG8" s="329"/>
-      <c r="AH8" s="330" t="s">
+      <c r="AD8" s="384"/>
+      <c r="AE8" s="384"/>
+      <c r="AF8" s="384"/>
+      <c r="AG8" s="384"/>
+      <c r="AH8" s="385" t="s">
         <v>81</v>
       </c>
-      <c r="AI8" s="330"/>
+      <c r="AI8" s="385"/>
     </row>
     <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="178">
         <v>1</v>
       </c>
-      <c r="B9" s="335" t="s">
+      <c r="B9" s="325" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="326"/>
+      <c r="D9" s="326"/>
+      <c r="E9" s="326"/>
+      <c r="F9" s="327"/>
+      <c r="G9" s="325" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="326"/>
+      <c r="I9" s="327"/>
+      <c r="J9" s="325" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="368"/>
+      <c r="L9" s="368"/>
+      <c r="M9" s="368"/>
+      <c r="N9" s="368"/>
+      <c r="O9" s="368"/>
+      <c r="P9" s="369"/>
+      <c r="Q9" s="332">
+        <v>3588</v>
+      </c>
+      <c r="R9" s="333"/>
+      <c r="S9" s="336" t="s">
+        <v>136</v>
+      </c>
+      <c r="T9" s="337"/>
+      <c r="U9" s="338"/>
+      <c r="V9" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="336"/>
-      <c r="D9" s="336"/>
-      <c r="E9" s="336"/>
-      <c r="F9" s="337"/>
-      <c r="G9" s="335" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="336"/>
-      <c r="I9" s="337"/>
-      <c r="J9" s="335" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9" s="343"/>
-      <c r="L9" s="343"/>
-      <c r="M9" s="343"/>
-      <c r="N9" s="343"/>
-      <c r="O9" s="343"/>
-      <c r="P9" s="344"/>
-      <c r="Q9" s="381">
-        <v>3588</v>
-      </c>
-      <c r="R9" s="382"/>
-      <c r="S9" s="385" t="s">
-        <v>140</v>
-      </c>
-      <c r="T9" s="386"/>
-      <c r="U9" s="387"/>
-      <c r="V9" s="335" t="s">
-        <v>118</v>
-      </c>
-      <c r="W9" s="336"/>
-      <c r="X9" s="336"/>
-      <c r="Y9" s="336"/>
-      <c r="Z9" s="336"/>
-      <c r="AA9" s="336"/>
-      <c r="AB9" s="341"/>
-      <c r="AC9" s="347" t="s">
+      <c r="W9" s="326"/>
+      <c r="X9" s="326"/>
+      <c r="Y9" s="326"/>
+      <c r="Z9" s="326"/>
+      <c r="AA9" s="326"/>
+      <c r="AB9" s="367"/>
+      <c r="AC9" s="370" t="s">
         <v>82</v>
       </c>
-      <c r="AD9" s="335"/>
-      <c r="AE9" s="336"/>
-      <c r="AF9" s="336"/>
-      <c r="AG9" s="337"/>
-      <c r="AH9" s="383"/>
-      <c r="AI9" s="384"/>
+      <c r="AD9" s="325"/>
+      <c r="AE9" s="326"/>
+      <c r="AF9" s="326"/>
+      <c r="AG9" s="327"/>
+      <c r="AH9" s="334"/>
+      <c r="AI9" s="335"/>
     </row>
     <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="178">
         <v>2</v>
       </c>
-      <c r="B10" s="338"/>
-      <c r="C10" s="339"/>
-      <c r="D10" s="339"/>
-      <c r="E10" s="339"/>
-      <c r="F10" s="340"/>
-      <c r="G10" s="338"/>
-      <c r="H10" s="339"/>
-      <c r="I10" s="340"/>
-      <c r="J10" s="338"/>
-      <c r="K10" s="345"/>
-      <c r="L10" s="345"/>
-      <c r="M10" s="345"/>
-      <c r="N10" s="345"/>
-      <c r="O10" s="345"/>
-      <c r="P10" s="346"/>
-      <c r="Q10" s="353"/>
-      <c r="R10" s="354"/>
-      <c r="S10" s="358"/>
-      <c r="T10" s="359"/>
-      <c r="U10" s="360"/>
-      <c r="V10" s="338"/>
-      <c r="W10" s="339"/>
-      <c r="X10" s="339"/>
-      <c r="Y10" s="339"/>
-      <c r="Z10" s="339"/>
-      <c r="AA10" s="339"/>
-      <c r="AB10" s="342"/>
-      <c r="AC10" s="348"/>
-      <c r="AD10" s="338"/>
-      <c r="AE10" s="339"/>
-      <c r="AF10" s="339"/>
-      <c r="AG10" s="340"/>
-      <c r="AH10" s="333"/>
-      <c r="AI10" s="334"/>
+      <c r="B10" s="320"/>
+      <c r="C10" s="321"/>
+      <c r="D10" s="321"/>
+      <c r="E10" s="321"/>
+      <c r="F10" s="322"/>
+      <c r="G10" s="320"/>
+      <c r="H10" s="321"/>
+      <c r="I10" s="322"/>
+      <c r="J10" s="320"/>
+      <c r="K10" s="329"/>
+      <c r="L10" s="329"/>
+      <c r="M10" s="329"/>
+      <c r="N10" s="329"/>
+      <c r="O10" s="329"/>
+      <c r="P10" s="330"/>
+      <c r="Q10" s="323"/>
+      <c r="R10" s="324"/>
+      <c r="S10" s="339"/>
+      <c r="T10" s="340"/>
+      <c r="U10" s="341"/>
+      <c r="V10" s="320"/>
+      <c r="W10" s="321"/>
+      <c r="X10" s="321"/>
+      <c r="Y10" s="321"/>
+      <c r="Z10" s="321"/>
+      <c r="AA10" s="321"/>
+      <c r="AB10" s="331"/>
+      <c r="AC10" s="371"/>
+      <c r="AD10" s="320"/>
+      <c r="AE10" s="321"/>
+      <c r="AF10" s="321"/>
+      <c r="AG10" s="322"/>
+      <c r="AH10" s="318"/>
+      <c r="AI10" s="319"/>
       <c r="AM10" s="111"/>
       <c r="AN10" s="111"/>
       <c r="AO10" s="111"/>
@@ -12402,40 +12411,40 @@
       <c r="A11" s="178">
         <v>3</v>
       </c>
-      <c r="B11" s="338"/>
-      <c r="C11" s="339"/>
-      <c r="D11" s="339"/>
-      <c r="E11" s="339"/>
-      <c r="F11" s="340"/>
-      <c r="G11" s="355"/>
-      <c r="H11" s="356"/>
-      <c r="I11" s="357"/>
-      <c r="J11" s="338"/>
-      <c r="K11" s="345"/>
-      <c r="L11" s="345"/>
-      <c r="M11" s="345"/>
-      <c r="N11" s="345"/>
-      <c r="O11" s="345"/>
-      <c r="P11" s="346"/>
-      <c r="Q11" s="353"/>
-      <c r="R11" s="354"/>
-      <c r="S11" s="358"/>
-      <c r="T11" s="359"/>
-      <c r="U11" s="360"/>
-      <c r="V11" s="338"/>
-      <c r="W11" s="339"/>
-      <c r="X11" s="339"/>
-      <c r="Y11" s="339"/>
-      <c r="Z11" s="339"/>
-      <c r="AA11" s="339"/>
-      <c r="AB11" s="342"/>
-      <c r="AC11" s="348"/>
-      <c r="AD11" s="375"/>
-      <c r="AE11" s="345"/>
-      <c r="AF11" s="345"/>
-      <c r="AG11" s="346"/>
-      <c r="AH11" s="333"/>
-      <c r="AI11" s="334"/>
+      <c r="B11" s="320"/>
+      <c r="C11" s="321"/>
+      <c r="D11" s="321"/>
+      <c r="E11" s="321"/>
+      <c r="F11" s="322"/>
+      <c r="G11" s="344"/>
+      <c r="H11" s="345"/>
+      <c r="I11" s="346"/>
+      <c r="J11" s="320"/>
+      <c r="K11" s="329"/>
+      <c r="L11" s="329"/>
+      <c r="M11" s="329"/>
+      <c r="N11" s="329"/>
+      <c r="O11" s="329"/>
+      <c r="P11" s="330"/>
+      <c r="Q11" s="323"/>
+      <c r="R11" s="324"/>
+      <c r="S11" s="339"/>
+      <c r="T11" s="340"/>
+      <c r="U11" s="341"/>
+      <c r="V11" s="320"/>
+      <c r="W11" s="321"/>
+      <c r="X11" s="321"/>
+      <c r="Y11" s="321"/>
+      <c r="Z11" s="321"/>
+      <c r="AA11" s="321"/>
+      <c r="AB11" s="331"/>
+      <c r="AC11" s="371"/>
+      <c r="AD11" s="328"/>
+      <c r="AE11" s="329"/>
+      <c r="AF11" s="329"/>
+      <c r="AG11" s="330"/>
+      <c r="AH11" s="318"/>
+      <c r="AI11" s="319"/>
       <c r="AM11" s="110"/>
       <c r="AN11" s="110"/>
       <c r="AO11" s="110"/>
@@ -12446,40 +12455,40 @@
       <c r="A12" s="178">
         <v>4</v>
       </c>
-      <c r="B12" s="338"/>
-      <c r="C12" s="339"/>
-      <c r="D12" s="339"/>
-      <c r="E12" s="339"/>
-      <c r="F12" s="340"/>
-      <c r="G12" s="355"/>
-      <c r="H12" s="356"/>
-      <c r="I12" s="357"/>
-      <c r="J12" s="338"/>
-      <c r="K12" s="345"/>
-      <c r="L12" s="345"/>
-      <c r="M12" s="345"/>
-      <c r="N12" s="345"/>
-      <c r="O12" s="345"/>
-      <c r="P12" s="346"/>
-      <c r="Q12" s="353"/>
-      <c r="R12" s="354"/>
-      <c r="S12" s="358"/>
-      <c r="T12" s="359"/>
-      <c r="U12" s="360"/>
-      <c r="V12" s="338"/>
-      <c r="W12" s="339"/>
-      <c r="X12" s="339"/>
-      <c r="Y12" s="339"/>
-      <c r="Z12" s="339"/>
-      <c r="AA12" s="339"/>
-      <c r="AB12" s="342"/>
-      <c r="AC12" s="348"/>
-      <c r="AD12" s="375"/>
-      <c r="AE12" s="345"/>
-      <c r="AF12" s="345"/>
-      <c r="AG12" s="346"/>
-      <c r="AH12" s="333"/>
-      <c r="AI12" s="334"/>
+      <c r="B12" s="320"/>
+      <c r="C12" s="321"/>
+      <c r="D12" s="321"/>
+      <c r="E12" s="321"/>
+      <c r="F12" s="322"/>
+      <c r="G12" s="344"/>
+      <c r="H12" s="345"/>
+      <c r="I12" s="346"/>
+      <c r="J12" s="320"/>
+      <c r="K12" s="329"/>
+      <c r="L12" s="329"/>
+      <c r="M12" s="329"/>
+      <c r="N12" s="329"/>
+      <c r="O12" s="329"/>
+      <c r="P12" s="330"/>
+      <c r="Q12" s="323"/>
+      <c r="R12" s="324"/>
+      <c r="S12" s="339"/>
+      <c r="T12" s="340"/>
+      <c r="U12" s="341"/>
+      <c r="V12" s="320"/>
+      <c r="W12" s="321"/>
+      <c r="X12" s="321"/>
+      <c r="Y12" s="321"/>
+      <c r="Z12" s="321"/>
+      <c r="AA12" s="321"/>
+      <c r="AB12" s="331"/>
+      <c r="AC12" s="371"/>
+      <c r="AD12" s="328"/>
+      <c r="AE12" s="329"/>
+      <c r="AF12" s="329"/>
+      <c r="AG12" s="330"/>
+      <c r="AH12" s="318"/>
+      <c r="AI12" s="319"/>
       <c r="AM12" s="110"/>
       <c r="AN12" s="110"/>
       <c r="AO12" s="110"/>
@@ -12490,40 +12499,40 @@
       <c r="A13" s="178">
         <v>5</v>
       </c>
-      <c r="B13" s="350"/>
-      <c r="C13" s="351"/>
-      <c r="D13" s="351"/>
-      <c r="E13" s="351"/>
-      <c r="F13" s="352"/>
-      <c r="G13" s="338"/>
-      <c r="H13" s="339"/>
-      <c r="I13" s="340"/>
-      <c r="J13" s="338"/>
-      <c r="K13" s="339"/>
-      <c r="L13" s="339"/>
-      <c r="M13" s="339"/>
-      <c r="N13" s="339"/>
-      <c r="O13" s="339"/>
-      <c r="P13" s="340"/>
-      <c r="Q13" s="353"/>
-      <c r="R13" s="354"/>
-      <c r="S13" s="338"/>
-      <c r="T13" s="339"/>
-      <c r="U13" s="340"/>
-      <c r="V13" s="338"/>
-      <c r="W13" s="339"/>
-      <c r="X13" s="339"/>
-      <c r="Y13" s="339"/>
-      <c r="Z13" s="339"/>
-      <c r="AA13" s="339"/>
-      <c r="AB13" s="342"/>
-      <c r="AC13" s="348"/>
-      <c r="AD13" s="375"/>
-      <c r="AE13" s="345"/>
-      <c r="AF13" s="345"/>
-      <c r="AG13" s="346"/>
-      <c r="AH13" s="333"/>
-      <c r="AI13" s="334"/>
+      <c r="B13" s="356"/>
+      <c r="C13" s="357"/>
+      <c r="D13" s="357"/>
+      <c r="E13" s="357"/>
+      <c r="F13" s="358"/>
+      <c r="G13" s="320"/>
+      <c r="H13" s="321"/>
+      <c r="I13" s="322"/>
+      <c r="J13" s="320"/>
+      <c r="K13" s="321"/>
+      <c r="L13" s="321"/>
+      <c r="M13" s="321"/>
+      <c r="N13" s="321"/>
+      <c r="O13" s="321"/>
+      <c r="P13" s="322"/>
+      <c r="Q13" s="323"/>
+      <c r="R13" s="324"/>
+      <c r="S13" s="320"/>
+      <c r="T13" s="321"/>
+      <c r="U13" s="322"/>
+      <c r="V13" s="320"/>
+      <c r="W13" s="321"/>
+      <c r="X13" s="321"/>
+      <c r="Y13" s="321"/>
+      <c r="Z13" s="321"/>
+      <c r="AA13" s="321"/>
+      <c r="AB13" s="331"/>
+      <c r="AC13" s="371"/>
+      <c r="AD13" s="328"/>
+      <c r="AE13" s="329"/>
+      <c r="AF13" s="329"/>
+      <c r="AG13" s="330"/>
+      <c r="AH13" s="318"/>
+      <c r="AI13" s="319"/>
       <c r="AM13" s="112"/>
       <c r="AN13" s="112"/>
       <c r="AO13" s="112"/>
@@ -12534,165 +12543,165 @@
       <c r="A14" s="178">
         <v>6</v>
       </c>
-      <c r="B14" s="350"/>
-      <c r="C14" s="351"/>
-      <c r="D14" s="351"/>
-      <c r="E14" s="351"/>
-      <c r="F14" s="352"/>
-      <c r="G14" s="338"/>
-      <c r="H14" s="339"/>
-      <c r="I14" s="340"/>
-      <c r="J14" s="338"/>
-      <c r="K14" s="339"/>
-      <c r="L14" s="339"/>
-      <c r="M14" s="339"/>
-      <c r="N14" s="339"/>
-      <c r="O14" s="339"/>
-      <c r="P14" s="340"/>
-      <c r="Q14" s="353"/>
-      <c r="R14" s="354"/>
-      <c r="S14" s="338"/>
-      <c r="T14" s="339"/>
-      <c r="U14" s="340"/>
-      <c r="V14" s="338"/>
-      <c r="W14" s="339"/>
-      <c r="X14" s="339"/>
-      <c r="Y14" s="339"/>
-      <c r="Z14" s="339"/>
-      <c r="AA14" s="339"/>
-      <c r="AB14" s="342"/>
-      <c r="AC14" s="348"/>
-      <c r="AD14" s="375"/>
-      <c r="AE14" s="345"/>
-      <c r="AF14" s="345"/>
-      <c r="AG14" s="346"/>
-      <c r="AH14" s="333"/>
-      <c r="AI14" s="334"/>
+      <c r="B14" s="356"/>
+      <c r="C14" s="357"/>
+      <c r="D14" s="357"/>
+      <c r="E14" s="357"/>
+      <c r="F14" s="358"/>
+      <c r="G14" s="320"/>
+      <c r="H14" s="321"/>
+      <c r="I14" s="322"/>
+      <c r="J14" s="320"/>
+      <c r="K14" s="321"/>
+      <c r="L14" s="321"/>
+      <c r="M14" s="321"/>
+      <c r="N14" s="321"/>
+      <c r="O14" s="321"/>
+      <c r="P14" s="322"/>
+      <c r="Q14" s="323"/>
+      <c r="R14" s="324"/>
+      <c r="S14" s="320"/>
+      <c r="T14" s="321"/>
+      <c r="U14" s="322"/>
+      <c r="V14" s="320"/>
+      <c r="W14" s="321"/>
+      <c r="X14" s="321"/>
+      <c r="Y14" s="321"/>
+      <c r="Z14" s="321"/>
+      <c r="AA14" s="321"/>
+      <c r="AB14" s="331"/>
+      <c r="AC14" s="371"/>
+      <c r="AD14" s="328"/>
+      <c r="AE14" s="329"/>
+      <c r="AF14" s="329"/>
+      <c r="AG14" s="330"/>
+      <c r="AH14" s="318"/>
+      <c r="AI14" s="319"/>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A15" s="179">
         <v>7</v>
       </c>
-      <c r="B15" s="350"/>
-      <c r="C15" s="351"/>
-      <c r="D15" s="351"/>
-      <c r="E15" s="351"/>
-      <c r="F15" s="352"/>
-      <c r="G15" s="338"/>
-      <c r="H15" s="339"/>
-      <c r="I15" s="340"/>
-      <c r="J15" s="338"/>
-      <c r="K15" s="339"/>
-      <c r="L15" s="339"/>
-      <c r="M15" s="339"/>
-      <c r="N15" s="339"/>
-      <c r="O15" s="339"/>
-      <c r="P15" s="340"/>
-      <c r="Q15" s="353"/>
-      <c r="R15" s="354"/>
-      <c r="S15" s="338"/>
-      <c r="T15" s="339"/>
-      <c r="U15" s="340"/>
-      <c r="V15" s="338"/>
-      <c r="W15" s="339"/>
-      <c r="X15" s="339"/>
-      <c r="Y15" s="339"/>
-      <c r="Z15" s="339"/>
-      <c r="AA15" s="339"/>
-      <c r="AB15" s="342"/>
-      <c r="AC15" s="348"/>
-      <c r="AD15" s="375"/>
-      <c r="AE15" s="345"/>
-      <c r="AF15" s="345"/>
-      <c r="AG15" s="346"/>
-      <c r="AH15" s="333"/>
-      <c r="AI15" s="334"/>
+      <c r="B15" s="356"/>
+      <c r="C15" s="357"/>
+      <c r="D15" s="357"/>
+      <c r="E15" s="357"/>
+      <c r="F15" s="358"/>
+      <c r="G15" s="320"/>
+      <c r="H15" s="321"/>
+      <c r="I15" s="322"/>
+      <c r="J15" s="320"/>
+      <c r="K15" s="321"/>
+      <c r="L15" s="321"/>
+      <c r="M15" s="321"/>
+      <c r="N15" s="321"/>
+      <c r="O15" s="321"/>
+      <c r="P15" s="322"/>
+      <c r="Q15" s="323"/>
+      <c r="R15" s="324"/>
+      <c r="S15" s="320"/>
+      <c r="T15" s="321"/>
+      <c r="U15" s="322"/>
+      <c r="V15" s="320"/>
+      <c r="W15" s="321"/>
+      <c r="X15" s="321"/>
+      <c r="Y15" s="321"/>
+      <c r="Z15" s="321"/>
+      <c r="AA15" s="321"/>
+      <c r="AB15" s="331"/>
+      <c r="AC15" s="371"/>
+      <c r="AD15" s="328"/>
+      <c r="AE15" s="329"/>
+      <c r="AF15" s="329"/>
+      <c r="AG15" s="330"/>
+      <c r="AH15" s="318"/>
+      <c r="AI15" s="319"/>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A16" s="179">
         <v>8</v>
       </c>
-      <c r="B16" s="350"/>
-      <c r="C16" s="351"/>
-      <c r="D16" s="351"/>
-      <c r="E16" s="351"/>
-      <c r="F16" s="352"/>
-      <c r="G16" s="338"/>
-      <c r="H16" s="339"/>
-      <c r="I16" s="340"/>
-      <c r="J16" s="338"/>
-      <c r="K16" s="339"/>
-      <c r="L16" s="339"/>
-      <c r="M16" s="339"/>
-      <c r="N16" s="339"/>
-      <c r="O16" s="339"/>
-      <c r="P16" s="340"/>
-      <c r="Q16" s="353"/>
-      <c r="R16" s="354"/>
-      <c r="S16" s="338"/>
-      <c r="T16" s="339"/>
-      <c r="U16" s="340"/>
-      <c r="V16" s="338"/>
-      <c r="W16" s="339"/>
-      <c r="X16" s="339"/>
-      <c r="Y16" s="339"/>
-      <c r="Z16" s="339"/>
-      <c r="AA16" s="339"/>
-      <c r="AB16" s="342"/>
-      <c r="AC16" s="348"/>
-      <c r="AD16" s="375"/>
-      <c r="AE16" s="345"/>
-      <c r="AF16" s="345"/>
-      <c r="AG16" s="346"/>
-      <c r="AH16" s="333"/>
-      <c r="AI16" s="334"/>
+      <c r="B16" s="356"/>
+      <c r="C16" s="357"/>
+      <c r="D16" s="357"/>
+      <c r="E16" s="357"/>
+      <c r="F16" s="358"/>
+      <c r="G16" s="320"/>
+      <c r="H16" s="321"/>
+      <c r="I16" s="322"/>
+      <c r="J16" s="320"/>
+      <c r="K16" s="321"/>
+      <c r="L16" s="321"/>
+      <c r="M16" s="321"/>
+      <c r="N16" s="321"/>
+      <c r="O16" s="321"/>
+      <c r="P16" s="322"/>
+      <c r="Q16" s="323"/>
+      <c r="R16" s="324"/>
+      <c r="S16" s="320"/>
+      <c r="T16" s="321"/>
+      <c r="U16" s="322"/>
+      <c r="V16" s="320"/>
+      <c r="W16" s="321"/>
+      <c r="X16" s="321"/>
+      <c r="Y16" s="321"/>
+      <c r="Z16" s="321"/>
+      <c r="AA16" s="321"/>
+      <c r="AB16" s="331"/>
+      <c r="AC16" s="371"/>
+      <c r="AD16" s="328"/>
+      <c r="AE16" s="329"/>
+      <c r="AF16" s="329"/>
+      <c r="AG16" s="330"/>
+      <c r="AH16" s="318"/>
+      <c r="AI16" s="319"/>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.15">
       <c r="A17" s="180">
         <v>9</v>
       </c>
-      <c r="B17" s="372"/>
-      <c r="C17" s="373"/>
-      <c r="D17" s="373"/>
-      <c r="E17" s="373"/>
-      <c r="F17" s="374"/>
-      <c r="G17" s="364"/>
-      <c r="H17" s="365"/>
-      <c r="I17" s="369"/>
-      <c r="J17" s="364"/>
-      <c r="K17" s="365"/>
-      <c r="L17" s="365"/>
-      <c r="M17" s="365"/>
-      <c r="N17" s="365"/>
-      <c r="O17" s="365"/>
-      <c r="P17" s="369"/>
-      <c r="Q17" s="370"/>
-      <c r="R17" s="371"/>
-      <c r="S17" s="364"/>
-      <c r="T17" s="365"/>
-      <c r="U17" s="369"/>
-      <c r="V17" s="364"/>
-      <c r="W17" s="365"/>
-      <c r="X17" s="365"/>
-      <c r="Y17" s="365"/>
-      <c r="Z17" s="365"/>
-      <c r="AA17" s="365"/>
-      <c r="AB17" s="366"/>
-      <c r="AC17" s="349"/>
-      <c r="AD17" s="376"/>
-      <c r="AE17" s="377"/>
-      <c r="AF17" s="377"/>
-      <c r="AG17" s="378"/>
-      <c r="AH17" s="379"/>
-      <c r="AI17" s="380"/>
+      <c r="B17" s="359"/>
+      <c r="C17" s="360"/>
+      <c r="D17" s="360"/>
+      <c r="E17" s="360"/>
+      <c r="F17" s="361"/>
+      <c r="G17" s="348"/>
+      <c r="H17" s="349"/>
+      <c r="I17" s="353"/>
+      <c r="J17" s="348"/>
+      <c r="K17" s="349"/>
+      <c r="L17" s="349"/>
+      <c r="M17" s="349"/>
+      <c r="N17" s="349"/>
+      <c r="O17" s="349"/>
+      <c r="P17" s="353"/>
+      <c r="Q17" s="354"/>
+      <c r="R17" s="355"/>
+      <c r="S17" s="348"/>
+      <c r="T17" s="349"/>
+      <c r="U17" s="353"/>
+      <c r="V17" s="348"/>
+      <c r="W17" s="349"/>
+      <c r="X17" s="349"/>
+      <c r="Y17" s="349"/>
+      <c r="Z17" s="349"/>
+      <c r="AA17" s="349"/>
+      <c r="AB17" s="350"/>
+      <c r="AC17" s="372"/>
+      <c r="AD17" s="362"/>
+      <c r="AE17" s="363"/>
+      <c r="AF17" s="363"/>
+      <c r="AG17" s="364"/>
+      <c r="AH17" s="365"/>
+      <c r="AI17" s="366"/>
     </row>
     <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="367"/>
-      <c r="B18" s="368"/>
-      <c r="C18" s="368"/>
-      <c r="D18" s="368"/>
-      <c r="E18" s="368"/>
-      <c r="F18" s="368"/>
+      <c r="A18" s="351"/>
+      <c r="B18" s="352"/>
+      <c r="C18" s="352"/>
+      <c r="D18" s="352"/>
+      <c r="E18" s="352"/>
+      <c r="F18" s="352"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
@@ -12716,23 +12725,23 @@
       <c r="AA18" s="37"/>
       <c r="AB18" s="37"/>
       <c r="AC18" s="39"/>
-      <c r="AD18" s="363"/>
-      <c r="AE18" s="363"/>
-      <c r="AF18" s="363"/>
-      <c r="AG18" s="363"/>
-      <c r="AH18" s="363"/>
+      <c r="AD18" s="347"/>
+      <c r="AE18" s="347"/>
+      <c r="AF18" s="347"/>
+      <c r="AG18" s="347"/>
+      <c r="AH18" s="347"/>
       <c r="AI18" s="76"/>
       <c r="AJ18" s="33"/>
     </row>
     <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="361" t="s">
+      <c r="A19" s="342" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="362"/>
-      <c r="C19" s="362"/>
-      <c r="D19" s="362"/>
-      <c r="E19" s="362"/>
-      <c r="F19" s="362"/>
+      <c r="B19" s="343"/>
+      <c r="C19" s="343"/>
+      <c r="D19" s="343"/>
+      <c r="E19" s="343"/>
+      <c r="F19" s="343"/>
       <c r="G19" s="91"/>
       <c r="H19" s="134"/>
       <c r="I19" s="134"/>
@@ -12775,7 +12784,7 @@
       <c r="A20" s="38"/>
       <c r="B20" s="116"/>
       <c r="C20" s="203" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D20" s="139"/>
       <c r="E20" s="139"/>
@@ -12862,7 +12871,7 @@
       <c r="C22" s="138"/>
       <c r="D22" s="132"/>
       <c r="E22" s="204" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F22" s="200"/>
       <c r="G22" s="200"/>
@@ -12899,7 +12908,7 @@
       <c r="C23" s="138"/>
       <c r="D23" s="132"/>
       <c r="E23" s="204" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F23" s="200"/>
       <c r="G23" s="200"/>
@@ -12936,7 +12945,7 @@
       <c r="C24" s="132"/>
       <c r="D24" s="132"/>
       <c r="E24" s="204" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F24" s="200"/>
       <c r="G24" s="200"/>
@@ -13247,6 +13256,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="A7:AB7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="AC7:AI7"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="AC9:AC17"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="AD18:AH18"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="V17:AB17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="AD16:AG16"/>
+    <mergeCell ref="AD17:AG17"/>
+    <mergeCell ref="AH17:AI17"/>
     <mergeCell ref="AH13:AI13"/>
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="G15:I15"/>
@@ -13271,85 +13359,6 @@
     <mergeCell ref="S9:U9"/>
     <mergeCell ref="S10:U10"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="AD18:AH18"/>
-    <mergeCell ref="V15:AB15"/>
-    <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="V17:AB17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AD16:AG16"/>
-    <mergeCell ref="AD17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="V10:AB10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="V11:AB11"/>
-    <mergeCell ref="AC9:AC17"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A7:AB7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="AC7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="2">
@@ -13392,163 +13401,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="272" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="270"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="273"/>
       <c r="E1" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="272" t="s">
+      <c r="F1" s="231"/>
+      <c r="G1" s="231"/>
+      <c r="H1" s="231"/>
+      <c r="I1" s="231"/>
+      <c r="J1" s="231"/>
+      <c r="K1" s="231"/>
+      <c r="L1" s="231"/>
+      <c r="M1" s="231"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="275" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="274"/>
-      <c r="S1" s="281" t="str">
+      <c r="P1" s="276"/>
+      <c r="Q1" s="276"/>
+      <c r="R1" s="277"/>
+      <c r="S1" s="284" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>外部インタフェース設計書(I/Fファイル)
 N21AA002/期間内プロジェクト一覧</v>
       </c>
-      <c r="T1" s="251"/>
-      <c r="U1" s="251"/>
-      <c r="V1" s="251"/>
-      <c r="W1" s="251"/>
-      <c r="X1" s="251"/>
-      <c r="Y1" s="251"/>
-      <c r="Z1" s="252"/>
-      <c r="AA1" s="268" t="s">
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="255"/>
+      <c r="AA1" s="272" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="270"/>
-      <c r="AC1" s="233" t="str">
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="222"/>
-      <c r="AE1" s="222"/>
-      <c r="AF1" s="223"/>
-      <c r="AG1" s="409">
+      <c r="AD1" s="225"/>
+      <c r="AE1" s="225"/>
+      <c r="AF1" s="226"/>
+      <c r="AG1" s="391">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43580</v>
       </c>
-      <c r="AH1" s="410"/>
-      <c r="AI1" s="411"/>
+      <c r="AH1" s="392"/>
+      <c r="AI1" s="393"/>
     </row>
     <row r="2" spans="1:121" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="268" t="s">
+      <c r="A2" s="272" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="269"/>
-      <c r="C2" s="269"/>
-      <c r="D2" s="270"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="273"/>
       <c r="E2" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="H2" s="228"/>
-      <c r="I2" s="228"/>
-      <c r="J2" s="228"/>
-      <c r="K2" s="228"/>
-      <c r="L2" s="228"/>
-      <c r="M2" s="228"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
-      <c r="R2" s="277"/>
-      <c r="S2" s="253"/>
-      <c r="T2" s="254"/>
-      <c r="U2" s="254"/>
-      <c r="V2" s="254"/>
-      <c r="W2" s="254"/>
-      <c r="X2" s="254"/>
-      <c r="Y2" s="254"/>
-      <c r="Z2" s="255"/>
-      <c r="AA2" s="268" t="s">
+      <c r="F2" s="231"/>
+      <c r="G2" s="231"/>
+      <c r="H2" s="231"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="231"/>
+      <c r="L2" s="231"/>
+      <c r="M2" s="231"/>
+      <c r="N2" s="232"/>
+      <c r="O2" s="278"/>
+      <c r="P2" s="279"/>
+      <c r="Q2" s="279"/>
+      <c r="R2" s="280"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
+      <c r="Y2" s="257"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="272" t="s">
         <v>66</v>
       </c>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="233" t="str">
+      <c r="AB2" s="273"/>
+      <c r="AC2" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="222"/>
-      <c r="AE2" s="222"/>
-      <c r="AF2" s="223"/>
-      <c r="AG2" s="409" t="str">
+      <c r="AD2" s="225"/>
+      <c r="AE2" s="225"/>
+      <c r="AF2" s="226"/>
+      <c r="AG2" s="391" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="410"/>
-      <c r="AI2" s="411"/>
+      <c r="AH2" s="392"/>
+      <c r="AI2" s="393"/>
     </row>
     <row r="3" spans="1:121" s="66" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="268" t="s">
+      <c r="A3" s="272" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="273"/>
       <c r="E3" s="271" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="228"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="279"/>
-      <c r="R3" s="280"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="257"/>
-      <c r="U3" s="257"/>
-      <c r="V3" s="257"/>
-      <c r="W3" s="257"/>
-      <c r="X3" s="257"/>
-      <c r="Y3" s="257"/>
-      <c r="Z3" s="258"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="233" t="str">
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+      <c r="H3" s="231"/>
+      <c r="I3" s="231"/>
+      <c r="J3" s="231"/>
+      <c r="K3" s="231"/>
+      <c r="L3" s="231"/>
+      <c r="M3" s="231"/>
+      <c r="N3" s="232"/>
+      <c r="O3" s="281"/>
+      <c r="P3" s="282"/>
+      <c r="Q3" s="282"/>
+      <c r="R3" s="283"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="272"/>
+      <c r="AB3" s="273"/>
+      <c r="AC3" s="236" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="222"/>
-      <c r="AE3" s="222"/>
-      <c r="AF3" s="223"/>
-      <c r="AG3" s="409" t="str">
+      <c r="AD3" s="225"/>
+      <c r="AE3" s="225"/>
+      <c r="AF3" s="226"/>
+      <c r="AG3" s="391" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="410"/>
-      <c r="AI3" s="411"/>
+      <c r="AH3" s="392"/>
+      <c r="AI3" s="393"/>
     </row>
     <row r="4" spans="1:121" ht="11.25" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:121" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A5" s="92" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="90"/>
       <c r="C5" s="90"/>
@@ -13564,69 +13573,69 @@
       <c r="A7" s="194" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="401" t="s">
+      <c r="B7" s="388" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="402"/>
-      <c r="D7" s="402"/>
-      <c r="E7" s="402"/>
-      <c r="F7" s="403"/>
-      <c r="G7" s="401" t="s">
+      <c r="C7" s="389"/>
+      <c r="D7" s="389"/>
+      <c r="E7" s="389"/>
+      <c r="F7" s="390"/>
+      <c r="G7" s="388" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="402"/>
-      <c r="I7" s="402"/>
-      <c r="J7" s="402"/>
-      <c r="K7" s="403"/>
-      <c r="L7" s="401" t="s">
+      <c r="H7" s="389"/>
+      <c r="I7" s="389"/>
+      <c r="J7" s="389"/>
+      <c r="K7" s="390"/>
+      <c r="L7" s="388" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="402"/>
-      <c r="N7" s="402"/>
-      <c r="O7" s="402"/>
-      <c r="P7" s="403"/>
+      <c r="M7" s="389"/>
+      <c r="N7" s="389"/>
+      <c r="O7" s="389"/>
+      <c r="P7" s="390"/>
       <c r="Q7" s="195" t="s">
         <v>64</v>
       </c>
-      <c r="R7" s="404" t="s">
+      <c r="R7" s="405" t="s">
         <v>70</v>
       </c>
-      <c r="S7" s="404"/>
-      <c r="T7" s="404"/>
-      <c r="U7" s="404"/>
-      <c r="V7" s="412" t="s">
-        <v>108</v>
-      </c>
-      <c r="W7" s="412"/>
-      <c r="X7" s="413" t="s">
+      <c r="S7" s="405"/>
+      <c r="T7" s="405"/>
+      <c r="U7" s="405"/>
+      <c r="V7" s="394" t="s">
+        <v>107</v>
+      </c>
+      <c r="W7" s="394"/>
+      <c r="X7" s="395" t="s">
         <v>63</v>
       </c>
-      <c r="Y7" s="414"/>
-      <c r="Z7" s="401" t="s">
+      <c r="Y7" s="396"/>
+      <c r="Z7" s="388" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" s="403"/>
-      <c r="AB7" s="401" t="s">
+      <c r="AA7" s="390"/>
+      <c r="AB7" s="388" t="s">
         <v>83</v>
       </c>
-      <c r="AC7" s="403"/>
-      <c r="AD7" s="401" t="s">
+      <c r="AC7" s="390"/>
+      <c r="AD7" s="388" t="s">
         <v>84</v>
       </c>
-      <c r="AE7" s="403"/>
-      <c r="AF7" s="401" t="s">
+      <c r="AE7" s="390"/>
+      <c r="AF7" s="388" t="s">
         <v>62</v>
       </c>
-      <c r="AG7" s="402"/>
-      <c r="AH7" s="403"/>
-      <c r="AI7" s="401" t="s">
+      <c r="AG7" s="389"/>
+      <c r="AH7" s="390"/>
+      <c r="AI7" s="388" t="s">
         <v>61</v>
       </c>
-      <c r="AJ7" s="402"/>
-      <c r="AK7" s="402"/>
-      <c r="AL7" s="402"/>
-      <c r="AM7" s="402"/>
-      <c r="AN7" s="403"/>
+      <c r="AJ7" s="389"/>
+      <c r="AK7" s="389"/>
+      <c r="AL7" s="389"/>
+      <c r="AM7" s="389"/>
+      <c r="AN7" s="390"/>
       <c r="BN7" s="197"/>
       <c r="BO7" s="197"/>
       <c r="BP7" s="197"/>
@@ -13688,22 +13697,22 @@
       <c r="A8" s="149">
         <v>1</v>
       </c>
-      <c r="B8" s="391" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="207"/>
-      <c r="D8" s="207"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="208"/>
+      <c r="B8" s="402" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="264"/>
       <c r="G8" s="212" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H8" s="213"/>
       <c r="I8" s="213"/>
       <c r="J8" s="213"/>
       <c r="K8" s="214"/>
-      <c r="L8" s="388" t="s">
-        <v>160</v>
+      <c r="L8" s="399" t="s">
+        <v>155</v>
       </c>
       <c r="M8" s="213"/>
       <c r="N8" s="213"/>
@@ -13712,45 +13721,45 @@
       <c r="Q8" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R8" s="388" t="s">
+      <c r="R8" s="399" t="s">
         <v>91</v>
       </c>
-      <c r="S8" s="389"/>
-      <c r="T8" s="389"/>
-      <c r="U8" s="390"/>
-      <c r="V8" s="394">
+      <c r="S8" s="401"/>
+      <c r="T8" s="401"/>
+      <c r="U8" s="400"/>
+      <c r="V8" s="413">
         <v>10</v>
       </c>
-      <c r="W8" s="395"/>
-      <c r="X8" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y8" s="397"/>
-      <c r="Z8" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA8" s="390"/>
-      <c r="AB8" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC8" s="390"/>
-      <c r="AD8" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE8" s="397"/>
-      <c r="AF8" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG8" s="389"/>
-      <c r="AH8" s="390"/>
-      <c r="AI8" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ8" s="392"/>
-      <c r="AK8" s="392"/>
-      <c r="AL8" s="392"/>
-      <c r="AM8" s="392"/>
-      <c r="AN8" s="393"/>
+      <c r="W8" s="414"/>
+      <c r="X8" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y8" s="398"/>
+      <c r="Z8" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA8" s="400"/>
+      <c r="AB8" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC8" s="400"/>
+      <c r="AD8" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE8" s="398"/>
+      <c r="AF8" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG8" s="401"/>
+      <c r="AH8" s="400"/>
+      <c r="AI8" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ8" s="403"/>
+      <c r="AK8" s="403"/>
+      <c r="AL8" s="403"/>
+      <c r="AM8" s="403"/>
+      <c r="AN8" s="404"/>
       <c r="AS8" s="120"/>
       <c r="AT8" s="120"/>
       <c r="AU8" s="140"/>
@@ -13816,22 +13825,22 @@
       <c r="A9" s="149">
         <v>2</v>
       </c>
-      <c r="B9" s="206" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="208"/>
+      <c r="B9" s="262" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="264"/>
       <c r="G9" s="212" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H9" s="213"/>
       <c r="I9" s="213"/>
       <c r="J9" s="213"/>
       <c r="K9" s="214"/>
-      <c r="L9" s="388" t="s">
-        <v>161</v>
+      <c r="L9" s="399" t="s">
+        <v>156</v>
       </c>
       <c r="M9" s="213"/>
       <c r="N9" s="213"/>
@@ -13840,46 +13849,46 @@
       <c r="Q9" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R9" s="388" t="s">
+      <c r="R9" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="S9" s="389"/>
-      <c r="T9" s="389"/>
-      <c r="U9" s="390"/>
-      <c r="V9" s="394">
+      <c r="S9" s="401"/>
+      <c r="T9" s="401"/>
+      <c r="U9" s="400"/>
+      <c r="V9" s="413">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W9" s="395"/>
-      <c r="X9" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y9" s="397"/>
-      <c r="Z9" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA9" s="390"/>
-      <c r="AB9" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC9" s="390"/>
-      <c r="AD9" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE9" s="397"/>
-      <c r="AF9" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG9" s="389"/>
-      <c r="AH9" s="390"/>
-      <c r="AI9" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ9" s="392"/>
-      <c r="AK9" s="392"/>
-      <c r="AL9" s="392"/>
-      <c r="AM9" s="392"/>
-      <c r="AN9" s="393"/>
+      <c r="W9" s="414"/>
+      <c r="X9" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y9" s="398"/>
+      <c r="Z9" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA9" s="400"/>
+      <c r="AB9" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC9" s="400"/>
+      <c r="AD9" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE9" s="398"/>
+      <c r="AF9" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG9" s="401"/>
+      <c r="AH9" s="400"/>
+      <c r="AI9" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ9" s="403"/>
+      <c r="AK9" s="403"/>
+      <c r="AL9" s="403"/>
+      <c r="AM9" s="403"/>
+      <c r="AN9" s="404"/>
       <c r="AS9" s="120"/>
       <c r="AT9" s="120"/>
       <c r="AU9" s="140"/>
@@ -13945,22 +13954,22 @@
       <c r="A10" s="149">
         <v>3</v>
       </c>
-      <c r="B10" s="206" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="208"/>
+      <c r="B10" s="262" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="263"/>
+      <c r="D10" s="263"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="264"/>
       <c r="G10" s="212" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H10" s="213"/>
       <c r="I10" s="213"/>
       <c r="J10" s="213"/>
       <c r="K10" s="214"/>
       <c r="L10" s="212" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="M10" s="213"/>
       <c r="N10" s="213"/>
@@ -13969,46 +13978,46 @@
       <c r="Q10" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R10" s="388" t="s">
+      <c r="R10" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="S10" s="389"/>
-      <c r="T10" s="389"/>
-      <c r="U10" s="390"/>
-      <c r="V10" s="394">
+      <c r="S10" s="401"/>
+      <c r="T10" s="401"/>
+      <c r="U10" s="400"/>
+      <c r="V10" s="413">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W10" s="395"/>
-      <c r="X10" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y10" s="397"/>
-      <c r="Z10" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA10" s="390"/>
-      <c r="AB10" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC10" s="390"/>
-      <c r="AD10" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE10" s="397"/>
-      <c r="AF10" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG10" s="389"/>
-      <c r="AH10" s="390"/>
-      <c r="AI10" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ10" s="392"/>
-      <c r="AK10" s="392"/>
-      <c r="AL10" s="392"/>
-      <c r="AM10" s="392"/>
-      <c r="AN10" s="393"/>
+      <c r="W10" s="414"/>
+      <c r="X10" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y10" s="398"/>
+      <c r="Z10" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA10" s="400"/>
+      <c r="AB10" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC10" s="400"/>
+      <c r="AD10" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE10" s="398"/>
+      <c r="AF10" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG10" s="401"/>
+      <c r="AH10" s="400"/>
+      <c r="AI10" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ10" s="403"/>
+      <c r="AK10" s="403"/>
+      <c r="AL10" s="403"/>
+      <c r="AM10" s="403"/>
+      <c r="AN10" s="404"/>
       <c r="AS10" s="120"/>
       <c r="AT10" s="120"/>
       <c r="AU10" s="140"/>
@@ -14074,22 +14083,22 @@
       <c r="A11" s="149">
         <v>4</v>
       </c>
-      <c r="B11" s="206" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="208"/>
+      <c r="B11" s="262" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="263"/>
+      <c r="D11" s="263"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="264"/>
       <c r="G11" s="212" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H11" s="213"/>
       <c r="I11" s="213"/>
       <c r="J11" s="213"/>
       <c r="K11" s="214"/>
       <c r="L11" s="212" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="M11" s="213"/>
       <c r="N11" s="213"/>
@@ -14098,46 +14107,46 @@
       <c r="Q11" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R11" s="388" t="s">
+      <c r="R11" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="S11" s="389"/>
-      <c r="T11" s="389"/>
-      <c r="U11" s="390"/>
-      <c r="V11" s="394">
+      <c r="S11" s="401"/>
+      <c r="T11" s="401"/>
+      <c r="U11" s="400"/>
+      <c r="V11" s="413">
         <f>128*3</f>
         <v>384</v>
       </c>
-      <c r="W11" s="395"/>
-      <c r="X11" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y11" s="397"/>
-      <c r="Z11" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA11" s="390"/>
-      <c r="AB11" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC11" s="390"/>
-      <c r="AD11" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE11" s="397"/>
-      <c r="AF11" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG11" s="389"/>
-      <c r="AH11" s="390"/>
-      <c r="AI11" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ11" s="392"/>
-      <c r="AK11" s="392"/>
-      <c r="AL11" s="392"/>
-      <c r="AM11" s="392"/>
-      <c r="AN11" s="393"/>
+      <c r="W11" s="414"/>
+      <c r="X11" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" s="398"/>
+      <c r="Z11" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA11" s="400"/>
+      <c r="AB11" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC11" s="400"/>
+      <c r="AD11" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE11" s="398"/>
+      <c r="AF11" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG11" s="401"/>
+      <c r="AH11" s="400"/>
+      <c r="AI11" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ11" s="403"/>
+      <c r="AK11" s="403"/>
+      <c r="AL11" s="403"/>
+      <c r="AM11" s="403"/>
+      <c r="AN11" s="404"/>
       <c r="AS11" s="120"/>
       <c r="AT11" s="120"/>
       <c r="AU11" s="140"/>
@@ -14203,22 +14212,22 @@
       <c r="A12" s="149">
         <v>5</v>
       </c>
-      <c r="B12" s="206" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="208"/>
+      <c r="B12" s="262" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="263"/>
+      <c r="D12" s="263"/>
+      <c r="E12" s="263"/>
+      <c r="F12" s="264"/>
       <c r="G12" s="212" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H12" s="213"/>
       <c r="I12" s="213"/>
       <c r="J12" s="213"/>
       <c r="K12" s="214"/>
       <c r="L12" s="212" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M12" s="213"/>
       <c r="N12" s="213"/>
@@ -14227,45 +14236,45 @@
       <c r="Q12" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R12" s="388" t="s">
+      <c r="R12" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="S12" s="389"/>
-      <c r="T12" s="389"/>
-      <c r="U12" s="390"/>
-      <c r="V12" s="394">
+      <c r="S12" s="401"/>
+      <c r="T12" s="401"/>
+      <c r="U12" s="400"/>
+      <c r="V12" s="413">
         <v>10</v>
       </c>
-      <c r="W12" s="395"/>
-      <c r="X12" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y12" s="397"/>
-      <c r="Z12" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA12" s="390"/>
-      <c r="AB12" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC12" s="390"/>
-      <c r="AD12" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE12" s="397"/>
-      <c r="AF12" s="388" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG12" s="389"/>
-      <c r="AH12" s="390"/>
-      <c r="AI12" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ12" s="392"/>
-      <c r="AK12" s="392"/>
-      <c r="AL12" s="392"/>
-      <c r="AM12" s="392"/>
-      <c r="AN12" s="393"/>
+      <c r="W12" s="414"/>
+      <c r="X12" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" s="398"/>
+      <c r="Z12" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA12" s="400"/>
+      <c r="AB12" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC12" s="400"/>
+      <c r="AD12" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE12" s="398"/>
+      <c r="AF12" s="399" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG12" s="401"/>
+      <c r="AH12" s="400"/>
+      <c r="AI12" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ12" s="403"/>
+      <c r="AK12" s="403"/>
+      <c r="AL12" s="403"/>
+      <c r="AM12" s="403"/>
+      <c r="AN12" s="404"/>
       <c r="AS12" s="120"/>
       <c r="AT12" s="120"/>
       <c r="AU12" s="140"/>
@@ -14331,22 +14340,22 @@
       <c r="A13" s="149">
         <v>6</v>
       </c>
-      <c r="B13" s="206" t="s">
-        <v>150</v>
-      </c>
-      <c r="C13" s="207"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="208"/>
+      <c r="B13" s="262" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="263"/>
+      <c r="D13" s="263"/>
+      <c r="E13" s="263"/>
+      <c r="F13" s="264"/>
       <c r="G13" s="212" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H13" s="213"/>
       <c r="I13" s="213"/>
       <c r="J13" s="213"/>
       <c r="K13" s="214"/>
       <c r="L13" s="212" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M13" s="213"/>
       <c r="N13" s="213"/>
@@ -14355,45 +14364,45 @@
       <c r="Q13" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R13" s="388" t="s">
+      <c r="R13" s="399" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="389"/>
-      <c r="T13" s="389"/>
-      <c r="U13" s="390"/>
-      <c r="V13" s="394">
+      <c r="S13" s="401"/>
+      <c r="T13" s="401"/>
+      <c r="U13" s="400"/>
+      <c r="V13" s="413">
         <v>10</v>
       </c>
-      <c r="W13" s="395"/>
-      <c r="X13" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y13" s="397"/>
-      <c r="Z13" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA13" s="390"/>
-      <c r="AB13" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC13" s="390"/>
-      <c r="AD13" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE13" s="397"/>
-      <c r="AF13" s="388" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG13" s="389"/>
-      <c r="AH13" s="390"/>
-      <c r="AI13" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ13" s="392"/>
-      <c r="AK13" s="392"/>
-      <c r="AL13" s="392"/>
-      <c r="AM13" s="392"/>
-      <c r="AN13" s="393"/>
+      <c r="W13" s="414"/>
+      <c r="X13" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y13" s="398"/>
+      <c r="Z13" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA13" s="400"/>
+      <c r="AB13" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC13" s="400"/>
+      <c r="AD13" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE13" s="398"/>
+      <c r="AF13" s="399" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG13" s="401"/>
+      <c r="AH13" s="400"/>
+      <c r="AI13" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ13" s="403"/>
+      <c r="AK13" s="403"/>
+      <c r="AL13" s="403"/>
+      <c r="AM13" s="403"/>
+      <c r="AN13" s="404"/>
       <c r="AS13" s="120"/>
       <c r="AT13" s="120"/>
       <c r="AU13" s="140"/>
@@ -14459,22 +14468,22 @@
       <c r="A14" s="149">
         <v>7</v>
       </c>
-      <c r="B14" s="391" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="207"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="388" t="s">
-        <v>152</v>
+      <c r="B14" s="402" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="263"/>
+      <c r="D14" s="263"/>
+      <c r="E14" s="263"/>
+      <c r="F14" s="264"/>
+      <c r="G14" s="399" t="s">
+        <v>147</v>
       </c>
       <c r="H14" s="213"/>
       <c r="I14" s="213"/>
       <c r="J14" s="213"/>
       <c r="K14" s="214"/>
-      <c r="L14" s="388" t="s">
-        <v>160</v>
+      <c r="L14" s="399" t="s">
+        <v>155</v>
       </c>
       <c r="M14" s="213"/>
       <c r="N14" s="213"/>
@@ -14483,45 +14492,45 @@
       <c r="Q14" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R14" s="388" t="s">
+      <c r="R14" s="399" t="s">
         <v>91</v>
       </c>
-      <c r="S14" s="389"/>
-      <c r="T14" s="389"/>
-      <c r="U14" s="390"/>
-      <c r="V14" s="394">
+      <c r="S14" s="401"/>
+      <c r="T14" s="401"/>
+      <c r="U14" s="400"/>
+      <c r="V14" s="413">
         <v>11</v>
       </c>
-      <c r="W14" s="395"/>
-      <c r="X14" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y14" s="397"/>
-      <c r="Z14" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA14" s="390"/>
-      <c r="AB14" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC14" s="390"/>
-      <c r="AD14" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE14" s="397"/>
-      <c r="AF14" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG14" s="389"/>
-      <c r="AH14" s="390"/>
-      <c r="AI14" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ14" s="392"/>
-      <c r="AK14" s="392"/>
-      <c r="AL14" s="392"/>
-      <c r="AM14" s="392"/>
-      <c r="AN14" s="393"/>
+      <c r="W14" s="414"/>
+      <c r="X14" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y14" s="398"/>
+      <c r="Z14" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA14" s="400"/>
+      <c r="AB14" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC14" s="400"/>
+      <c r="AD14" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE14" s="398"/>
+      <c r="AF14" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG14" s="401"/>
+      <c r="AH14" s="400"/>
+      <c r="AI14" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ14" s="403"/>
+      <c r="AK14" s="403"/>
+      <c r="AL14" s="403"/>
+      <c r="AM14" s="403"/>
+      <c r="AN14" s="404"/>
       <c r="AS14" s="120"/>
       <c r="AT14" s="120"/>
       <c r="AU14" s="140"/>
@@ -14587,22 +14596,22 @@
       <c r="A15" s="149">
         <v>8</v>
       </c>
-      <c r="B15" s="206" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="207"/>
-      <c r="D15" s="207"/>
-      <c r="E15" s="207"/>
-      <c r="F15" s="208"/>
+      <c r="B15" s="262" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="263"/>
+      <c r="D15" s="263"/>
+      <c r="E15" s="263"/>
+      <c r="F15" s="264"/>
       <c r="G15" s="212" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H15" s="213"/>
       <c r="I15" s="213"/>
       <c r="J15" s="213"/>
       <c r="K15" s="214"/>
-      <c r="L15" s="388" t="s">
-        <v>160</v>
+      <c r="L15" s="399" t="s">
+        <v>155</v>
       </c>
       <c r="M15" s="213"/>
       <c r="N15" s="213"/>
@@ -14611,45 +14620,45 @@
       <c r="Q15" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R15" s="388" t="s">
+      <c r="R15" s="399" t="s">
         <v>91</v>
       </c>
-      <c r="S15" s="389"/>
-      <c r="T15" s="389"/>
-      <c r="U15" s="390"/>
-      <c r="V15" s="394">
+      <c r="S15" s="401"/>
+      <c r="T15" s="401"/>
+      <c r="U15" s="400"/>
+      <c r="V15" s="413">
         <v>11</v>
       </c>
-      <c r="W15" s="395"/>
-      <c r="X15" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y15" s="397"/>
-      <c r="Z15" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA15" s="390"/>
-      <c r="AB15" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC15" s="390"/>
-      <c r="AD15" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE15" s="397"/>
-      <c r="AF15" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG15" s="389"/>
-      <c r="AH15" s="390"/>
-      <c r="AI15" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ15" s="392"/>
-      <c r="AK15" s="392"/>
-      <c r="AL15" s="392"/>
-      <c r="AM15" s="392"/>
-      <c r="AN15" s="393"/>
+      <c r="W15" s="414"/>
+      <c r="X15" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y15" s="398"/>
+      <c r="Z15" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA15" s="400"/>
+      <c r="AB15" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC15" s="400"/>
+      <c r="AD15" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE15" s="398"/>
+      <c r="AF15" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG15" s="401"/>
+      <c r="AH15" s="400"/>
+      <c r="AI15" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ15" s="403"/>
+      <c r="AK15" s="403"/>
+      <c r="AL15" s="403"/>
+      <c r="AM15" s="403"/>
+      <c r="AN15" s="404"/>
       <c r="AS15" s="120"/>
       <c r="AT15" s="120"/>
       <c r="AU15" s="140"/>
@@ -14715,22 +14724,22 @@
       <c r="A16" s="149">
         <v>9</v>
       </c>
-      <c r="B16" s="206" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="207"/>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
-      <c r="F16" s="208"/>
+      <c r="B16" s="262" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="263"/>
+      <c r="D16" s="263"/>
+      <c r="E16" s="263"/>
+      <c r="F16" s="264"/>
       <c r="G16" s="212" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H16" s="213"/>
       <c r="I16" s="213"/>
       <c r="J16" s="213"/>
       <c r="K16" s="214"/>
       <c r="L16" s="212" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M16" s="213"/>
       <c r="N16" s="213"/>
@@ -14739,46 +14748,46 @@
       <c r="Q16" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R16" s="388" t="s">
+      <c r="R16" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="S16" s="389"/>
-      <c r="T16" s="389"/>
-      <c r="U16" s="390"/>
-      <c r="V16" s="394">
+      <c r="S16" s="401"/>
+      <c r="T16" s="401"/>
+      <c r="U16" s="400"/>
+      <c r="V16" s="413">
         <f t="shared" ref="V16:V17" si="0">128*3</f>
         <v>384</v>
       </c>
-      <c r="W16" s="395"/>
-      <c r="X16" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y16" s="397"/>
-      <c r="Z16" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA16" s="390"/>
-      <c r="AB16" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC16" s="390"/>
-      <c r="AD16" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE16" s="397"/>
-      <c r="AF16" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG16" s="389"/>
-      <c r="AH16" s="390"/>
-      <c r="AI16" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ16" s="392"/>
-      <c r="AK16" s="392"/>
-      <c r="AL16" s="392"/>
-      <c r="AM16" s="392"/>
-      <c r="AN16" s="393"/>
+      <c r="W16" s="414"/>
+      <c r="X16" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y16" s="398"/>
+      <c r="Z16" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA16" s="400"/>
+      <c r="AB16" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC16" s="400"/>
+      <c r="AD16" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE16" s="398"/>
+      <c r="AF16" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG16" s="401"/>
+      <c r="AH16" s="400"/>
+      <c r="AI16" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ16" s="403"/>
+      <c r="AK16" s="403"/>
+      <c r="AL16" s="403"/>
+      <c r="AM16" s="403"/>
+      <c r="AN16" s="404"/>
       <c r="AS16" s="120"/>
       <c r="AT16" s="120"/>
       <c r="AU16" s="140"/>
@@ -14844,22 +14853,22 @@
       <c r="A17" s="149">
         <v>10</v>
       </c>
-      <c r="B17" s="206" t="s">
-        <v>133</v>
-      </c>
-      <c r="C17" s="207"/>
-      <c r="D17" s="207"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="208"/>
+      <c r="B17" s="262" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="263"/>
+      <c r="D17" s="263"/>
+      <c r="E17" s="263"/>
+      <c r="F17" s="264"/>
       <c r="G17" s="212" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H17" s="213"/>
       <c r="I17" s="213"/>
       <c r="J17" s="213"/>
       <c r="K17" s="214"/>
       <c r="L17" s="212" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="M17" s="213"/>
       <c r="N17" s="213"/>
@@ -14868,46 +14877,46 @@
       <c r="Q17" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R17" s="388" t="s">
+      <c r="R17" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="S17" s="389"/>
-      <c r="T17" s="389"/>
-      <c r="U17" s="390"/>
-      <c r="V17" s="394">
+      <c r="S17" s="401"/>
+      <c r="T17" s="401"/>
+      <c r="U17" s="400"/>
+      <c r="V17" s="413">
         <f t="shared" si="0"/>
         <v>384</v>
       </c>
-      <c r="W17" s="395"/>
-      <c r="X17" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y17" s="397"/>
-      <c r="Z17" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA17" s="390"/>
-      <c r="AB17" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC17" s="390"/>
-      <c r="AD17" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE17" s="397"/>
-      <c r="AF17" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG17" s="389"/>
-      <c r="AH17" s="390"/>
-      <c r="AI17" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ17" s="392"/>
-      <c r="AK17" s="392"/>
-      <c r="AL17" s="392"/>
-      <c r="AM17" s="392"/>
-      <c r="AN17" s="393"/>
+      <c r="W17" s="414"/>
+      <c r="X17" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y17" s="398"/>
+      <c r="Z17" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA17" s="400"/>
+      <c r="AB17" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC17" s="400"/>
+      <c r="AD17" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE17" s="398"/>
+      <c r="AF17" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG17" s="401"/>
+      <c r="AH17" s="400"/>
+      <c r="AI17" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ17" s="403"/>
+      <c r="AK17" s="403"/>
+      <c r="AL17" s="403"/>
+      <c r="AM17" s="403"/>
+      <c r="AN17" s="404"/>
       <c r="AS17" s="120"/>
       <c r="AT17" s="120"/>
       <c r="AU17" s="140"/>
@@ -14973,22 +14982,22 @@
       <c r="A18" s="149">
         <v>11</v>
       </c>
-      <c r="B18" s="206" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" s="207"/>
-      <c r="D18" s="207"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="208"/>
+      <c r="B18" s="262" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="263"/>
+      <c r="D18" s="263"/>
+      <c r="E18" s="263"/>
+      <c r="F18" s="264"/>
       <c r="G18" s="212" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H18" s="213"/>
       <c r="I18" s="213"/>
       <c r="J18" s="213"/>
       <c r="K18" s="214"/>
       <c r="L18" s="212" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M18" s="213"/>
       <c r="N18" s="213"/>
@@ -14997,46 +15006,46 @@
       <c r="Q18" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R18" s="388" t="s">
+      <c r="R18" s="399" t="s">
         <v>57</v>
       </c>
-      <c r="S18" s="389"/>
-      <c r="T18" s="389"/>
-      <c r="U18" s="390"/>
-      <c r="V18" s="394">
+      <c r="S18" s="401"/>
+      <c r="T18" s="401"/>
+      <c r="U18" s="400"/>
+      <c r="V18" s="413">
         <f>512*3</f>
         <v>1536</v>
       </c>
-      <c r="W18" s="395"/>
-      <c r="X18" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y18" s="397"/>
-      <c r="Z18" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA18" s="390"/>
-      <c r="AB18" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC18" s="390"/>
-      <c r="AD18" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE18" s="397"/>
-      <c r="AF18" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG18" s="389"/>
-      <c r="AH18" s="390"/>
-      <c r="AI18" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ18" s="392"/>
-      <c r="AK18" s="392"/>
-      <c r="AL18" s="392"/>
-      <c r="AM18" s="392"/>
-      <c r="AN18" s="393"/>
+      <c r="W18" s="414"/>
+      <c r="X18" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y18" s="398"/>
+      <c r="Z18" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA18" s="400"/>
+      <c r="AB18" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC18" s="400"/>
+      <c r="AD18" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE18" s="398"/>
+      <c r="AF18" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG18" s="401"/>
+      <c r="AH18" s="400"/>
+      <c r="AI18" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ18" s="403"/>
+      <c r="AK18" s="403"/>
+      <c r="AL18" s="403"/>
+      <c r="AM18" s="403"/>
+      <c r="AN18" s="404"/>
       <c r="AS18" s="120"/>
       <c r="AT18" s="120"/>
       <c r="AU18" s="140"/>
@@ -15102,22 +15111,22 @@
       <c r="A19" s="149">
         <v>12</v>
       </c>
-      <c r="B19" s="391" t="s">
-        <v>156</v>
-      </c>
-      <c r="C19" s="207"/>
-      <c r="D19" s="207"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="388" t="s">
-        <v>157</v>
+      <c r="B19" s="402" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="263"/>
+      <c r="D19" s="263"/>
+      <c r="E19" s="263"/>
+      <c r="F19" s="264"/>
+      <c r="G19" s="399" t="s">
+        <v>152</v>
       </c>
       <c r="H19" s="213"/>
       <c r="I19" s="213"/>
       <c r="J19" s="213"/>
       <c r="K19" s="214"/>
-      <c r="L19" s="388" t="s">
-        <v>158</v>
+      <c r="L19" s="399" t="s">
+        <v>153</v>
       </c>
       <c r="M19" s="213"/>
       <c r="N19" s="213"/>
@@ -15126,45 +15135,45 @@
       <c r="Q19" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R19" s="388" t="s">
+      <c r="R19" s="399" t="s">
         <v>91</v>
       </c>
-      <c r="S19" s="389"/>
-      <c r="T19" s="389"/>
-      <c r="U19" s="390"/>
-      <c r="V19" s="394">
+      <c r="S19" s="401"/>
+      <c r="T19" s="401"/>
+      <c r="U19" s="400"/>
+      <c r="V19" s="413">
         <v>11</v>
       </c>
-      <c r="W19" s="395"/>
-      <c r="X19" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y19" s="397"/>
-      <c r="Z19" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA19" s="390"/>
-      <c r="AB19" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC19" s="390"/>
-      <c r="AD19" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE19" s="397"/>
-      <c r="AF19" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG19" s="389"/>
-      <c r="AH19" s="390"/>
-      <c r="AI19" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ19" s="392"/>
-      <c r="AK19" s="392"/>
-      <c r="AL19" s="392"/>
-      <c r="AM19" s="392"/>
-      <c r="AN19" s="393"/>
+      <c r="W19" s="414"/>
+      <c r="X19" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y19" s="398"/>
+      <c r="Z19" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA19" s="400"/>
+      <c r="AB19" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC19" s="400"/>
+      <c r="AD19" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE19" s="398"/>
+      <c r="AF19" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG19" s="401"/>
+      <c r="AH19" s="400"/>
+      <c r="AI19" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ19" s="403"/>
+      <c r="AK19" s="403"/>
+      <c r="AL19" s="403"/>
+      <c r="AM19" s="403"/>
+      <c r="AN19" s="404"/>
       <c r="AS19" s="120"/>
       <c r="AT19" s="120"/>
       <c r="AU19" s="140"/>
@@ -15230,22 +15239,22 @@
       <c r="A20" s="149">
         <v>13</v>
       </c>
-      <c r="B20" s="206" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="207"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="208"/>
-      <c r="G20" s="388" t="s">
-        <v>162</v>
+      <c r="B20" s="262" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="264"/>
+      <c r="G20" s="399" t="s">
+        <v>157</v>
       </c>
       <c r="H20" s="213"/>
       <c r="I20" s="213"/>
       <c r="J20" s="213"/>
       <c r="K20" s="214"/>
       <c r="L20" s="212" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="M20" s="213"/>
       <c r="N20" s="213"/>
@@ -15254,45 +15263,45 @@
       <c r="Q20" s="182" t="s">
         <v>90</v>
       </c>
-      <c r="R20" s="388" t="s">
+      <c r="R20" s="399" t="s">
         <v>91</v>
       </c>
-      <c r="S20" s="389"/>
-      <c r="T20" s="389"/>
-      <c r="U20" s="390"/>
-      <c r="V20" s="394">
+      <c r="S20" s="401"/>
+      <c r="T20" s="401"/>
+      <c r="U20" s="400"/>
+      <c r="V20" s="413">
         <v>11</v>
       </c>
-      <c r="W20" s="395"/>
-      <c r="X20" s="396" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y20" s="397"/>
-      <c r="Z20" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA20" s="390"/>
-      <c r="AB20" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC20" s="390"/>
-      <c r="AD20" s="396" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE20" s="397"/>
-      <c r="AF20" s="388" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG20" s="389"/>
-      <c r="AH20" s="390"/>
-      <c r="AI20" s="391" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ20" s="392"/>
-      <c r="AK20" s="392"/>
-      <c r="AL20" s="392"/>
-      <c r="AM20" s="392"/>
-      <c r="AN20" s="393"/>
+      <c r="W20" s="414"/>
+      <c r="X20" s="397" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y20" s="398"/>
+      <c r="Z20" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA20" s="400"/>
+      <c r="AB20" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC20" s="400"/>
+      <c r="AD20" s="397" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE20" s="398"/>
+      <c r="AF20" s="399" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG20" s="401"/>
+      <c r="AH20" s="400"/>
+      <c r="AI20" s="402" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ20" s="403"/>
+      <c r="AK20" s="403"/>
+      <c r="AL20" s="403"/>
+      <c r="AM20" s="403"/>
+      <c r="AN20" s="404"/>
       <c r="AS20" s="120"/>
       <c r="AT20" s="120"/>
       <c r="AU20" s="140"/>
@@ -15356,45 +15365,45 @@
     </row>
     <row r="21" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="181"/>
-      <c r="B21" s="391"/>
-      <c r="C21" s="392"/>
-      <c r="D21" s="392"/>
-      <c r="E21" s="392"/>
-      <c r="F21" s="393"/>
-      <c r="G21" s="398"/>
-      <c r="H21" s="399"/>
-      <c r="I21" s="399"/>
-      <c r="J21" s="399"/>
-      <c r="K21" s="400"/>
-      <c r="L21" s="391"/>
-      <c r="M21" s="392"/>
-      <c r="N21" s="392"/>
-      <c r="O21" s="392"/>
-      <c r="P21" s="393"/>
+      <c r="B21" s="402"/>
+      <c r="C21" s="403"/>
+      <c r="D21" s="403"/>
+      <c r="E21" s="403"/>
+      <c r="F21" s="404"/>
+      <c r="G21" s="410"/>
+      <c r="H21" s="411"/>
+      <c r="I21" s="411"/>
+      <c r="J21" s="411"/>
+      <c r="K21" s="412"/>
+      <c r="L21" s="402"/>
+      <c r="M21" s="403"/>
+      <c r="N21" s="403"/>
+      <c r="O21" s="403"/>
+      <c r="P21" s="404"/>
       <c r="Q21" s="182"/>
-      <c r="R21" s="388"/>
-      <c r="S21" s="389"/>
-      <c r="T21" s="389"/>
-      <c r="U21" s="390"/>
-      <c r="V21" s="394"/>
-      <c r="W21" s="395"/>
-      <c r="X21" s="396"/>
-      <c r="Y21" s="397"/>
-      <c r="Z21" s="388"/>
-      <c r="AA21" s="390"/>
-      <c r="AB21" s="388"/>
-      <c r="AC21" s="390"/>
-      <c r="AD21" s="396"/>
-      <c r="AE21" s="397"/>
-      <c r="AF21" s="388"/>
-      <c r="AG21" s="389"/>
-      <c r="AH21" s="390"/>
-      <c r="AI21" s="391"/>
-      <c r="AJ21" s="392"/>
-      <c r="AK21" s="392"/>
-      <c r="AL21" s="392"/>
-      <c r="AM21" s="392"/>
-      <c r="AN21" s="393"/>
+      <c r="R21" s="399"/>
+      <c r="S21" s="401"/>
+      <c r="T21" s="401"/>
+      <c r="U21" s="400"/>
+      <c r="V21" s="413"/>
+      <c r="W21" s="414"/>
+      <c r="X21" s="397"/>
+      <c r="Y21" s="398"/>
+      <c r="Z21" s="399"/>
+      <c r="AA21" s="400"/>
+      <c r="AB21" s="399"/>
+      <c r="AC21" s="400"/>
+      <c r="AD21" s="397"/>
+      <c r="AE21" s="398"/>
+      <c r="AF21" s="399"/>
+      <c r="AG21" s="401"/>
+      <c r="AH21" s="400"/>
+      <c r="AI21" s="402"/>
+      <c r="AJ21" s="403"/>
+      <c r="AK21" s="403"/>
+      <c r="AL21" s="403"/>
+      <c r="AM21" s="403"/>
+      <c r="AN21" s="404"/>
       <c r="AS21" s="120"/>
       <c r="AT21" s="120"/>
       <c r="AU21" s="140"/>
@@ -15458,45 +15467,45 @@
     </row>
     <row r="22" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="181"/>
-      <c r="B22" s="391"/>
-      <c r="C22" s="392"/>
-      <c r="D22" s="392"/>
-      <c r="E22" s="392"/>
-      <c r="F22" s="393"/>
-      <c r="G22" s="398"/>
-      <c r="H22" s="399"/>
-      <c r="I22" s="399"/>
-      <c r="J22" s="399"/>
-      <c r="K22" s="400"/>
-      <c r="L22" s="391"/>
-      <c r="M22" s="392"/>
-      <c r="N22" s="392"/>
-      <c r="O22" s="392"/>
-      <c r="P22" s="393"/>
+      <c r="B22" s="402"/>
+      <c r="C22" s="403"/>
+      <c r="D22" s="403"/>
+      <c r="E22" s="403"/>
+      <c r="F22" s="404"/>
+      <c r="G22" s="410"/>
+      <c r="H22" s="411"/>
+      <c r="I22" s="411"/>
+      <c r="J22" s="411"/>
+      <c r="K22" s="412"/>
+      <c r="L22" s="402"/>
+      <c r="M22" s="403"/>
+      <c r="N22" s="403"/>
+      <c r="O22" s="403"/>
+      <c r="P22" s="404"/>
       <c r="Q22" s="182"/>
-      <c r="R22" s="388"/>
-      <c r="S22" s="389"/>
-      <c r="T22" s="389"/>
-      <c r="U22" s="390"/>
-      <c r="V22" s="394"/>
-      <c r="W22" s="395"/>
-      <c r="X22" s="396"/>
-      <c r="Y22" s="397"/>
-      <c r="Z22" s="388"/>
-      <c r="AA22" s="390"/>
-      <c r="AB22" s="388"/>
-      <c r="AC22" s="390"/>
-      <c r="AD22" s="396"/>
-      <c r="AE22" s="397"/>
-      <c r="AF22" s="388"/>
-      <c r="AG22" s="389"/>
-      <c r="AH22" s="390"/>
-      <c r="AI22" s="391"/>
-      <c r="AJ22" s="392"/>
-      <c r="AK22" s="392"/>
-      <c r="AL22" s="392"/>
-      <c r="AM22" s="392"/>
-      <c r="AN22" s="393"/>
+      <c r="R22" s="399"/>
+      <c r="S22" s="401"/>
+      <c r="T22" s="401"/>
+      <c r="U22" s="400"/>
+      <c r="V22" s="413"/>
+      <c r="W22" s="414"/>
+      <c r="X22" s="397"/>
+      <c r="Y22" s="398"/>
+      <c r="Z22" s="399"/>
+      <c r="AA22" s="400"/>
+      <c r="AB22" s="399"/>
+      <c r="AC22" s="400"/>
+      <c r="AD22" s="397"/>
+      <c r="AE22" s="398"/>
+      <c r="AF22" s="399"/>
+      <c r="AG22" s="401"/>
+      <c r="AH22" s="400"/>
+      <c r="AI22" s="402"/>
+      <c r="AJ22" s="403"/>
+      <c r="AK22" s="403"/>
+      <c r="AL22" s="403"/>
+      <c r="AM22" s="403"/>
+      <c r="AN22" s="404"/>
       <c r="AS22" s="120"/>
       <c r="AT22" s="120"/>
       <c r="AU22" s="140"/>
@@ -15560,45 +15569,45 @@
     </row>
     <row r="23" spans="1:121" s="141" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="181"/>
-      <c r="B23" s="391"/>
-      <c r="C23" s="392"/>
-      <c r="D23" s="392"/>
-      <c r="E23" s="392"/>
-      <c r="F23" s="393"/>
-      <c r="G23" s="391"/>
-      <c r="H23" s="392"/>
-      <c r="I23" s="392"/>
-      <c r="J23" s="392"/>
-      <c r="K23" s="393"/>
-      <c r="L23" s="391"/>
-      <c r="M23" s="392"/>
-      <c r="N23" s="392"/>
-      <c r="O23" s="392"/>
-      <c r="P23" s="393"/>
+      <c r="B23" s="402"/>
+      <c r="C23" s="403"/>
+      <c r="D23" s="403"/>
+      <c r="E23" s="403"/>
+      <c r="F23" s="404"/>
+      <c r="G23" s="402"/>
+      <c r="H23" s="403"/>
+      <c r="I23" s="403"/>
+      <c r="J23" s="403"/>
+      <c r="K23" s="404"/>
+      <c r="L23" s="402"/>
+      <c r="M23" s="403"/>
+      <c r="N23" s="403"/>
+      <c r="O23" s="403"/>
+      <c r="P23" s="404"/>
       <c r="Q23" s="182"/>
-      <c r="R23" s="388"/>
-      <c r="S23" s="389"/>
-      <c r="T23" s="389"/>
-      <c r="U23" s="390"/>
-      <c r="V23" s="405"/>
-      <c r="W23" s="406"/>
-      <c r="X23" s="407"/>
-      <c r="Y23" s="408"/>
-      <c r="Z23" s="396"/>
-      <c r="AA23" s="397"/>
-      <c r="AB23" s="388"/>
-      <c r="AC23" s="390"/>
-      <c r="AD23" s="396"/>
-      <c r="AE23" s="397"/>
-      <c r="AF23" s="388"/>
-      <c r="AG23" s="389"/>
-      <c r="AH23" s="390"/>
-      <c r="AI23" s="391"/>
-      <c r="AJ23" s="392"/>
-      <c r="AK23" s="392"/>
-      <c r="AL23" s="392"/>
-      <c r="AM23" s="392"/>
-      <c r="AN23" s="393"/>
+      <c r="R23" s="399"/>
+      <c r="S23" s="401"/>
+      <c r="T23" s="401"/>
+      <c r="U23" s="400"/>
+      <c r="V23" s="406"/>
+      <c r="W23" s="407"/>
+      <c r="X23" s="408"/>
+      <c r="Y23" s="409"/>
+      <c r="Z23" s="397"/>
+      <c r="AA23" s="398"/>
+      <c r="AB23" s="399"/>
+      <c r="AC23" s="400"/>
+      <c r="AD23" s="397"/>
+      <c r="AE23" s="398"/>
+      <c r="AF23" s="399"/>
+      <c r="AG23" s="401"/>
+      <c r="AH23" s="400"/>
+      <c r="AI23" s="402"/>
+      <c r="AJ23" s="403"/>
+      <c r="AK23" s="403"/>
+      <c r="AL23" s="403"/>
+      <c r="AM23" s="403"/>
+      <c r="AN23" s="404"/>
       <c r="AS23" s="120"/>
       <c r="AT23" s="120"/>
       <c r="AU23" s="140"/>
@@ -15662,27 +15671,165 @@
     </row>
   </sheetData>
   <mergeCells count="204">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AD7:AE7"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AI7:AN7"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AN8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AI9:AN9"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="AB8:AC8"/>
+    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AN10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AI11:AN11"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="AB10:AC10"/>
+    <mergeCell ref="AD10:AE10"/>
+    <mergeCell ref="AF12:AH12"/>
+    <mergeCell ref="AI12:AN12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AD13:AE13"/>
+    <mergeCell ref="AF13:AH13"/>
+    <mergeCell ref="AI13:AN13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AD12:AE12"/>
+    <mergeCell ref="AF14:AH14"/>
+    <mergeCell ref="AI14:AN14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AD15:AE15"/>
+    <mergeCell ref="AF15:AH15"/>
+    <mergeCell ref="AI15:AN15"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AD14:AE14"/>
+    <mergeCell ref="AD18:AE18"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AI16:AN16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AD17:AE17"/>
+    <mergeCell ref="AF17:AH17"/>
+    <mergeCell ref="AI17:AN17"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AD20:AE20"/>
+    <mergeCell ref="AF18:AH18"/>
+    <mergeCell ref="AI18:AN18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AD19:AE19"/>
+    <mergeCell ref="AF19:AH19"/>
+    <mergeCell ref="AI19:AN19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AD22:AE22"/>
+    <mergeCell ref="AF20:AH20"/>
+    <mergeCell ref="AI20:AN20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AH21"/>
+    <mergeCell ref="AI21:AN21"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="X20:Y20"/>
     <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="AB23:AC23"/>
     <mergeCell ref="AD23:AE23"/>
@@ -15707,165 +15854,27 @@
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="L22:P22"/>
     <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AD22:AE22"/>
-    <mergeCell ref="AF20:AH20"/>
-    <mergeCell ref="AI20:AN20"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AH21"/>
-    <mergeCell ref="AI21:AN21"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AD20:AE20"/>
-    <mergeCell ref="AF18:AH18"/>
-    <mergeCell ref="AI18:AN18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AD19:AE19"/>
-    <mergeCell ref="AF19:AH19"/>
-    <mergeCell ref="AI19:AN19"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AD18:AE18"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AI16:AN16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AD17:AE17"/>
-    <mergeCell ref="AF17:AH17"/>
-    <mergeCell ref="AI17:AN17"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AF14:AH14"/>
-    <mergeCell ref="AI14:AN14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AD15:AE15"/>
-    <mergeCell ref="AF15:AH15"/>
-    <mergeCell ref="AI15:AN15"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AD14:AE14"/>
-    <mergeCell ref="AF12:AH12"/>
-    <mergeCell ref="AI12:AN12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AD13:AE13"/>
-    <mergeCell ref="AF13:AH13"/>
-    <mergeCell ref="AI13:AN13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AD12:AE12"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AN10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AI11:AN11"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="AB10:AC10"/>
-    <mergeCell ref="AD10:AE10"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AI8:AN8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AI9:AN9"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="AD8:AE8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AD7:AE7"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AI7:AN7"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="17"/>
   <dataValidations count="2">
